--- a/Data/Bioesta.xlsx
+++ b/Data/Bioesta.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpast\Desktop\Projects_Github\Project_Fv.Fm_upward_downward\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuniorPastor\Desktop\Projects_Github\Project_Fv.Fm_upward_downward\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8B47A-5E6E-4BF7-B812-94DB9B7640D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18076" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18075" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!$A$1:$U$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Especies!$A$1:$G$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>tc={9120479F-0C05-41E4-949D-3F57427716CE}</author>
@@ -42,7 +41,7 @@
     <author>tc={9155351B-8E29-41BF-8379-EB19D2F1084E}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,28 +54,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{9120479F-0C05-41E4-949D-3F57427716CE}">
+    <comment ref="B1" authorId="1" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     actualicé las abreviaturas acorde a nombre científico</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{BD5D066F-9892-4183-9957-6CA59FD349BF}">
+    <comment ref="M1" authorId="2" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Contenido de agua de la hoja= (peso fresco-peso seco)/peso fresco*100</t>
+        </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="3" shapeId="0" xr:uid="{9155351B-8E29-41BF-8379-EB19D2F1084E}">
+    <comment ref="N1" authorId="3" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Area foliar especifica=area disco/peso seco disco, cm2/g</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -84,7 +104,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={FF0067CA-317B-40BD-93C9-FBCEDC5D7B14}</author>
     <author>tc={37731311-D64E-431A-B13E-4DAA9153FC47}</author>
@@ -95,60 +115,109 @@
     <author>tc={A175E700-DEDB-4828-B0F5-BF88DBEC5336}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FF0067CA-317B-40BD-93C9-FBCEDC5D7B14}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Favor colocar si es de sombra o luz</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{37731311-D64E-431A-B13E-4DAA9153FC47}">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Favor colocar si es árbol o arbusto</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{C8219B4E-6709-4A19-A545-376B0D63A0B9}">
+    <comment ref="E1" authorId="2" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Favor colocar si es nativa o exótica</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{7F406E86-0929-4A70-BADA-FFE1000E42FD}">
+    <comment ref="F1" authorId="3" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     actualicé las abreviaturas acorde a nombre científico</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{EBAF7058-9B4A-49E1-8DC2-A9EFDD98E077}">
+    <comment ref="A4" authorId="4" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Verifiar esta especie, no la encuentro y no sé la familia</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="5" shapeId="0" xr:uid="{91A1B4AC-2ED4-42EE-A480-0CF502E2385F}">
+    <comment ref="B4" authorId="5" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     No encontré la familia</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="6" shapeId="0" xr:uid="{A175E700-DEDB-4828-B0F5-BF88DBEC5336}">
+    <comment ref="A9" authorId="6" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Pregunta a Fabian o Rolando la especie</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -404,7 +473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -643,7 +712,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Hoja 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Hoja 1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -903,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -913,35 +982,35 @@
       <pane xSplit="7" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.9296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.46484375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.19921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.06640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="24" customFormat="1" ht="13.9">
+    <row r="1" spans="1:21" s="24" customFormat="1" ht="15">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -1048,8 +1117,8 @@
         <v>68.300653594771248</v>
       </c>
       <c r="N2" s="12">
-        <f t="shared" ref="N2:N65" si="1">IF(L2&gt;0,((1.8/2)^2*PI())/L2,"")</f>
-        <v>262.33918035131262</v>
+        <f>IF(L2&gt;0,2.269800692/L2,"")</f>
+        <v>234.00007134020618</v>
       </c>
       <c r="O2" s="11">
         <v>37.6</v>
@@ -1101,7 +1170,7 @@
         <v/>
       </c>
       <c r="N3" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N3:N66" si="1">IF(L3&gt;0,2.269800692/L3,"")</f>
         <v/>
       </c>
       <c r="O3" s="11">
@@ -1157,7 +1226,7 @@
       </c>
       <c r="N4" s="12">
         <f t="shared" si="1"/>
-        <v>279.63626916568489</v>
+        <v>249.42864747252747</v>
       </c>
       <c r="O4" s="11">
         <v>39.4</v>
@@ -1265,7 +1334,7 @@
       </c>
       <c r="N6" s="12">
         <f t="shared" si="1"/>
-        <v>306.58916257924488</v>
+        <v>273.46996289156624</v>
       </c>
       <c r="O6" s="11">
         <v>39.5</v>
@@ -1381,7 +1450,7 @@
       </c>
       <c r="N8" s="12">
         <f t="shared" si="1"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O8" s="11">
         <v>36.4</v>
@@ -1489,7 +1558,7 @@
       </c>
       <c r="N10" s="12">
         <f t="shared" si="1"/>
-        <v>210.30496276096966</v>
+        <v>187.58683404958677</v>
       </c>
       <c r="O10" s="11">
         <v>33.700000000000003</v>
@@ -1597,7 +1666,7 @@
       </c>
       <c r="N12" s="12">
         <f t="shared" si="1"/>
-        <v>251.94950984234978</v>
+        <v>224.73274178217824</v>
       </c>
       <c r="O12" s="14">
         <v>32.5</v>
@@ -1705,7 +1774,7 @@
       </c>
       <c r="N14" s="12">
         <f t="shared" si="1"/>
-        <v>208.58115159079776</v>
+        <v>186.04923704918031</v>
       </c>
       <c r="O14" s="11">
         <v>37.9</v>
@@ -1813,7 +1882,7 @@
       </c>
       <c r="N16" s="12">
         <f t="shared" si="1"/>
-        <v>233.45780269795713</v>
+        <v>208.23859559633027</v>
       </c>
       <c r="O16" s="11">
         <v>48</v>
@@ -1921,7 +1990,7 @@
       </c>
       <c r="N18" s="12">
         <f t="shared" si="1"/>
-        <v>247.05728635026531</v>
+        <v>220.36899922330096</v>
       </c>
       <c r="O18" s="11">
         <v>49.5</v>
@@ -2029,7 +2098,7 @@
       </c>
       <c r="N20" s="12">
         <f t="shared" si="1"/>
-        <v>265.07188014663882</v>
+        <v>236.43757208333335</v>
       </c>
       <c r="O20" s="11">
         <v>46.9</v>
@@ -2137,7 +2206,7 @@
       </c>
       <c r="N22" s="12">
         <f t="shared" si="1"/>
-        <v>273.62258595782072</v>
+        <v>244.06459053763442</v>
       </c>
       <c r="O22" s="11">
         <v>53.1</v>
@@ -2245,7 +2314,7 @@
       </c>
       <c r="N24" s="12">
         <f t="shared" si="1"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O24" s="11">
         <v>50</v>
@@ -2353,7 +2422,7 @@
       </c>
       <c r="N26" s="12">
         <f t="shared" si="1"/>
-        <v>348.58767800105926</v>
+        <v>310.93160164383562</v>
       </c>
       <c r="O26" s="11">
         <v>35.5</v>
@@ -2418,7 +2487,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="13.15">
+    <row r="28" spans="1:21" ht="12.75">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -2461,7 +2530,7 @@
       </c>
       <c r="N28" s="12">
         <f t="shared" si="1"/>
-        <v>213.83949995022962</v>
+        <v>190.73955394957983</v>
       </c>
       <c r="O28" s="11">
         <v>52.5</v>
@@ -2473,7 +2542,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="13.15">
+    <row r="29" spans="1:21" ht="12.75">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -2526,7 +2595,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="13.15">
+    <row r="30" spans="1:21" ht="12.75">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -2569,7 +2638,7 @@
       </c>
       <c r="N30" s="12">
         <f t="shared" si="1"/>
-        <v>322.11266448199143</v>
+        <v>287.31654329113923</v>
       </c>
       <c r="O30" s="11">
         <v>40.299999999999997</v>
@@ -2581,7 +2650,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="13.15">
+    <row r="31" spans="1:21" ht="12.75">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -2634,7 +2703,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="13.15">
+    <row r="32" spans="1:21" ht="12.75">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -2673,7 +2742,7 @@
       </c>
       <c r="N32" s="12">
         <f t="shared" si="1"/>
-        <v>201.95952773077244</v>
+        <v>180.14291206349208</v>
       </c>
       <c r="O32" s="11">
         <v>50.9</v>
@@ -2685,7 +2754,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:21" ht="13.15">
+    <row r="33" spans="1:21" ht="12.75">
       <c r="A33" s="28">
         <v>32</v>
       </c>
@@ -2724,7 +2793,7 @@
       </c>
       <c r="N33" s="12">
         <f t="shared" si="1"/>
-        <v>223.21842538664322</v>
+        <v>199.1053238596491</v>
       </c>
       <c r="O33" s="11">
         <v>52.9</v>
@@ -2736,7 +2805,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21" ht="13.15">
+    <row r="34" spans="1:21" ht="12.75">
       <c r="A34" s="28">
         <v>33</v>
       </c>
@@ -2775,7 +2844,7 @@
       </c>
       <c r="N34" s="12">
         <f t="shared" si="1"/>
-        <v>215.65169910235022</v>
+        <v>192.35599084745763</v>
       </c>
       <c r="O34" s="11">
         <v>54.1</v>
@@ -2787,7 +2856,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21" ht="13.15">
+    <row r="35" spans="1:21" ht="12.75">
       <c r="A35" s="28">
         <v>34</v>
       </c>
@@ -2826,7 +2895,7 @@
       </c>
       <c r="N35" s="12">
         <f t="shared" si="1"/>
-        <v>205.21693946836555</v>
+        <v>183.0484429032258</v>
       </c>
       <c r="O35" s="11">
         <v>48.3</v>
@@ -2838,7 +2907,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:21" ht="13.15">
+    <row r="36" spans="1:21" ht="12.75">
       <c r="A36" s="28">
         <v>35</v>
       </c>
@@ -2877,7 +2946,7 @@
       </c>
       <c r="N36" s="12">
         <f t="shared" si="1"/>
-        <v>189.90224249311439</v>
+        <v>169.38811134328358</v>
       </c>
       <c r="O36" s="11">
         <v>47.1</v>
@@ -2893,7 +2962,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:21" ht="13.15">
+    <row r="37" spans="1:21" ht="12.75">
       <c r="A37" s="28">
         <v>36</v>
       </c>
@@ -2932,7 +3001,7 @@
       </c>
       <c r="N37" s="12">
         <f t="shared" si="1"/>
-        <v>212.05750411731105</v>
+        <v>189.15005766666667</v>
       </c>
       <c r="O37" s="11">
         <v>50.6</v>
@@ -2948,7 +3017,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21" ht="13.15">
+    <row r="38" spans="1:21" ht="12.75">
       <c r="A38" s="28">
         <v>37</v>
       </c>
@@ -2987,7 +3056,7 @@
       </c>
       <c r="N38" s="12">
         <f t="shared" si="1"/>
-        <v>189.90224249311439</v>
+        <v>169.38811134328358</v>
       </c>
       <c r="O38" s="11">
         <v>49.6</v>
@@ -2999,7 +3068,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21" ht="13.15">
+    <row r="39" spans="1:21" ht="12.75">
       <c r="A39" s="28">
         <v>38</v>
       </c>
@@ -3038,7 +3107,7 @@
       </c>
       <c r="N39" s="12">
         <f t="shared" si="1"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O39" s="11">
         <v>46.5</v>
@@ -3050,7 +3119,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" spans="1:21" ht="13.15">
+    <row r="40" spans="1:21" ht="12.75">
       <c r="A40" s="28">
         <v>39</v>
       </c>
@@ -3089,7 +3158,7 @@
       </c>
       <c r="N40" s="12">
         <f t="shared" si="1"/>
-        <v>267.86211046397187</v>
+        <v>238.92638863157896</v>
       </c>
       <c r="O40" s="11">
         <v>54.3</v>
@@ -3101,7 +3170,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="1:21" ht="13.15">
+    <row r="41" spans="1:21" ht="12.75">
       <c r="A41" s="28">
         <v>40</v>
       </c>
@@ -3140,7 +3209,7 @@
       </c>
       <c r="N41" s="12">
         <f t="shared" si="1"/>
-        <v>302.93929159615868</v>
+        <v>270.21436809523811</v>
       </c>
       <c r="O41" s="11">
         <v>52.9</v>
@@ -3152,7 +3221,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
     </row>
-    <row r="42" spans="1:21" ht="13.15">
+    <row r="42" spans="1:21" ht="12.75">
       <c r="A42" s="28">
         <v>41</v>
       </c>
@@ -3191,7 +3260,7 @@
       </c>
       <c r="N42" s="12">
         <f t="shared" si="1"/>
-        <v>292.49310912732562</v>
+        <v>260.89663126436784</v>
       </c>
       <c r="O42" s="11">
         <v>57.9</v>
@@ -3203,7 +3272,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
     </row>
-    <row r="43" spans="1:21" ht="13.15">
+    <row r="43" spans="1:21" ht="12.75">
       <c r="A43" s="28">
         <v>42</v>
       </c>
@@ -3242,7 +3311,7 @@
       </c>
       <c r="N43" s="12">
         <f t="shared" si="1"/>
-        <v>348.58767800105926</v>
+        <v>310.93160164383562</v>
       </c>
       <c r="O43" s="11">
         <v>57.3</v>
@@ -3254,7 +3323,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
     </row>
-    <row r="44" spans="1:21" ht="13.15">
+    <row r="44" spans="1:21" ht="12.75">
       <c r="A44" s="28">
         <v>43</v>
       </c>
@@ -3293,7 +3362,7 @@
       </c>
       <c r="N44" s="12">
         <f t="shared" si="1"/>
-        <v>348.58767800105926</v>
+        <v>310.93160164383562</v>
       </c>
       <c r="O44" s="11">
         <v>54.6</v>
@@ -3305,7 +3374,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
     </row>
-    <row r="45" spans="1:21" ht="13.15">
+    <row r="45" spans="1:21" ht="12.75">
       <c r="A45" s="28">
         <v>44</v>
       </c>
@@ -3344,7 +3413,7 @@
       </c>
       <c r="N45" s="12">
         <f t="shared" si="1"/>
-        <v>318.08625617596658</v>
+        <v>283.72508649999997</v>
       </c>
       <c r="O45" s="11">
         <v>53</v>
@@ -3356,7 +3425,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
     </row>
-    <row r="46" spans="1:21" ht="13.15">
+    <row r="46" spans="1:21" ht="12.75">
       <c r="A46" s="28">
         <v>45</v>
       </c>
@@ -3395,7 +3464,7 @@
       </c>
       <c r="N46" s="12">
         <f t="shared" si="1"/>
-        <v>227.20446869711898</v>
+        <v>202.66077607142859</v>
       </c>
       <c r="O46" s="11">
         <v>51.6</v>
@@ -3407,7 +3476,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
     </row>
-    <row r="47" spans="1:21" ht="13.15">
+    <row r="47" spans="1:21" ht="12.75">
       <c r="A47" s="28">
         <v>46</v>
       </c>
@@ -3446,7 +3515,7 @@
       </c>
       <c r="N47" s="12">
         <f t="shared" si="1"/>
-        <v>231.33545903706661</v>
+        <v>206.34551745454547</v>
       </c>
       <c r="O47" s="11">
         <v>51.6</v>
@@ -3458,7 +3527,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
     </row>
-    <row r="48" spans="1:21" ht="13.15">
+    <row r="48" spans="1:21" ht="12.75">
       <c r="A48" s="28">
         <v>47</v>
       </c>
@@ -3497,7 +3566,7 @@
       </c>
       <c r="N48" s="12">
         <f t="shared" si="1"/>
-        <v>279.63626916568489</v>
+        <v>249.42864747252747</v>
       </c>
       <c r="O48" s="11">
         <v>50</v>
@@ -3509,7 +3578,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
     </row>
-    <row r="49" spans="1:21" ht="13.15">
+    <row r="49" spans="1:21" ht="12.75">
       <c r="A49" s="28">
         <v>48</v>
       </c>
@@ -3548,7 +3617,7 @@
       </c>
       <c r="N49" s="12">
         <f t="shared" si="1"/>
-        <v>247.05728635026531</v>
+        <v>220.36899922330096</v>
       </c>
       <c r="O49" s="11">
         <v>51.2</v>
@@ -3560,7 +3629,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
     </row>
-    <row r="50" spans="1:21" ht="13.15">
+    <row r="50" spans="1:21" ht="12.75">
       <c r="A50" s="28">
         <v>49</v>
       </c>
@@ -3599,7 +3668,7 @@
       </c>
       <c r="N50" s="12">
         <f t="shared" si="1"/>
-        <v>292.49310912732562</v>
+        <v>260.89663126436784</v>
       </c>
       <c r="O50" s="11">
         <v>51.7</v>
@@ -3611,7 +3680,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" spans="1:21" ht="13.15">
+    <row r="51" spans="1:21" ht="12.75">
       <c r="A51" s="28">
         <v>50</v>
       </c>
@@ -3650,7 +3719,7 @@
       </c>
       <c r="N51" s="12">
         <f t="shared" si="1"/>
-        <v>242.35143327692691</v>
+        <v>216.17149447619047</v>
       </c>
       <c r="O51" s="11">
         <v>52</v>
@@ -3662,7 +3731,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
     </row>
-    <row r="52" spans="1:21" ht="13.15">
+    <row r="52" spans="1:21" ht="12.75">
       <c r="A52" s="28">
         <v>51</v>
       </c>
@@ -3701,7 +3770,7 @@
       </c>
       <c r="N52" s="12">
         <f t="shared" si="1"/>
-        <v>233.45780269795713</v>
+        <v>208.23859559633027</v>
       </c>
       <c r="O52" s="11">
         <v>50.2</v>
@@ -3713,7 +3782,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
     </row>
-    <row r="53" spans="1:21" ht="13.15">
+    <row r="53" spans="1:21" ht="12.75">
       <c r="A53" s="28">
         <v>52</v>
       </c>
@@ -3752,7 +3821,7 @@
       </c>
       <c r="N53" s="12">
         <f t="shared" si="1"/>
-        <v>244.6817355199743</v>
+        <v>218.25006653846154</v>
       </c>
       <c r="O53" s="11">
         <v>51.4</v>
@@ -3764,7 +3833,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
     </row>
-    <row r="54" spans="1:21" ht="13.15">
+    <row r="54" spans="1:21" ht="12.75">
       <c r="A54" s="28">
         <v>53</v>
       </c>
@@ -3803,7 +3872,7 @@
       </c>
       <c r="N54" s="12">
         <f t="shared" si="1"/>
-        <v>197.26279452773122</v>
+        <v>175.95354201550387</v>
       </c>
       <c r="O54" s="11">
         <v>51.6</v>
@@ -3815,7 +3884,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
     </row>
-    <row r="55" spans="1:21" ht="13.15">
+    <row r="55" spans="1:21" ht="12.75">
       <c r="A55" s="28">
         <v>54</v>
       </c>
@@ -3854,7 +3923,7 @@
       </c>
       <c r="N55" s="12">
         <f t="shared" si="1"/>
-        <v>208.58115159079776</v>
+        <v>186.04923704918031</v>
       </c>
       <c r="O55" s="11">
         <v>51</v>
@@ -3866,7 +3935,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
     </row>
-    <row r="56" spans="1:21" ht="13.15">
+    <row r="56" spans="1:21" ht="12.75">
       <c r="A56" s="28">
         <v>55</v>
       </c>
@@ -3905,7 +3974,7 @@
       </c>
       <c r="N56" s="12">
         <f t="shared" si="1"/>
-        <v>219.36983184549422</v>
+        <v>195.67247344827587</v>
       </c>
       <c r="O56" s="11">
         <v>50.6</v>
@@ -3917,7 +3986,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" spans="1:21" ht="13.15">
+    <row r="57" spans="1:21" ht="12.75">
       <c r="A57" s="28">
         <v>56</v>
       </c>
@@ -3956,7 +4025,7 @@
       </c>
       <c r="N57" s="12">
         <f t="shared" si="1"/>
-        <v>273.62258595782072</v>
+        <v>244.06459053763442</v>
       </c>
       <c r="O57" s="11">
         <v>53.2</v>
@@ -3968,7 +4037,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
     </row>
-    <row r="58" spans="1:21" ht="13.15">
+    <row r="58" spans="1:21" ht="12.75">
       <c r="A58" s="28">
         <v>57</v>
       </c>
@@ -4007,7 +4076,7 @@
       </c>
       <c r="N58" s="12">
         <f t="shared" si="1"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O58" s="11">
         <v>53.6</v>
@@ -4019,7 +4088,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
     </row>
-    <row r="59" spans="1:21" ht="13.15">
+    <row r="59" spans="1:21" ht="12.75">
       <c r="A59" s="28">
         <v>58</v>
       </c>
@@ -4058,7 +4127,7 @@
       </c>
       <c r="N59" s="12">
         <f t="shared" si="1"/>
-        <v>212.05750411731105</v>
+        <v>189.15005766666667</v>
       </c>
       <c r="O59" s="11">
         <v>51.5</v>
@@ -4070,7 +4139,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
     </row>
-    <row r="60" spans="1:21" ht="13.15">
+    <row r="60" spans="1:21" ht="12.75">
       <c r="A60" s="28">
         <v>59</v>
       </c>
@@ -4109,7 +4178,7 @@
       </c>
       <c r="N60" s="12">
         <f t="shared" si="1"/>
-        <v>257.03939893007401</v>
+        <v>229.27279717171714</v>
       </c>
       <c r="O60" s="11">
         <v>50.2</v>
@@ -4121,7 +4190,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
     </row>
-    <row r="61" spans="1:21" ht="13.15">
+    <row r="61" spans="1:21" ht="12.75">
       <c r="A61" s="28">
         <v>60</v>
       </c>
@@ -4160,7 +4229,7 @@
       </c>
       <c r="N61" s="12">
         <f t="shared" si="1"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O61" s="11">
         <v>51.3</v>
@@ -4172,7 +4241,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
     </row>
-    <row r="62" spans="1:21" ht="13.15">
+    <row r="62" spans="1:21" ht="12.75">
       <c r="A62" s="28">
         <v>61</v>
       </c>
@@ -4211,7 +4280,7 @@
       </c>
       <c r="N62" s="12">
         <f t="shared" si="1"/>
-        <v>326.24231402663241</v>
+        <v>291.00008871794876</v>
       </c>
       <c r="O62" s="11">
         <v>39.799999999999997</v>
@@ -4223,7 +4292,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
     </row>
-    <row r="63" spans="1:21" ht="13.15">
+    <row r="63" spans="1:21" ht="12.75">
       <c r="A63" s="28">
         <v>62</v>
       </c>
@@ -4262,7 +4331,7 @@
       </c>
       <c r="N63" s="12">
         <f t="shared" si="1"/>
-        <v>322.11266448199143</v>
+        <v>287.31654329113923</v>
       </c>
       <c r="O63" s="11">
         <v>38.5</v>
@@ -4274,7 +4343,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
     </row>
-    <row r="64" spans="1:21" ht="13.15">
+    <row r="64" spans="1:21" ht="12.75">
       <c r="A64" s="28">
         <v>63</v>
       </c>
@@ -4313,7 +4382,7 @@
       </c>
       <c r="N64" s="12">
         <f t="shared" si="1"/>
-        <v>343.87703370374766</v>
+        <v>306.72982324324323</v>
       </c>
       <c r="O64" s="11">
         <v>42.8</v>
@@ -4325,7 +4394,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
     </row>
-    <row r="65" spans="1:21" ht="13.15">
+    <row r="65" spans="1:21" ht="12.75">
       <c r="A65" s="28">
         <v>64</v>
       </c>
@@ -4364,7 +4433,7 @@
       </c>
       <c r="N65" s="12">
         <f t="shared" si="1"/>
-        <v>310.32805480582101</v>
+        <v>276.80496243902439</v>
       </c>
       <c r="O65" s="11">
         <v>40.9</v>
@@ -4376,7 +4445,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="12"/>
     </row>
-    <row r="66" spans="1:21" ht="13.15">
+    <row r="66" spans="1:21" ht="12.75">
       <c r="A66" s="28">
         <v>65</v>
       </c>
@@ -4414,8 +4483,8 @@
         <v>75.330396475770925</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" ref="N66:N129" si="3">IF(L66&gt;0,((1.8/2)^2*PI())/L66,"")</f>
-        <v>454.40893739423797</v>
+        <f t="shared" si="1"/>
+        <v>405.32155214285717</v>
       </c>
       <c r="O66" s="11">
         <v>38</v>
@@ -4427,7 +4496,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
     </row>
-    <row r="67" spans="1:21" ht="13.15">
+    <row r="67" spans="1:21" ht="12.75">
       <c r="A67" s="28">
         <v>66</v>
       </c>
@@ -4465,8 +4534,8 @@
         <v>58.82352941176471</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="3"/>
-        <v>330.47922719580941</v>
+        <f t="shared" ref="N67:N130" si="3">IF(L67&gt;0,2.269800692/L67,"")</f>
+        <v>294.77931064935063</v>
       </c>
       <c r="O67" s="11">
         <v>41.1</v>
@@ -4478,7 +4547,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
     </row>
-    <row r="68" spans="1:21" ht="13.15">
+    <row r="68" spans="1:21" ht="12.75">
       <c r="A68" s="28">
         <v>67</v>
       </c>
@@ -4517,7 +4586,7 @@
       </c>
       <c r="N68" s="12">
         <f t="shared" si="3"/>
-        <v>348.58767800105926</v>
+        <v>310.93160164383562</v>
       </c>
       <c r="O68" s="11">
         <v>42.4</v>
@@ -4529,7 +4598,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
     </row>
-    <row r="69" spans="1:21" ht="13.15">
+    <row r="69" spans="1:21" ht="12.75">
       <c r="A69" s="28">
         <v>68</v>
       </c>
@@ -4568,7 +4637,7 @@
       </c>
       <c r="N69" s="12">
         <f t="shared" si="3"/>
-        <v>330.47922719580941</v>
+        <v>294.77931064935063</v>
       </c>
       <c r="O69" s="11">
         <v>40.9</v>
@@ -4580,7 +4649,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
     </row>
-    <row r="70" spans="1:21" ht="13.15">
+    <row r="70" spans="1:21" ht="12.75">
       <c r="A70" s="28">
         <v>69</v>
       </c>
@@ -4619,7 +4688,7 @@
       </c>
       <c r="N70" s="12">
         <f t="shared" si="3"/>
-        <v>410.43387893673111</v>
+        <v>366.09688580645161</v>
       </c>
       <c r="O70" s="11">
         <v>38.6</v>
@@ -4631,7 +4700,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
     </row>
-    <row r="71" spans="1:21" ht="13.15">
+    <row r="71" spans="1:21" ht="12.75">
       <c r="A71" s="28">
         <v>70</v>
       </c>
@@ -4670,7 +4739,7 @@
       </c>
       <c r="N71" s="12">
         <f t="shared" si="3"/>
-        <v>424.11500823462211</v>
+        <v>378.30011533333334</v>
       </c>
       <c r="O71" s="11">
         <v>41.1</v>
@@ -4721,7 +4790,7 @@
       </c>
       <c r="N72" s="12">
         <f t="shared" si="3"/>
-        <v>270.71170738380135</v>
+        <v>241.46815872340426</v>
       </c>
       <c r="O72" s="11">
         <v>42.2</v>
@@ -4733,7 +4802,7 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
     </row>
-    <row r="73" spans="1:21" ht="13.15">
+    <row r="73" spans="1:21" ht="12.75">
       <c r="A73" s="28">
         <v>72</v>
       </c>
@@ -4772,7 +4841,7 @@
       </c>
       <c r="N73" s="12">
         <f t="shared" si="3"/>
-        <v>257.03939893007401</v>
+        <v>229.27279717171714</v>
       </c>
       <c r="O73" s="11">
         <v>42.6</v>
@@ -4784,7 +4853,7 @@
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
     </row>
-    <row r="74" spans="1:21" ht="13.15">
+    <row r="74" spans="1:21" ht="12.75">
       <c r="A74" s="28">
         <v>73</v>
       </c>
@@ -4823,7 +4892,7 @@
       </c>
       <c r="N74" s="12">
         <f t="shared" si="3"/>
-        <v>212.05750411731105</v>
+        <v>189.15005766666667</v>
       </c>
       <c r="O74" s="11">
         <v>45</v>
@@ -4835,7 +4904,7 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
     </row>
-    <row r="75" spans="1:21" ht="13.15">
+    <row r="75" spans="1:21" ht="12.75">
       <c r="A75" s="28">
         <v>74</v>
       </c>
@@ -4874,7 +4943,7 @@
       </c>
       <c r="N75" s="12">
         <f t="shared" si="3"/>
-        <v>201.95952773077244</v>
+        <v>180.14291206349208</v>
       </c>
       <c r="O75" s="11">
         <v>44.2</v>
@@ -4886,7 +4955,7 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
     </row>
-    <row r="76" spans="1:21" ht="13.15">
+    <row r="76" spans="1:21" ht="12.75">
       <c r="A76" s="28">
         <v>75</v>
       </c>
@@ -4925,7 +4994,7 @@
       </c>
       <c r="N76" s="12">
         <f t="shared" si="3"/>
-        <v>217.49487601775493</v>
+        <v>194.00005914529913</v>
       </c>
       <c r="O76" s="11">
         <v>43.8</v>
@@ -4937,7 +5006,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="1:21" ht="13.15">
+    <row r="77" spans="1:21" ht="12.75">
       <c r="A77" s="28">
         <v>76</v>
       </c>
@@ -4976,7 +5045,7 @@
       </c>
       <c r="N77" s="12">
         <f t="shared" si="3"/>
-        <v>206.88536987054738</v>
+        <v>184.53664162601626</v>
       </c>
       <c r="O77" s="11">
         <v>45.8</v>
@@ -4988,7 +5057,7 @@
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
     </row>
-    <row r="78" spans="1:21" ht="13.15">
+    <row r="78" spans="1:21" ht="12.75">
       <c r="A78" s="28">
         <v>77</v>
       </c>
@@ -5027,7 +5096,7 @@
       </c>
       <c r="N78" s="12">
         <f t="shared" si="3"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O78" s="11">
         <v>42.3</v>
@@ -5039,7 +5108,7 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
     </row>
-    <row r="79" spans="1:21" ht="13.15">
+    <row r="79" spans="1:21" ht="12.75">
       <c r="A79" s="28">
         <v>78</v>
       </c>
@@ -5078,7 +5147,7 @@
       </c>
       <c r="N79" s="12">
         <f t="shared" si="3"/>
-        <v>219.36983184549422</v>
+        <v>195.67247344827587</v>
       </c>
       <c r="O79" s="11">
         <v>43</v>
@@ -5129,7 +5198,7 @@
       </c>
       <c r="N80" s="12">
         <f t="shared" si="3"/>
-        <v>240.0650990007295</v>
+        <v>214.13214075471697</v>
       </c>
       <c r="O80" s="11">
         <v>38.1</v>
@@ -5141,7 +5210,7 @@
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
     </row>
-    <row r="81" spans="1:21" ht="13.15">
+    <row r="81" spans="1:21" ht="12.75">
       <c r="A81" s="28">
         <v>80</v>
       </c>
@@ -5180,7 +5249,7 @@
       </c>
       <c r="N81" s="12">
         <f t="shared" si="3"/>
-        <v>235.61944901923451</v>
+        <v>210.16673074074072</v>
       </c>
       <c r="O81" s="11">
         <v>36.799999999999997</v>
@@ -5192,7 +5261,7 @@
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
     </row>
-    <row r="82" spans="1:21" ht="13.15">
+    <row r="82" spans="1:21" ht="12.75">
       <c r="A82" s="28">
         <v>81</v>
       </c>
@@ -5231,7 +5300,7 @@
       </c>
       <c r="N82" s="12">
         <f t="shared" si="3"/>
-        <v>231.33545903706661</v>
+        <v>206.34551745454547</v>
       </c>
       <c r="O82" s="11">
         <v>38.299999999999997</v>
@@ -5243,7 +5312,7 @@
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
     </row>
-    <row r="83" spans="1:21" ht="13.15">
+    <row r="83" spans="1:21" ht="12.75">
       <c r="A83" s="28">
         <v>82</v>
       </c>
@@ -5282,7 +5351,7 @@
       </c>
       <c r="N83" s="12">
         <f t="shared" si="3"/>
-        <v>240.0650990007295</v>
+        <v>214.13214075471697</v>
       </c>
       <c r="O83" s="11">
         <v>33.4</v>
@@ -5294,7 +5363,7 @@
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
     </row>
-    <row r="84" spans="1:21" ht="13.15">
+    <row r="84" spans="1:21" ht="12.75">
       <c r="A84" s="28">
         <v>83</v>
       </c>
@@ -5333,7 +5402,7 @@
       </c>
       <c r="N84" s="12">
         <f t="shared" si="3"/>
-        <v>235.61944901923451</v>
+        <v>210.16673074074072</v>
       </c>
       <c r="O84" s="11">
         <v>36.4</v>
@@ -5345,7 +5414,7 @@
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
     </row>
-    <row r="85" spans="1:21" ht="13.15">
+    <row r="85" spans="1:21" ht="12.75">
       <c r="A85" s="28">
         <v>84</v>
       </c>
@@ -5384,7 +5453,7 @@
       </c>
       <c r="N85" s="12">
         <f t="shared" si="3"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O85" s="11">
         <v>35.5</v>
@@ -5396,7 +5465,7 @@
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
     </row>
-    <row r="86" spans="1:21" ht="13.15">
+    <row r="86" spans="1:21" ht="12.75">
       <c r="A86" s="28">
         <v>85</v>
       </c>
@@ -5435,7 +5504,7 @@
       </c>
       <c r="N86" s="12">
         <f t="shared" si="3"/>
-        <v>251.94950984234978</v>
+        <v>224.73274178217824</v>
       </c>
       <c r="O86" s="11">
         <v>40.6</v>
@@ -5447,7 +5516,7 @@
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
     </row>
-    <row r="87" spans="1:21" ht="13.15">
+    <row r="87" spans="1:21" ht="12.75">
       <c r="A87" s="28">
         <v>86</v>
       </c>
@@ -5486,7 +5555,7 @@
       </c>
       <c r="N87" s="12">
         <f t="shared" si="3"/>
-        <v>259.66224993956456</v>
+        <v>231.6123155102041</v>
       </c>
       <c r="O87" s="11">
         <v>40.700000000000003</v>
@@ -5498,7 +5567,7 @@
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
     </row>
-    <row r="88" spans="1:21" ht="13.15">
+    <row r="88" spans="1:21" ht="12.75">
       <c r="A88" s="28">
         <v>87</v>
       </c>
@@ -5537,7 +5606,7 @@
       </c>
       <c r="N88" s="12">
         <f t="shared" si="3"/>
-        <v>374.21912491290186</v>
+        <v>333.79421941176474</v>
       </c>
       <c r="O88" s="11">
         <v>38</v>
@@ -5549,7 +5618,7 @@
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
     </row>
-    <row r="89" spans="1:21" ht="13.15">
+    <row r="89" spans="1:21" ht="12.75">
       <c r="A89" s="28">
         <v>88</v>
       </c>
@@ -5588,7 +5657,7 @@
       </c>
       <c r="N89" s="12">
         <f t="shared" si="3"/>
-        <v>424.11500823462211</v>
+        <v>378.30011533333334</v>
       </c>
       <c r="O89" s="11">
         <v>38.299999999999997</v>
@@ -5600,7 +5669,7 @@
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
     </row>
-    <row r="90" spans="1:21" ht="13.15">
+    <row r="90" spans="1:21" ht="12.75">
       <c r="A90" s="28">
         <v>89</v>
       </c>
@@ -5639,7 +5708,7 @@
       </c>
       <c r="N90" s="12">
         <f t="shared" si="3"/>
-        <v>177.95035310543585</v>
+        <v>158.72732111888112</v>
       </c>
       <c r="O90" s="11">
         <v>43.1</v>
@@ -5651,7 +5720,7 @@
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
     </row>
-    <row r="91" spans="1:21" ht="13.15">
+    <row r="91" spans="1:21" ht="12.75">
       <c r="A91" s="28">
         <v>90</v>
       </c>
@@ -5690,7 +5759,7 @@
       </c>
       <c r="N91" s="12">
         <f t="shared" si="3"/>
-        <v>201.95952773077244</v>
+        <v>180.14291206349208</v>
       </c>
       <c r="O91" s="11">
         <v>45.2</v>
@@ -5702,7 +5771,7 @@
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
     </row>
-    <row r="92" spans="1:21" ht="13.15">
+    <row r="92" spans="1:21" ht="12.75">
       <c r="A92" s="28">
         <v>91</v>
       </c>
@@ -5751,7 +5820,7 @@
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
     </row>
-    <row r="93" spans="1:21" ht="13.15">
+    <row r="93" spans="1:21" ht="12.75">
       <c r="A93" s="28">
         <v>92</v>
       </c>
@@ -5800,7 +5869,7 @@
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
     </row>
-    <row r="94" spans="1:21" ht="13.15">
+    <row r="94" spans="1:21" ht="12.75">
       <c r="A94" s="28">
         <v>93</v>
       </c>
@@ -5849,7 +5918,7 @@
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
     </row>
-    <row r="95" spans="1:21" ht="13.15">
+    <row r="95" spans="1:21" ht="12.75">
       <c r="A95" s="28">
         <v>94</v>
       </c>
@@ -5898,7 +5967,7 @@
       <c r="T95" s="12"/>
       <c r="U95" s="12"/>
     </row>
-    <row r="96" spans="1:21" ht="13.15">
+    <row r="96" spans="1:21" ht="12.75">
       <c r="A96" s="28">
         <v>95</v>
       </c>
@@ -5947,7 +6016,7 @@
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
     </row>
-    <row r="97" spans="1:21" ht="13.15">
+    <row r="97" spans="1:21" ht="12.75">
       <c r="A97" s="28">
         <v>96</v>
       </c>
@@ -5996,7 +6065,7 @@
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
     </row>
-    <row r="98" spans="1:21" ht="13.15">
+    <row r="98" spans="1:21" ht="12.75">
       <c r="A98" s="28">
         <v>97</v>
       </c>
@@ -6045,7 +6114,7 @@
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
     </row>
-    <row r="99" spans="1:21" ht="13.15">
+    <row r="99" spans="1:21" ht="12.75">
       <c r="A99" s="28">
         <v>98</v>
       </c>
@@ -6094,7 +6163,7 @@
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
     </row>
-    <row r="100" spans="1:21" ht="13.15">
+    <row r="100" spans="1:21" ht="12.75">
       <c r="A100" s="28">
         <v>99</v>
       </c>
@@ -6143,7 +6212,7 @@
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
     </row>
-    <row r="101" spans="1:21" ht="13.15">
+    <row r="101" spans="1:21" ht="12.75">
       <c r="A101" s="28">
         <v>100</v>
       </c>
@@ -6192,7 +6261,7 @@
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
     </row>
-    <row r="102" spans="1:21" ht="13.15">
+    <row r="102" spans="1:21" ht="12.75">
       <c r="A102" s="28">
         <v>101</v>
       </c>
@@ -6241,7 +6310,7 @@
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
     </row>
-    <row r="103" spans="1:21" ht="13.15">
+    <row r="103" spans="1:21" ht="12.75">
       <c r="A103" s="28">
         <v>102</v>
       </c>
@@ -6290,7 +6359,7 @@
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
     </row>
-    <row r="104" spans="1:21" ht="13.15">
+    <row r="104" spans="1:21" ht="12.75">
       <c r="A104" s="28">
         <v>103</v>
       </c>
@@ -6339,7 +6408,7 @@
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
     </row>
-    <row r="105" spans="1:21" ht="13.15">
+    <row r="105" spans="1:21" ht="12.75">
       <c r="A105" s="28">
         <v>104</v>
       </c>
@@ -6388,7 +6457,7 @@
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
     </row>
-    <row r="106" spans="1:21" ht="13.15">
+    <row r="106" spans="1:21" ht="12.75">
       <c r="A106" s="28">
         <v>105</v>
       </c>
@@ -6437,7 +6506,7 @@
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
     </row>
-    <row r="107" spans="1:21" ht="13.15">
+    <row r="107" spans="1:21" ht="12.75">
       <c r="A107" s="28">
         <v>106</v>
       </c>
@@ -6486,7 +6555,7 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
     </row>
-    <row r="108" spans="1:21" ht="13.15">
+    <row r="108" spans="1:21" ht="12.75">
       <c r="A108" s="28">
         <v>107</v>
       </c>
@@ -6535,7 +6604,7 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
     </row>
-    <row r="109" spans="1:21" ht="13.15">
+    <row r="109" spans="1:21" ht="12.75">
       <c r="A109" s="28">
         <v>108</v>
       </c>
@@ -6584,7 +6653,7 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
     </row>
-    <row r="110" spans="1:21" ht="13.15">
+    <row r="110" spans="1:21" ht="12.75">
       <c r="A110" s="28">
         <v>109</v>
       </c>
@@ -6633,7 +6702,7 @@
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
     </row>
-    <row r="111" spans="1:21" ht="13.15">
+    <row r="111" spans="1:21" ht="12.75">
       <c r="A111" s="28">
         <v>110</v>
       </c>
@@ -6682,7 +6751,7 @@
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
     </row>
-    <row r="112" spans="1:21" ht="13.15">
+    <row r="112" spans="1:21" ht="12.75">
       <c r="A112" s="28">
         <v>111</v>
       </c>
@@ -6731,7 +6800,7 @@
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
     </row>
-    <row r="113" spans="1:21" ht="13.15">
+    <row r="113" spans="1:21" ht="12.75">
       <c r="A113" s="28">
         <v>112</v>
       </c>
@@ -6780,7 +6849,7 @@
       <c r="T113" s="12"/>
       <c r="U113" s="12"/>
     </row>
-    <row r="114" spans="1:21" ht="13.15">
+    <row r="114" spans="1:21" ht="12.75">
       <c r="A114" s="28">
         <v>113</v>
       </c>
@@ -6829,7 +6898,7 @@
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
     </row>
-    <row r="115" spans="1:21" ht="13.15">
+    <row r="115" spans="1:21" ht="12.75">
       <c r="A115" s="28">
         <v>114</v>
       </c>
@@ -6878,7 +6947,7 @@
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
     </row>
-    <row r="116" spans="1:21" ht="13.15">
+    <row r="116" spans="1:21" ht="12.75">
       <c r="A116" s="28">
         <v>115</v>
       </c>
@@ -6927,7 +6996,7 @@
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
     </row>
-    <row r="117" spans="1:21" ht="13.15">
+    <row r="117" spans="1:21" ht="12.75">
       <c r="A117" s="28">
         <v>116</v>
       </c>
@@ -6976,7 +7045,7 @@
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
     </row>
-    <row r="118" spans="1:21" ht="13.15">
+    <row r="118" spans="1:21" ht="12.75">
       <c r="A118" s="28">
         <v>117</v>
       </c>
@@ -7025,7 +7094,7 @@
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
     </row>
-    <row r="119" spans="1:21" ht="13.15">
+    <row r="119" spans="1:21" ht="12.75">
       <c r="A119" s="28">
         <v>118</v>
       </c>
@@ -7074,7 +7143,7 @@
       <c r="T119" s="12"/>
       <c r="U119" s="12"/>
     </row>
-    <row r="120" spans="1:21" ht="13.15">
+    <row r="120" spans="1:21" ht="12.75">
       <c r="A120" s="28">
         <v>119</v>
       </c>
@@ -7123,7 +7192,7 @@
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
     </row>
-    <row r="121" spans="1:21" ht="13.15">
+    <row r="121" spans="1:21" ht="12.75">
       <c r="A121" s="28">
         <v>120</v>
       </c>
@@ -7172,7 +7241,7 @@
       <c r="T121" s="12"/>
       <c r="U121" s="12"/>
     </row>
-    <row r="122" spans="1:21" ht="13.15">
+    <row r="122" spans="1:21" ht="12.75">
       <c r="A122" s="28">
         <v>121</v>
       </c>
@@ -7215,7 +7284,7 @@
       </c>
       <c r="N122" s="12">
         <f t="shared" si="3"/>
-        <v>385.55909839511099</v>
+        <v>343.90919575757579</v>
       </c>
       <c r="O122" s="15">
         <v>41</v>
@@ -7227,7 +7296,7 @@
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
     </row>
-    <row r="123" spans="1:21" ht="13.15">
+    <row r="123" spans="1:21" ht="12.75">
       <c r="A123" s="28">
         <v>122</v>
       </c>
@@ -7280,7 +7349,7 @@
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
     </row>
-    <row r="124" spans="1:21" ht="13.15">
+    <row r="124" spans="1:21" ht="12.75">
       <c r="A124" s="28">
         <v>123</v>
       </c>
@@ -7323,7 +7392,7 @@
       </c>
       <c r="N124" s="12">
         <f t="shared" si="3"/>
-        <v>339.2920065876977</v>
+        <v>302.64009226666667</v>
       </c>
       <c r="O124" s="15">
         <v>44.3</v>
@@ -7335,7 +7404,7 @@
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
     </row>
-    <row r="125" spans="1:21" ht="13.15">
+    <row r="125" spans="1:21" ht="12.75">
       <c r="A125" s="28">
         <v>124</v>
       </c>
@@ -7388,7 +7457,7 @@
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
     </row>
-    <row r="126" spans="1:21" ht="13.15">
+    <row r="126" spans="1:21" ht="12.75">
       <c r="A126" s="28">
         <v>125</v>
       </c>
@@ -7431,7 +7500,7 @@
       </c>
       <c r="N126" s="12">
         <f t="shared" si="3"/>
-        <v>410.43387893673111</v>
+        <v>366.09688580645161</v>
       </c>
       <c r="O126" s="15">
         <v>40</v>
@@ -7443,7 +7512,7 @@
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
     </row>
-    <row r="127" spans="1:21" ht="13.15">
+    <row r="127" spans="1:21" ht="12.75">
       <c r="A127" s="28">
         <v>126</v>
       </c>
@@ -7496,7 +7565,7 @@
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
     </row>
-    <row r="128" spans="1:21" ht="13.15">
+    <row r="128" spans="1:21" ht="12.75">
       <c r="A128" s="28">
         <v>127</v>
       </c>
@@ -7539,7 +7608,7 @@
       </c>
       <c r="N128" s="12">
         <f t="shared" si="3"/>
-        <v>259.66224993956456</v>
+        <v>231.6123155102041</v>
       </c>
       <c r="O128" s="15">
         <v>39.299999999999997</v>
@@ -7551,7 +7620,7 @@
       <c r="T128" s="12"/>
       <c r="U128" s="12"/>
     </row>
-    <row r="129" spans="1:21" ht="13.15">
+    <row r="129" spans="1:21" ht="12.75">
       <c r="A129" s="28">
         <v>128</v>
       </c>
@@ -7604,7 +7673,7 @@
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
     </row>
-    <row r="130" spans="1:21" ht="13.15">
+    <row r="130" spans="1:21" ht="12.75">
       <c r="A130" s="28">
         <v>129</v>
       </c>
@@ -7646,8 +7715,8 @@
         <v>58.695652173913047</v>
       </c>
       <c r="N130" s="12">
-        <f t="shared" ref="N130:N193" si="5">IF(L130&gt;0,((1.8/2)^2*PI())/L130,"")</f>
-        <v>334.82763807996486</v>
+        <f t="shared" si="3"/>
+        <v>298.65798578947368</v>
       </c>
       <c r="O130" s="15">
         <v>39</v>
@@ -7659,7 +7728,7 @@
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
     </row>
-    <row r="131" spans="1:21" ht="13.15">
+    <row r="131" spans="1:21" ht="12.75">
       <c r="A131" s="28">
         <v>130</v>
       </c>
@@ -7699,7 +7768,7 @@
         <v/>
       </c>
       <c r="N131" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N131:N194" si="5">IF(L131&gt;0,2.269800692/L131,"")</f>
         <v/>
       </c>
       <c r="O131" s="15">
@@ -7712,7 +7781,7 @@
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
     </row>
-    <row r="132" spans="1:21" ht="13.15">
+    <row r="132" spans="1:21" ht="12.75">
       <c r="A132" s="28">
         <v>131</v>
       </c>
@@ -7755,7 +7824,7 @@
       </c>
       <c r="N132" s="12">
         <f t="shared" si="5"/>
-        <v>289.16932379633323</v>
+        <v>257.93189681818183</v>
       </c>
       <c r="O132" s="15">
         <v>41.5</v>
@@ -7767,7 +7836,7 @@
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
     </row>
-    <row r="133" spans="1:21" ht="13.15">
+    <row r="133" spans="1:21" ht="12.75">
       <c r="A133" s="28">
         <v>132</v>
       </c>
@@ -7820,7 +7889,7 @@
       <c r="T133" s="12"/>
       <c r="U133" s="12"/>
     </row>
-    <row r="134" spans="1:21" ht="13.15">
+    <row r="134" spans="1:21" ht="12.75">
       <c r="A134" s="28">
         <v>133</v>
       </c>
@@ -7863,7 +7932,7 @@
       </c>
       <c r="N134" s="12">
         <f t="shared" si="5"/>
-        <v>285.92023027053176</v>
+        <v>255.03378561797754</v>
       </c>
       <c r="O134" s="15">
         <v>40.5</v>
@@ -7875,7 +7944,7 @@
       <c r="T134" s="12"/>
       <c r="U134" s="12"/>
     </row>
-    <row r="135" spans="1:21" ht="13.15">
+    <row r="135" spans="1:21" ht="12.75">
       <c r="A135" s="28">
         <v>134</v>
       </c>
@@ -7971,7 +8040,7 @@
       </c>
       <c r="N136" s="12">
         <f t="shared" si="5"/>
-        <v>353.42917352885178</v>
+        <v>315.25009611111113</v>
       </c>
       <c r="O136" s="15">
         <v>38.799999999999997</v>
@@ -7983,7 +8052,7 @@
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
     </row>
-    <row r="137" spans="1:21" ht="13.15">
+    <row r="137" spans="1:21" ht="12.75">
       <c r="A137" s="28">
         <v>136</v>
       </c>
@@ -8036,7 +8105,7 @@
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
     </row>
-    <row r="138" spans="1:21" ht="13.15">
+    <row r="138" spans="1:21" ht="12.75">
       <c r="A138" s="28">
         <v>137</v>
       </c>
@@ -8079,7 +8148,7 @@
       </c>
       <c r="N138" s="12">
         <f t="shared" si="5"/>
-        <v>299.37529993032149</v>
+        <v>267.03537552941174</v>
       </c>
       <c r="O138" s="15">
         <v>36.799999999999997</v>
@@ -8091,7 +8160,7 @@
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
     </row>
-    <row r="139" spans="1:21" ht="13.15">
+    <row r="139" spans="1:21" ht="12.75">
       <c r="A139" s="28">
         <v>138</v>
       </c>
@@ -8144,7 +8213,7 @@
       <c r="T139" s="12"/>
       <c r="U139" s="12"/>
     </row>
-    <row r="140" spans="1:21" ht="13.15">
+    <row r="140" spans="1:21" ht="12.75">
       <c r="A140" s="28">
         <v>139</v>
       </c>
@@ -8187,7 +8256,7 @@
       </c>
       <c r="N140" s="12">
         <f t="shared" si="5"/>
-        <v>262.33918035131262</v>
+        <v>234.00007134020618</v>
       </c>
       <c r="O140" s="15">
         <v>41.9</v>
@@ -8199,7 +8268,7 @@
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
     </row>
-    <row r="141" spans="1:21" ht="13.15">
+    <row r="141" spans="1:21" ht="12.75">
       <c r="A141" s="28">
         <v>140</v>
       </c>
@@ -8252,7 +8321,7 @@
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
     </row>
-    <row r="142" spans="1:21" ht="13.15">
+    <row r="142" spans="1:21" ht="12.75">
       <c r="A142" s="28">
         <v>141</v>
       </c>
@@ -8295,7 +8364,7 @@
       </c>
       <c r="N142" s="12">
         <f t="shared" si="5"/>
-        <v>285.92023027053176</v>
+        <v>255.03378561797754</v>
       </c>
       <c r="O142" s="15">
         <v>41.9</v>
@@ -8307,7 +8376,7 @@
       <c r="T142" s="12"/>
       <c r="U142" s="12"/>
     </row>
-    <row r="143" spans="1:21" ht="13.15">
+    <row r="143" spans="1:21" ht="12.75">
       <c r="A143" s="28">
         <v>142</v>
       </c>
@@ -8360,7 +8429,7 @@
       <c r="T143" s="12"/>
       <c r="U143" s="12"/>
     </row>
-    <row r="144" spans="1:21" ht="13.15">
+    <row r="144" spans="1:21" ht="12.75">
       <c r="A144" s="28">
         <v>143</v>
       </c>
@@ -8403,7 +8472,7 @@
       </c>
       <c r="N144" s="12">
         <f t="shared" si="5"/>
-        <v>306.58916257924488</v>
+        <v>273.46996289156624</v>
       </c>
       <c r="O144" s="15">
         <v>43.1</v>
@@ -8415,7 +8484,7 @@
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
     </row>
-    <row r="145" spans="1:21" ht="13.15">
+    <row r="145" spans="1:21" ht="12.75">
       <c r="A145" s="28">
         <v>144</v>
       </c>
@@ -8468,7 +8537,7 @@
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
     </row>
-    <row r="146" spans="1:21" ht="13.15">
+    <row r="146" spans="1:21" ht="12.75">
       <c r="A146" s="28">
         <v>145</v>
       </c>
@@ -8511,7 +8580,7 @@
       </c>
       <c r="N146" s="12">
         <f t="shared" si="5"/>
-        <v>374.21912491290186</v>
+        <v>333.79421941176474</v>
       </c>
       <c r="O146" s="15">
         <v>40.6</v>
@@ -8523,7 +8592,7 @@
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
     </row>
-    <row r="147" spans="1:21" ht="13.15">
+    <row r="147" spans="1:21" ht="12.75">
       <c r="A147" s="28">
         <v>146</v>
       </c>
@@ -8576,7 +8645,7 @@
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
     </row>
-    <row r="148" spans="1:21" ht="13.15">
+    <row r="148" spans="1:21" ht="12.75">
       <c r="A148" s="28">
         <v>147</v>
       </c>
@@ -8619,7 +8688,7 @@
       </c>
       <c r="N148" s="12">
         <f t="shared" si="5"/>
-        <v>306.58916257924488</v>
+        <v>273.46996289156624</v>
       </c>
       <c r="O148" s="15">
         <v>42.3</v>
@@ -8631,7 +8700,7 @@
       <c r="T148" s="12"/>
       <c r="U148" s="12"/>
     </row>
-    <row r="149" spans="1:21" ht="13.15">
+    <row r="149" spans="1:21" ht="12.75">
       <c r="A149" s="28">
         <v>148</v>
       </c>
@@ -8684,7 +8753,7 @@
       <c r="T149" s="12"/>
       <c r="U149" s="12"/>
     </row>
-    <row r="150" spans="1:21" ht="13.15">
+    <row r="150" spans="1:21" ht="12.75">
       <c r="A150" s="28">
         <v>149</v>
       </c>
@@ -8727,7 +8796,7 @@
       </c>
       <c r="N150" s="12">
         <f t="shared" si="5"/>
-        <v>339.2920065876977</v>
+        <v>302.64009226666667</v>
       </c>
       <c r="O150" s="15">
         <v>39.9</v>
@@ -8739,7 +8808,7 @@
       <c r="T150" s="12"/>
       <c r="U150" s="12"/>
     </row>
-    <row r="151" spans="1:21" ht="13.15">
+    <row r="151" spans="1:21" ht="12.75">
       <c r="A151" s="28">
         <v>150</v>
       </c>
@@ -8792,7 +8861,7 @@
       <c r="T151" s="12"/>
       <c r="U151" s="12"/>
     </row>
-    <row r="152" spans="1:21" ht="13.15">
+    <row r="152" spans="1:21" ht="12.75">
       <c r="A152" s="28">
         <v>151</v>
       </c>
@@ -8835,7 +8904,7 @@
       </c>
       <c r="N152" s="12">
         <f t="shared" si="5"/>
-        <v>242.35143327692691</v>
+        <v>216.17149447619047</v>
       </c>
       <c r="O152" s="11">
         <v>22.4</v>
@@ -8847,7 +8916,7 @@
       <c r="T152" s="12"/>
       <c r="U152" s="12"/>
     </row>
-    <row r="153" spans="1:21" ht="13.15">
+    <row r="153" spans="1:21" ht="12.75">
       <c r="A153" s="28">
         <v>152</v>
       </c>
@@ -8900,7 +8969,7 @@
       <c r="T153" s="12"/>
       <c r="U153" s="12"/>
     </row>
-    <row r="154" spans="1:21" ht="13.15">
+    <row r="154" spans="1:21" ht="12.75">
       <c r="A154" s="28">
         <v>153</v>
       </c>
@@ -8943,7 +9012,7 @@
       </c>
       <c r="N154" s="12">
         <f t="shared" si="5"/>
-        <v>195.74538841597945</v>
+        <v>174.60005323076925</v>
       </c>
       <c r="O154" s="11">
         <v>31.7</v>
@@ -8955,7 +9024,7 @@
       <c r="T154" s="12"/>
       <c r="U154" s="12"/>
     </row>
-    <row r="155" spans="1:21" ht="13.15">
+    <row r="155" spans="1:21" ht="12.75">
       <c r="A155" s="28">
         <v>154</v>
       </c>
@@ -9008,7 +9077,7 @@
       <c r="T155" s="12"/>
       <c r="U155" s="12"/>
     </row>
-    <row r="156" spans="1:21" ht="13.15">
+    <row r="156" spans="1:21" ht="12.75">
       <c r="A156" s="28">
         <v>155</v>
       </c>
@@ -9051,7 +9120,7 @@
       </c>
       <c r="N156" s="12">
         <f t="shared" si="5"/>
-        <v>279.63626916568489</v>
+        <v>249.42864747252747</v>
       </c>
       <c r="O156" s="11">
         <v>21.7</v>
@@ -9067,7 +9136,7 @@
       <c r="T156" s="12"/>
       <c r="U156" s="12"/>
     </row>
-    <row r="157" spans="1:21" ht="13.15">
+    <row r="157" spans="1:21" ht="12.75">
       <c r="A157" s="28">
         <v>156</v>
       </c>
@@ -9124,7 +9193,7 @@
       <c r="T157" s="12"/>
       <c r="U157" s="12"/>
     </row>
-    <row r="158" spans="1:21" ht="13.15">
+    <row r="158" spans="1:21" ht="12.75">
       <c r="A158" s="28">
         <v>157</v>
       </c>
@@ -9167,7 +9236,7 @@
       </c>
       <c r="N158" s="12">
         <f t="shared" si="5"/>
-        <v>194.25114880975059</v>
+        <v>173.26722839694656</v>
       </c>
       <c r="O158" s="11">
         <v>33.5</v>
@@ -9179,7 +9248,7 @@
       <c r="T158" s="12"/>
       <c r="U158" s="12"/>
     </row>
-    <row r="159" spans="1:21" ht="13.15">
+    <row r="159" spans="1:21" ht="12.75">
       <c r="A159" s="28">
         <v>158</v>
       </c>
@@ -9232,7 +9301,7 @@
       <c r="T159" s="12"/>
       <c r="U159" s="12"/>
     </row>
-    <row r="160" spans="1:21" ht="13.15">
+    <row r="160" spans="1:21" ht="12.75">
       <c r="A160" s="28">
         <v>159</v>
       </c>
@@ -9275,7 +9344,7 @@
       </c>
       <c r="N160" s="12">
         <f t="shared" si="5"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O160" s="11">
         <v>38</v>
@@ -9287,7 +9356,7 @@
       <c r="T160" s="12"/>
       <c r="U160" s="12"/>
     </row>
-    <row r="161" spans="1:21" ht="13.15">
+    <row r="161" spans="1:21" ht="12.75">
       <c r="A161" s="28">
         <v>160</v>
       </c>
@@ -9340,7 +9409,7 @@
       <c r="T161" s="12"/>
       <c r="U161" s="12"/>
     </row>
-    <row r="162" spans="1:21" ht="13.15">
+    <row r="162" spans="1:21" ht="12.75">
       <c r="A162" s="28">
         <v>161</v>
       </c>
@@ -9383,7 +9452,7 @@
       </c>
       <c r="N162" s="12">
         <f t="shared" si="5"/>
-        <v>213.83949995022962</v>
+        <v>190.73955394957983</v>
       </c>
       <c r="O162" s="11">
         <v>33.9</v>
@@ -9395,7 +9464,7 @@
       <c r="T162" s="12"/>
       <c r="U162" s="12"/>
     </row>
-    <row r="163" spans="1:21" ht="13.15">
+    <row r="163" spans="1:21" ht="12.75">
       <c r="A163" s="28">
         <v>162</v>
       </c>
@@ -9448,7 +9517,7 @@
       <c r="T163" s="12"/>
       <c r="U163" s="12"/>
     </row>
-    <row r="164" spans="1:21" ht="13.15">
+    <row r="164" spans="1:21" ht="12.75">
       <c r="A164" s="28">
         <v>163</v>
       </c>
@@ -9491,7 +9560,7 @@
       </c>
       <c r="N164" s="12">
         <f t="shared" si="5"/>
-        <v>251.94950984234978</v>
+        <v>224.73274178217824</v>
       </c>
       <c r="O164" s="11">
         <v>31.5</v>
@@ -9503,7 +9572,7 @@
       <c r="T164" s="12"/>
       <c r="U164" s="12"/>
     </row>
-    <row r="165" spans="1:21" ht="13.15">
+    <row r="165" spans="1:21" ht="12.75">
       <c r="A165" s="28">
         <v>164</v>
       </c>
@@ -9556,7 +9625,7 @@
       <c r="T165" s="12"/>
       <c r="U165" s="12"/>
     </row>
-    <row r="166" spans="1:21" ht="13.15">
+    <row r="166" spans="1:21" ht="12.75">
       <c r="A166" s="28">
         <v>165</v>
       </c>
@@ -9599,7 +9668,7 @@
       </c>
       <c r="N166" s="12">
         <f t="shared" si="5"/>
-        <v>251.94950984234978</v>
+        <v>224.73274178217824</v>
       </c>
       <c r="O166" s="11">
         <v>35</v>
@@ -9611,7 +9680,7 @@
       <c r="T166" s="12"/>
       <c r="U166" s="12"/>
     </row>
-    <row r="167" spans="1:21" ht="13.15">
+    <row r="167" spans="1:21" ht="12.75">
       <c r="A167" s="28">
         <v>166</v>
       </c>
@@ -9664,7 +9733,7 @@
       <c r="T167" s="12"/>
       <c r="U167" s="12"/>
     </row>
-    <row r="168" spans="1:21" ht="13.15">
+    <row r="168" spans="1:21" ht="12.75">
       <c r="A168" s="28">
         <v>167</v>
       </c>
@@ -9707,7 +9776,7 @@
       </c>
       <c r="N168" s="12">
         <f t="shared" si="5"/>
-        <v>279.63626916568489</v>
+        <v>249.42864747252747</v>
       </c>
       <c r="O168" s="11">
         <v>38.200000000000003</v>
@@ -9719,7 +9788,7 @@
       <c r="T168" s="12"/>
       <c r="U168" s="12"/>
     </row>
-    <row r="169" spans="1:21" ht="13.15">
+    <row r="169" spans="1:21" ht="12.75">
       <c r="A169" s="28">
         <v>168</v>
       </c>
@@ -9772,7 +9841,7 @@
       <c r="T169" s="12"/>
       <c r="U169" s="12"/>
     </row>
-    <row r="170" spans="1:21" ht="13.15">
+    <row r="170" spans="1:21" ht="12.75">
       <c r="A170" s="28">
         <v>169</v>
       </c>
@@ -9815,7 +9884,7 @@
       </c>
       <c r="N170" s="12">
         <f t="shared" si="5"/>
-        <v>292.49310912732562</v>
+        <v>260.89663126436784</v>
       </c>
       <c r="O170" s="11">
         <v>35.799999999999997</v>
@@ -9827,7 +9896,7 @@
       <c r="T170" s="12"/>
       <c r="U170" s="12"/>
     </row>
-    <row r="171" spans="1:21" ht="13.15">
+    <row r="171" spans="1:21" ht="12.75">
       <c r="A171" s="28">
         <v>170</v>
       </c>
@@ -9880,7 +9949,7 @@
       <c r="T171" s="12"/>
       <c r="U171" s="12"/>
     </row>
-    <row r="172" spans="1:21" ht="13.15">
+    <row r="172" spans="1:21" ht="12.75">
       <c r="A172" s="28">
         <v>171</v>
       </c>
@@ -9923,7 +9992,7 @@
       </c>
       <c r="N172" s="12">
         <f t="shared" si="5"/>
-        <v>254.46900494077326</v>
+        <v>226.9800692</v>
       </c>
       <c r="O172" s="11">
         <v>40.1</v>
@@ -9935,7 +10004,7 @@
       <c r="T172" s="12"/>
       <c r="U172" s="12"/>
     </row>
-    <row r="173" spans="1:21" ht="13.15">
+    <row r="173" spans="1:21" ht="12.75">
       <c r="A173" s="28">
         <v>172</v>
       </c>
@@ -9988,7 +10057,7 @@
       <c r="T173" s="12"/>
       <c r="U173" s="12"/>
     </row>
-    <row r="174" spans="1:21" ht="13.15">
+    <row r="174" spans="1:21" ht="12.75">
       <c r="A174" s="28">
         <v>173</v>
       </c>
@@ -10031,7 +10100,7 @@
       </c>
       <c r="N174" s="12">
         <f t="shared" si="5"/>
-        <v>235.61944901923451</v>
+        <v>210.16673074074072</v>
       </c>
       <c r="O174" s="11">
         <v>31.4</v>
@@ -10043,7 +10112,7 @@
       <c r="T174" s="12"/>
       <c r="U174" s="12"/>
     </row>
-    <row r="175" spans="1:21" ht="13.15">
+    <row r="175" spans="1:21" ht="12.75">
       <c r="A175" s="28">
         <v>174</v>
       </c>
@@ -10096,7 +10165,7 @@
       <c r="T175" s="12"/>
       <c r="U175" s="12"/>
     </row>
-    <row r="176" spans="1:21" ht="13.15">
+    <row r="176" spans="1:21" ht="12.75">
       <c r="A176" s="28">
         <v>175</v>
       </c>
@@ -10139,7 +10208,7 @@
       </c>
       <c r="N176" s="12">
         <f t="shared" si="5"/>
-        <v>219.36983184549422</v>
+        <v>195.67247344827587</v>
       </c>
       <c r="O176" s="11">
         <v>30</v>
@@ -10151,7 +10220,7 @@
       <c r="T176" s="12"/>
       <c r="U176" s="12"/>
     </row>
-    <row r="177" spans="1:21" ht="13.15">
+    <row r="177" spans="1:21" ht="12.75">
       <c r="A177" s="28">
         <v>176</v>
       </c>
@@ -10204,7 +10273,7 @@
       <c r="T177" s="12"/>
       <c r="U177" s="12"/>
     </row>
-    <row r="178" spans="1:21" ht="13.15">
+    <row r="178" spans="1:21" ht="12.75">
       <c r="A178" s="28">
         <v>177</v>
       </c>
@@ -10247,7 +10316,7 @@
       </c>
       <c r="N178" s="12">
         <f t="shared" si="5"/>
-        <v>240.0650990007295</v>
+        <v>214.13214075471697</v>
       </c>
       <c r="O178" s="11">
         <v>33.200000000000003</v>
@@ -10259,7 +10328,7 @@
       <c r="T178" s="12"/>
       <c r="U178" s="12"/>
     </row>
-    <row r="179" spans="1:21" ht="13.15">
+    <row r="179" spans="1:21" ht="12.75">
       <c r="A179" s="28">
         <v>178</v>
       </c>
@@ -10312,7 +10381,7 @@
       <c r="T179" s="12"/>
       <c r="U179" s="12"/>
     </row>
-    <row r="180" spans="1:21" ht="13.15">
+    <row r="180" spans="1:21" ht="12.75">
       <c r="A180" s="28">
         <v>179</v>
       </c>
@@ -10355,7 +10424,7 @@
       </c>
       <c r="N180" s="12">
         <f t="shared" si="5"/>
-        <v>235.61944901923451</v>
+        <v>210.16673074074072</v>
       </c>
       <c r="O180" s="11">
         <v>37.5</v>
@@ -10367,7 +10436,7 @@
       <c r="T180" s="12"/>
       <c r="U180" s="12"/>
     </row>
-    <row r="181" spans="1:21" ht="13.15">
+    <row r="181" spans="1:21" ht="12.75">
       <c r="A181" s="28">
         <v>180</v>
       </c>
@@ -10420,7 +10489,7 @@
       <c r="T181" s="12"/>
       <c r="U181" s="12"/>
     </row>
-    <row r="182" spans="1:21" ht="13.15">
+    <row r="182" spans="1:21" ht="12.75">
       <c r="A182" s="28">
         <v>181</v>
       </c>
@@ -10463,7 +10532,7 @@
       </c>
       <c r="N182" s="12">
         <f t="shared" si="5"/>
-        <v>223.21842538664322</v>
+        <v>199.1053238596491</v>
       </c>
       <c r="O182" s="11">
         <v>39.1</v>
@@ -10475,7 +10544,7 @@
       <c r="T182" s="12"/>
       <c r="U182" s="12"/>
     </row>
-    <row r="183" spans="1:21" ht="13.15">
+    <row r="183" spans="1:21" ht="12.75">
       <c r="A183" s="28">
         <v>182</v>
       </c>
@@ -10528,7 +10597,7 @@
       <c r="T183" s="12"/>
       <c r="U183" s="12"/>
     </row>
-    <row r="184" spans="1:21" ht="13.15">
+    <row r="184" spans="1:21" ht="12.75">
       <c r="A184" s="28">
         <v>183</v>
       </c>
@@ -10571,7 +10640,7 @@
       </c>
       <c r="N184" s="12">
         <f t="shared" si="5"/>
-        <v>410.43387893673111</v>
+        <v>366.09688580645161</v>
       </c>
       <c r="O184" s="11">
         <v>56.6</v>
@@ -10583,7 +10652,7 @@
       <c r="T184" s="12"/>
       <c r="U184" s="12"/>
     </row>
-    <row r="185" spans="1:21" ht="13.15">
+    <row r="185" spans="1:21" ht="12.75">
       <c r="A185" s="28">
         <v>184</v>
       </c>
@@ -10636,7 +10705,7 @@
       <c r="T185" s="12"/>
       <c r="U185" s="12"/>
     </row>
-    <row r="186" spans="1:21" ht="13.15">
+    <row r="186" spans="1:21" ht="12.75">
       <c r="A186" s="28">
         <v>185</v>
       </c>
@@ -10679,7 +10748,7 @@
       </c>
       <c r="N186" s="12">
         <f t="shared" si="5"/>
-        <v>508.93800988154652</v>
+        <v>453.96013840000001</v>
       </c>
       <c r="O186" s="11">
         <v>43.1</v>
@@ -10695,7 +10764,7 @@
       <c r="T186" s="12"/>
       <c r="U186" s="12"/>
     </row>
-    <row r="187" spans="1:21" ht="13.15">
+    <row r="187" spans="1:21" ht="12.75">
       <c r="A187" s="28">
         <v>186</v>
       </c>
@@ -10752,7 +10821,7 @@
       <c r="T187" s="12"/>
       <c r="U187" s="12"/>
     </row>
-    <row r="188" spans="1:21" ht="13.15">
+    <row r="188" spans="1:21" ht="12.75">
       <c r="A188" s="28">
         <v>187</v>
       </c>
@@ -10795,7 +10864,7 @@
       </c>
       <c r="N188" s="12">
         <f t="shared" si="5"/>
-        <v>231.33545903706661</v>
+        <v>206.34551745454547</v>
       </c>
       <c r="O188" s="11">
         <v>40.1</v>
@@ -10807,7 +10876,7 @@
       <c r="T188" s="12"/>
       <c r="U188" s="12"/>
     </row>
-    <row r="189" spans="1:21" ht="13.15">
+    <row r="189" spans="1:21" ht="12.75">
       <c r="A189" s="28">
         <v>188</v>
       </c>
@@ -10860,7 +10929,7 @@
       <c r="T189" s="12"/>
       <c r="U189" s="12"/>
     </row>
-    <row r="190" spans="1:21" ht="13.15">
+    <row r="190" spans="1:21" ht="12.75">
       <c r="A190" s="28">
         <v>189</v>
       </c>
@@ -10903,7 +10972,7 @@
       </c>
       <c r="N190" s="12">
         <f t="shared" si="5"/>
-        <v>403.91905546154487</v>
+        <v>360.28582412698415</v>
       </c>
       <c r="O190" s="11">
         <v>51.1</v>
@@ -10915,7 +10984,7 @@
       <c r="T190" s="12"/>
       <c r="U190" s="12"/>
     </row>
-    <row r="191" spans="1:21" ht="13.15">
+    <row r="191" spans="1:21" ht="12.75">
       <c r="A191" s="28">
         <v>190</v>
       </c>
@@ -10968,7 +11037,7 @@
       <c r="T191" s="12"/>
       <c r="U191" s="12"/>
     </row>
-    <row r="192" spans="1:21" ht="13.15">
+    <row r="192" spans="1:21" ht="12.75">
       <c r="A192" s="28">
         <v>191</v>
       </c>
@@ -11011,7 +11080,7 @@
       </c>
       <c r="N192" s="12">
         <f t="shared" si="5"/>
-        <v>578.33864759266646</v>
+        <v>515.86379363636365</v>
       </c>
       <c r="O192" s="11">
         <v>36.6</v>
@@ -11023,7 +11092,7 @@
       <c r="T192" s="12"/>
       <c r="U192" s="12"/>
     </row>
-    <row r="193" spans="1:21" ht="13.15">
+    <row r="193" spans="1:21" ht="12.75">
       <c r="A193" s="28">
         <v>192</v>
       </c>
@@ -11076,7 +11145,7 @@
       <c r="T193" s="12"/>
       <c r="U193" s="12"/>
     </row>
-    <row r="194" spans="1:21" ht="13.15">
+    <row r="194" spans="1:21" ht="12.75">
       <c r="A194" s="28">
         <v>193</v>
       </c>
@@ -11118,8 +11187,8 @@
         <v>62.126245847176079</v>
       </c>
       <c r="N194" s="12">
-        <f t="shared" ref="N194:N257" si="7">IF(L194&gt;0,((1.8/2)^2*PI())/L194,"")</f>
-        <v>223.21842538664322</v>
+        <f t="shared" si="5"/>
+        <v>199.1053238596491</v>
       </c>
       <c r="O194" s="11">
         <v>42.9</v>
@@ -11131,7 +11200,7 @@
       <c r="T194" s="12"/>
       <c r="U194" s="12"/>
     </row>
-    <row r="195" spans="1:21" ht="13.15">
+    <row r="195" spans="1:21" ht="12.75">
       <c r="A195" s="28">
         <v>194</v>
       </c>
@@ -11171,7 +11240,7 @@
         <v/>
       </c>
       <c r="N195" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N195:N258" si="7">IF(L195&gt;0,2.269800692/L195,"")</f>
         <v/>
       </c>
       <c r="O195" s="11">
@@ -11184,7 +11253,7 @@
       <c r="T195" s="12"/>
       <c r="U195" s="12"/>
     </row>
-    <row r="196" spans="1:21" ht="13.15">
+    <row r="196" spans="1:21" ht="12.75">
       <c r="A196" s="28">
         <v>195</v>
       </c>
@@ -11227,7 +11296,7 @@
       </c>
       <c r="N196" s="12">
         <f t="shared" si="7"/>
-        <v>188.4955592153876</v>
+        <v>168.13338459259259</v>
       </c>
       <c r="O196" s="11">
         <v>40.200000000000003</v>
@@ -11239,7 +11308,7 @@
       <c r="T196" s="12"/>
       <c r="U196" s="12"/>
     </row>
-    <row r="197" spans="1:21" ht="13.15">
+    <row r="197" spans="1:21" ht="12.75">
       <c r="A197" s="28">
         <v>196</v>
       </c>
@@ -11292,7 +11361,7 @@
       <c r="T197" s="12"/>
       <c r="U197" s="12"/>
     </row>
-    <row r="198" spans="1:21" ht="13.15">
+    <row r="198" spans="1:21" ht="12.75">
       <c r="A198" s="28">
         <v>197</v>
       </c>
@@ -11335,7 +11404,7 @@
       </c>
       <c r="N198" s="12">
         <f t="shared" si="7"/>
-        <v>553.19348900168097</v>
+        <v>493.43493304347828</v>
       </c>
       <c r="O198" s="11">
         <v>49.3</v>
@@ -11400,7 +11469,7 @@
       <c r="T199" s="12"/>
       <c r="U199" s="12"/>
     </row>
-    <row r="200" spans="1:21" ht="13.15">
+    <row r="200" spans="1:21" ht="12.75">
       <c r="A200" s="28">
         <v>199</v>
       </c>
@@ -11443,7 +11512,7 @@
       </c>
       <c r="N200" s="12">
         <f t="shared" si="7"/>
-        <v>229.25135580249844</v>
+        <v>204.48654882882883</v>
       </c>
       <c r="O200" s="11">
         <v>43.9</v>
@@ -11455,7 +11524,7 @@
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
     </row>
-    <row r="201" spans="1:21" ht="13.15">
+    <row r="201" spans="1:21" ht="12.75">
       <c r="A201" s="28">
         <v>200</v>
       </c>
@@ -11508,7 +11577,7 @@
       <c r="T201" s="12"/>
       <c r="U201" s="12"/>
     </row>
-    <row r="202" spans="1:21" ht="13.15">
+    <row r="202" spans="1:21" ht="12.75">
       <c r="A202" s="28">
         <v>201</v>
       </c>
@@ -11551,7 +11620,7 @@
       </c>
       <c r="N202" s="12">
         <f t="shared" si="7"/>
-        <v>189.90224249311439</v>
+        <v>169.38811134328358</v>
       </c>
       <c r="O202" s="11">
         <v>45.3</v>
@@ -11563,7 +11632,7 @@
       <c r="T202" s="12"/>
       <c r="U202" s="12"/>
     </row>
-    <row r="203" spans="1:21" ht="13.15">
+    <row r="203" spans="1:21" ht="12.75">
       <c r="A203" s="28">
         <v>202</v>
       </c>
@@ -11616,7 +11685,7 @@
       <c r="T203" s="12"/>
       <c r="U203" s="12"/>
     </row>
-    <row r="204" spans="1:21" ht="13.15">
+    <row r="204" spans="1:21" ht="12.75">
       <c r="A204" s="28">
         <v>203</v>
       </c>
@@ -11659,7 +11728,7 @@
       </c>
       <c r="N204" s="12">
         <f t="shared" si="7"/>
-        <v>508.93800988154652</v>
+        <v>453.96013840000001</v>
       </c>
       <c r="O204" s="11">
         <v>44.7</v>
@@ -11671,7 +11740,7 @@
       <c r="T204" s="12"/>
       <c r="U204" s="12"/>
     </row>
-    <row r="205" spans="1:21" ht="13.15">
+    <row r="205" spans="1:21" ht="12.75">
       <c r="A205" s="28">
         <v>204</v>
       </c>
@@ -11724,7 +11793,7 @@
       <c r="T205" s="12"/>
       <c r="U205" s="12"/>
     </row>
-    <row r="206" spans="1:21" ht="13.15">
+    <row r="206" spans="1:21" ht="12.75">
       <c r="A206" s="28">
         <v>205</v>
       </c>
@@ -11767,7 +11836,7 @@
       </c>
       <c r="N206" s="12">
         <f t="shared" si="7"/>
-        <v>249.47941660860121</v>
+        <v>222.52947960784311</v>
       </c>
       <c r="O206" s="11">
         <v>40.6</v>
@@ -11779,7 +11848,7 @@
       <c r="T206" s="12"/>
       <c r="U206" s="12"/>
     </row>
-    <row r="207" spans="1:21" ht="13.15">
+    <row r="207" spans="1:21" ht="12.75">
       <c r="A207" s="28">
         <v>206</v>
       </c>
@@ -11832,7 +11901,7 @@
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
     </row>
-    <row r="208" spans="1:21" ht="13.15">
+    <row r="208" spans="1:21" ht="12.75">
       <c r="A208" s="28">
         <v>207</v>
       </c>
@@ -11875,7 +11944,7 @@
       </c>
       <c r="N208" s="12">
         <f t="shared" si="7"/>
-        <v>314.15926535897938</v>
+        <v>280.22230765432101</v>
       </c>
       <c r="O208" s="11">
         <v>18</v>
@@ -11887,7 +11956,7 @@
       <c r="T208" s="12"/>
       <c r="U208" s="12"/>
     </row>
-    <row r="209" spans="1:21" ht="13.15">
+    <row r="209" spans="1:21" ht="12.75">
       <c r="A209" s="28">
         <v>208</v>
       </c>
@@ -11940,7 +12009,7 @@
       <c r="T209" s="12"/>
       <c r="U209" s="12"/>
     </row>
-    <row r="210" spans="1:21" ht="13.15">
+    <row r="210" spans="1:21" ht="12.75">
       <c r="A210" s="28">
         <v>209</v>
       </c>
@@ -11983,7 +12052,7 @@
       </c>
       <c r="N210" s="12">
         <f t="shared" si="7"/>
-        <v>247.05728635026531</v>
+        <v>220.36899922330096</v>
       </c>
       <c r="O210" s="11">
         <v>38.6</v>
@@ -11995,7 +12064,7 @@
       <c r="T210" s="12"/>
       <c r="U210" s="12"/>
     </row>
-    <row r="211" spans="1:21" ht="13.15">
+    <row r="211" spans="1:21" ht="12.75">
       <c r="A211" s="28">
         <v>210</v>
       </c>
@@ -12048,7 +12117,7 @@
       <c r="T211" s="12"/>
       <c r="U211" s="12"/>
     </row>
-    <row r="212" spans="1:21" ht="13.15">
+    <row r="212" spans="1:21" ht="12.75">
       <c r="A212" s="28">
         <v>211</v>
       </c>
@@ -12091,7 +12160,7 @@
       </c>
       <c r="N212" s="12">
         <f t="shared" si="7"/>
-        <v>167.41381903998243</v>
+        <v>149.32899289473684</v>
       </c>
       <c r="O212" s="11">
         <v>44.3</v>
@@ -12107,7 +12176,7 @@
       <c r="T212" s="12"/>
       <c r="U212" s="12"/>
     </row>
-    <row r="213" spans="1:21" ht="13.15">
+    <row r="213" spans="1:21" ht="12.75">
       <c r="A213" s="28">
         <v>212</v>
       </c>
@@ -12164,7 +12233,7 @@
       <c r="T213" s="12"/>
       <c r="U213" s="12"/>
     </row>
-    <row r="214" spans="1:21" ht="13.15">
+    <row r="214" spans="1:21" ht="12.75">
       <c r="A214" s="28">
         <v>213</v>
       </c>
@@ -12207,7 +12276,7 @@
       </c>
       <c r="N214" s="12">
         <f t="shared" si="7"/>
-        <v>148.81228359109548</v>
+        <v>132.73688257309942</v>
       </c>
       <c r="O214" s="11">
         <v>44.5</v>
@@ -12219,7 +12288,7 @@
       <c r="T214" s="12"/>
       <c r="U214" s="12"/>
     </row>
-    <row r="215" spans="1:21" ht="13.15">
+    <row r="215" spans="1:21" ht="12.75">
       <c r="A215" s="28">
         <v>214</v>
       </c>
@@ -12272,7 +12341,7 @@
       <c r="T215" s="12"/>
       <c r="U215" s="12"/>
     </row>
-    <row r="216" spans="1:21" ht="13.15">
+    <row r="216" spans="1:21" ht="12.75">
       <c r="A216" s="28">
         <v>215</v>
       </c>
@@ -12315,7 +12384,7 @@
       </c>
       <c r="N216" s="12">
         <f t="shared" si="7"/>
-        <v>180.4744715892009</v>
+        <v>160.97877248226951</v>
       </c>
       <c r="O216" s="11">
         <v>53.3</v>
@@ -12327,7 +12396,7 @@
       <c r="T216" s="12"/>
       <c r="U216" s="12"/>
     </row>
-    <row r="217" spans="1:21" ht="13.15">
+    <row r="217" spans="1:21" ht="12.75">
       <c r="A217" s="28">
         <v>216</v>
       </c>
@@ -12380,7 +12449,7 @@
       <c r="T217" s="12"/>
       <c r="U217" s="12"/>
     </row>
-    <row r="218" spans="1:21" ht="13.15">
+    <row r="218" spans="1:21" ht="12.75">
       <c r="A218" s="28">
         <v>217</v>
       </c>
@@ -12423,7 +12492,7 @@
       </c>
       <c r="N218" s="12">
         <f t="shared" si="7"/>
-        <v>213.83949995022962</v>
+        <v>190.73955394957983</v>
       </c>
       <c r="O218" s="11">
         <v>57.4</v>
@@ -12435,7 +12504,7 @@
       <c r="T218" s="12"/>
       <c r="U218" s="12"/>
     </row>
-    <row r="219" spans="1:21" ht="13.15">
+    <row r="219" spans="1:21" ht="12.75">
       <c r="A219" s="28">
         <v>218</v>
       </c>
@@ -12488,7 +12557,7 @@
       <c r="T219" s="12"/>
       <c r="U219" s="12"/>
     </row>
-    <row r="220" spans="1:21" ht="13.15">
+    <row r="220" spans="1:21" ht="12.75">
       <c r="A220" s="28">
         <v>219</v>
       </c>
@@ -12531,7 +12600,7 @@
       </c>
       <c r="N220" s="12">
         <f t="shared" si="7"/>
-        <v>197.26279452773122</v>
+        <v>175.95354201550387</v>
       </c>
       <c r="O220" s="11">
         <v>60.8</v>
@@ -12543,7 +12612,7 @@
       <c r="T220" s="12"/>
       <c r="U220" s="12"/>
     </row>
-    <row r="221" spans="1:21" ht="13.15">
+    <row r="221" spans="1:21" ht="12.75">
       <c r="A221" s="28">
         <v>220</v>
       </c>
@@ -12596,7 +12665,7 @@
       <c r="T221" s="12"/>
       <c r="U221" s="12"/>
     </row>
-    <row r="222" spans="1:21" ht="13.15">
+    <row r="222" spans="1:21" ht="12.75">
       <c r="A222" s="28">
         <v>221</v>
       </c>
@@ -12639,7 +12708,7 @@
       </c>
       <c r="N222" s="12">
         <f t="shared" si="7"/>
-        <v>195.74538841597945</v>
+        <v>174.60005323076925</v>
       </c>
       <c r="O222" s="11">
         <v>42.4</v>
@@ -12651,7 +12720,7 @@
       <c r="T222" s="12"/>
       <c r="U222" s="12"/>
     </row>
-    <row r="223" spans="1:21" ht="13.15">
+    <row r="223" spans="1:21" ht="12.75">
       <c r="A223" s="28">
         <v>222</v>
       </c>
@@ -12747,7 +12816,7 @@
       </c>
       <c r="N224" s="12">
         <f t="shared" si="7"/>
-        <v>138.29837225042024</v>
+        <v>123.35873326086957</v>
       </c>
       <c r="O224" s="11">
         <v>47.1</v>
@@ -12759,7 +12828,7 @@
       <c r="T224" s="12"/>
       <c r="U224" s="12"/>
     </row>
-    <row r="225" spans="1:21" ht="13.15">
+    <row r="225" spans="1:21" ht="12.75">
       <c r="A225" s="28">
         <v>224</v>
       </c>
@@ -12812,7 +12881,7 @@
       <c r="T225" s="12"/>
       <c r="U225" s="12"/>
     </row>
-    <row r="226" spans="1:21" ht="13.15">
+    <row r="226" spans="1:21" ht="12.75">
       <c r="A226" s="28">
         <v>225</v>
       </c>
@@ -12855,7 +12924,7 @@
       </c>
       <c r="N226" s="12">
         <f t="shared" si="7"/>
-        <v>227.20446869711898</v>
+        <v>202.66077607142859</v>
       </c>
       <c r="O226" s="11">
         <v>35.299999999999997</v>
@@ -12867,7 +12936,7 @@
       <c r="T226" s="12"/>
       <c r="U226" s="12"/>
     </row>
-    <row r="227" spans="1:21" ht="13.15">
+    <row r="227" spans="1:21" ht="12.75">
       <c r="A227" s="28">
         <v>226</v>
       </c>
@@ -12920,7 +12989,7 @@
       <c r="T227" s="12"/>
       <c r="U227" s="12"/>
     </row>
-    <row r="228" spans="1:21" ht="13.15">
+    <row r="228" spans="1:21" ht="12.75">
       <c r="A228" s="28">
         <v>227</v>
       </c>
@@ -12963,7 +13032,7 @@
       </c>
       <c r="N228" s="12">
         <f t="shared" si="7"/>
-        <v>206.88536987054738</v>
+        <v>184.53664162601626</v>
       </c>
       <c r="O228" s="11">
         <v>45.4</v>
@@ -12975,7 +13044,7 @@
       <c r="T228" s="12"/>
       <c r="U228" s="12"/>
     </row>
-    <row r="229" spans="1:21" ht="13.15">
+    <row r="229" spans="1:21" ht="12.75">
       <c r="A229" s="28">
         <v>228</v>
       </c>
@@ -13028,7 +13097,7 @@
       <c r="T229" s="12"/>
       <c r="U229" s="12"/>
     </row>
-    <row r="230" spans="1:21" ht="13.15">
+    <row r="230" spans="1:21" ht="12.75">
       <c r="A230" s="28">
         <v>229</v>
       </c>
@@ -13071,7 +13140,7 @@
       </c>
       <c r="N230" s="12">
         <f t="shared" si="7"/>
-        <v>146.24655456366281</v>
+        <v>130.44831563218392</v>
       </c>
       <c r="O230" s="11">
         <v>42.4</v>
@@ -13083,7 +13152,7 @@
       <c r="T230" s="12"/>
       <c r="U230" s="12"/>
     </row>
-    <row r="231" spans="1:21" ht="13.15">
+    <row r="231" spans="1:21" ht="12.75">
       <c r="A231" s="28">
         <v>230</v>
       </c>
@@ -13136,7 +13205,7 @@
       <c r="T231" s="12"/>
       <c r="U231" s="12"/>
     </row>
-    <row r="232" spans="1:21" ht="13.15">
+    <row r="232" spans="1:21" ht="12.75">
       <c r="A232" s="28">
         <v>231</v>
       </c>
@@ -13179,7 +13248,7 @@
       </c>
       <c r="N232" s="12">
         <f t="shared" si="7"/>
-        <v>120.60142414254656</v>
+        <v>107.57349251184834</v>
       </c>
       <c r="O232" s="11">
         <v>64.7</v>
@@ -13191,7 +13260,7 @@
       <c r="T232" s="12"/>
       <c r="U232" s="12"/>
     </row>
-    <row r="233" spans="1:21" ht="13.15">
+    <row r="233" spans="1:21" ht="12.75">
       <c r="A233" s="28">
         <v>232</v>
       </c>
@@ -13244,7 +13313,7 @@
       <c r="T233" s="12"/>
       <c r="U233" s="12"/>
     </row>
-    <row r="234" spans="1:21" ht="13.15">
+    <row r="234" spans="1:21" ht="12.75">
       <c r="A234" s="28">
         <v>233</v>
       </c>
@@ -13287,7 +13356,7 @@
       </c>
       <c r="N234" s="12">
         <f t="shared" si="7"/>
-        <v>138.29837225042024</v>
+        <v>123.35873326086957</v>
       </c>
       <c r="O234" s="11">
         <v>61.1</v>
@@ -13299,7 +13368,7 @@
       <c r="T234" s="12"/>
       <c r="U234" s="12"/>
     </row>
-    <row r="235" spans="1:21" ht="13.15">
+    <row r="235" spans="1:21" ht="12.75">
       <c r="A235" s="28">
         <v>234</v>
       </c>
@@ -13352,7 +13421,7 @@
       <c r="T235" s="12"/>
       <c r="U235" s="12"/>
     </row>
-    <row r="236" spans="1:21" ht="13.15">
+    <row r="236" spans="1:21" ht="12.75">
       <c r="A236" s="28">
         <v>235</v>
       </c>
@@ -13395,7 +13464,7 @@
       </c>
       <c r="N236" s="12">
         <f t="shared" si="7"/>
-        <v>154.22363935804441</v>
+        <v>137.56367830303029</v>
       </c>
       <c r="O236" s="11">
         <v>38</v>
@@ -13407,7 +13476,7 @@
       <c r="T236" s="12"/>
       <c r="U236" s="12"/>
     </row>
-    <row r="237" spans="1:21" ht="13.15">
+    <row r="237" spans="1:21" ht="12.75">
       <c r="A237" s="28">
         <v>236</v>
       </c>
@@ -13460,7 +13529,7 @@
       <c r="T237" s="12"/>
       <c r="U237" s="12"/>
     </row>
-    <row r="238" spans="1:21" ht="13.15">
+    <row r="238" spans="1:21" ht="12.75">
       <c r="A238" s="28">
         <v>237</v>
       </c>
@@ -13503,7 +13572,7 @@
       </c>
       <c r="N238" s="12">
         <f t="shared" si="7"/>
-        <v>130.49692561065297</v>
+        <v>116.40003548717949</v>
       </c>
       <c r="O238" s="11">
         <v>48</v>
@@ -13515,7 +13584,7 @@
       <c r="T238" s="12"/>
       <c r="U238" s="12"/>
     </row>
-    <row r="239" spans="1:21" ht="13.15">
+    <row r="239" spans="1:21" ht="12.75">
       <c r="A239" s="28">
         <v>238</v>
       </c>
@@ -13568,7 +13637,7 @@
       <c r="T239" s="12"/>
       <c r="U239" s="12"/>
     </row>
-    <row r="240" spans="1:21" ht="13.15">
+    <row r="240" spans="1:21" ht="12.75">
       <c r="A240" s="28">
         <v>239</v>
       </c>
@@ -13611,7 +13680,7 @@
       </c>
       <c r="N240" s="12">
         <f t="shared" si="7"/>
-        <v>142.16145527417501</v>
+        <v>126.8045079329609</v>
       </c>
       <c r="O240" s="11">
         <v>45.9</v>
@@ -13623,7 +13692,7 @@
       <c r="T240" s="12"/>
       <c r="U240" s="12"/>
     </row>
-    <row r="241" spans="1:21" ht="13.15">
+    <row r="241" spans="1:21" ht="12.75">
       <c r="A241" s="28">
         <v>240</v>
       </c>
@@ -13676,7 +13745,7 @@
       <c r="T241" s="12"/>
       <c r="U241" s="12"/>
     </row>
-    <row r="242" spans="1:21" ht="13.15">
+    <row r="242" spans="1:21" ht="12.75">
       <c r="A242" s="28">
         <v>241</v>
       </c>
@@ -13719,7 +13788,7 @@
       </c>
       <c r="N242" s="12">
         <f t="shared" si="7"/>
-        <v>259.66224993956456</v>
+        <v>231.6123155102041</v>
       </c>
       <c r="O242" s="11">
         <v>29.9</v>
@@ -13731,7 +13800,7 @@
       <c r="T242" s="12"/>
       <c r="U242" s="12"/>
     </row>
-    <row r="243" spans="1:21" ht="13.15">
+    <row r="243" spans="1:21" ht="12.75">
       <c r="A243" s="28">
         <v>242</v>
       </c>
@@ -13784,7 +13853,7 @@
       <c r="T243" s="12"/>
       <c r="U243" s="12"/>
     </row>
-    <row r="244" spans="1:21" ht="13.15">
+    <row r="244" spans="1:21" ht="12.75">
       <c r="A244" s="28">
         <v>243</v>
       </c>
@@ -13827,7 +13896,7 @@
       </c>
       <c r="N244" s="12">
         <f t="shared" si="7"/>
-        <v>257.03939893007401</v>
+        <v>229.27279717171714</v>
       </c>
       <c r="O244" s="11">
         <v>32.5</v>
@@ -13839,7 +13908,7 @@
       <c r="T244" s="12"/>
       <c r="U244" s="12"/>
     </row>
-    <row r="245" spans="1:21" ht="13.15">
+    <row r="245" spans="1:21" ht="12.75">
       <c r="A245" s="28">
         <v>244</v>
       </c>
@@ -13892,7 +13961,7 @@
       <c r="T245" s="12"/>
       <c r="U245" s="12"/>
     </row>
-    <row r="246" spans="1:21" ht="13.15">
+    <row r="246" spans="1:21" ht="12.75">
       <c r="A246" s="28">
         <v>245</v>
       </c>
@@ -13935,7 +14004,7 @@
       </c>
       <c r="N246" s="12">
         <f t="shared" si="7"/>
-        <v>270.71170738380135</v>
+        <v>241.46815872340426</v>
       </c>
       <c r="O246" s="11">
         <v>30.9</v>
@@ -13951,7 +14020,7 @@
       <c r="T246" s="12"/>
       <c r="U246" s="12"/>
     </row>
-    <row r="247" spans="1:21" ht="13.15">
+    <row r="247" spans="1:21" ht="12.75">
       <c r="A247" s="28">
         <v>246</v>
       </c>
@@ -14008,7 +14077,7 @@
       <c r="T247" s="12"/>
       <c r="U247" s="12"/>
     </row>
-    <row r="248" spans="1:21" ht="13.15">
+    <row r="248" spans="1:21" ht="12.75">
       <c r="A248" s="28">
         <v>247</v>
       </c>
@@ -14051,7 +14120,7 @@
       </c>
       <c r="N248" s="12">
         <f t="shared" si="7"/>
-        <v>247.05728635026531</v>
+        <v>220.36899922330096</v>
       </c>
       <c r="O248" s="11">
         <v>50.9</v>
@@ -14063,7 +14132,7 @@
       <c r="T248" s="12"/>
       <c r="U248" s="12"/>
     </row>
-    <row r="249" spans="1:21" ht="13.15">
+    <row r="249" spans="1:21" ht="12.75">
       <c r="A249" s="28">
         <v>248</v>
       </c>
@@ -14116,7 +14185,7 @@
       <c r="T249" s="12"/>
       <c r="U249" s="12"/>
     </row>
-    <row r="250" spans="1:21" ht="13.15">
+    <row r="250" spans="1:21" ht="12.75">
       <c r="A250" s="28">
         <v>249</v>
       </c>
@@ -14159,7 +14228,7 @@
       </c>
       <c r="N250" s="12">
         <f t="shared" si="7"/>
-        <v>276.59674450084049</v>
+        <v>246.71746652173914</v>
       </c>
       <c r="O250" s="11">
         <v>46.5</v>
@@ -14171,7 +14240,7 @@
       <c r="T250" s="12"/>
       <c r="U250" s="12"/>
     </row>
-    <row r="251" spans="1:21" ht="13.15">
+    <row r="251" spans="1:21" ht="12.75">
       <c r="A251" s="28">
         <v>250</v>
       </c>
@@ -14224,7 +14293,7 @@
       <c r="T251" s="12"/>
       <c r="U251" s="12"/>
     </row>
-    <row r="252" spans="1:21" ht="13.15">
+    <row r="252" spans="1:21" ht="12.75">
       <c r="A252" s="28">
         <v>251</v>
       </c>
@@ -14267,7 +14336,7 @@
       </c>
       <c r="N252" s="12">
         <f t="shared" si="7"/>
-        <v>267.86211046397187</v>
+        <v>238.92638863157896</v>
       </c>
       <c r="O252" s="11">
         <v>42.7</v>
@@ -14279,7 +14348,7 @@
       <c r="T252" s="12"/>
       <c r="U252" s="12"/>
     </row>
-    <row r="253" spans="1:21" ht="13.15">
+    <row r="253" spans="1:21" ht="12.75">
       <c r="A253" s="28">
         <v>252</v>
       </c>
@@ -14332,7 +14401,7 @@
       <c r="T253" s="12"/>
       <c r="U253" s="12"/>
     </row>
-    <row r="254" spans="1:21" ht="13.15">
+    <row r="254" spans="1:21" ht="12.75">
       <c r="A254" s="28">
         <v>253</v>
       </c>
@@ -14375,7 +14444,7 @@
       </c>
       <c r="N254" s="12">
         <f t="shared" si="7"/>
-        <v>244.6817355199743</v>
+        <v>218.25006653846154</v>
       </c>
       <c r="O254" s="11">
         <v>29</v>
@@ -14387,7 +14456,7 @@
       <c r="T254" s="12"/>
       <c r="U254" s="12"/>
     </row>
-    <row r="255" spans="1:21" ht="13.15">
+    <row r="255" spans="1:21" ht="12.75">
       <c r="A255" s="28">
         <v>254</v>
       </c>
@@ -14440,7 +14509,7 @@
       <c r="T255" s="12"/>
       <c r="U255" s="12"/>
     </row>
-    <row r="256" spans="1:21" ht="13.15">
+    <row r="256" spans="1:21" ht="12.75">
       <c r="A256" s="28">
         <v>255</v>
       </c>
@@ -14483,7 +14552,7 @@
       </c>
       <c r="N256" s="12">
         <f t="shared" si="7"/>
-        <v>257.03939893007401</v>
+        <v>229.27279717171714</v>
       </c>
       <c r="O256" s="11">
         <v>32.299999999999997</v>
@@ -14495,7 +14564,7 @@
       <c r="T256" s="12"/>
       <c r="U256" s="12"/>
     </row>
-    <row r="257" spans="1:21" ht="13.15">
+    <row r="257" spans="1:21" ht="12.75">
       <c r="A257" s="28">
         <v>256</v>
       </c>
@@ -14548,7 +14617,7 @@
       <c r="T257" s="12"/>
       <c r="U257" s="12"/>
     </row>
-    <row r="258" spans="1:21" ht="13.15">
+    <row r="258" spans="1:21" ht="12.75">
       <c r="A258" s="28">
         <v>257</v>
       </c>
@@ -14590,8 +14659,8 @@
         <v>63.548387096774206</v>
       </c>
       <c r="N258" s="12">
-        <f t="shared" ref="N258:N321" si="9">IF(L258&gt;0,((1.8/2)^2*PI())/L258,"")</f>
-        <v>225.19380968210027</v>
+        <f t="shared" si="7"/>
+        <v>200.8673178761062</v>
       </c>
       <c r="O258" s="11">
         <v>29.9</v>
@@ -14603,7 +14672,7 @@
       <c r="T258" s="12"/>
       <c r="U258" s="12"/>
     </row>
-    <row r="259" spans="1:21" ht="13.15">
+    <row r="259" spans="1:21" ht="12.75">
       <c r="A259" s="28">
         <v>258</v>
       </c>
@@ -14643,7 +14712,7 @@
         <v/>
       </c>
       <c r="N259" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N259:N322" si="9">IF(L259&gt;0,2.269800692/L259,"")</f>
         <v/>
       </c>
       <c r="O259" s="11">
@@ -14656,7 +14725,7 @@
       <c r="T259" s="12"/>
       <c r="U259" s="12"/>
     </row>
-    <row r="260" spans="1:21" ht="13.15">
+    <row r="260" spans="1:21" ht="12.75">
       <c r="A260" s="28">
         <v>259</v>
       </c>
@@ -14699,7 +14768,7 @@
       </c>
       <c r="N260" s="12">
         <f t="shared" si="9"/>
-        <v>200.36929522895534</v>
+        <v>178.72446393700787</v>
       </c>
       <c r="O260" s="11">
         <v>36.1</v>
@@ -14711,7 +14780,7 @@
       <c r="T260" s="12"/>
       <c r="U260" s="12"/>
     </row>
-    <row r="261" spans="1:21" ht="13.15">
+    <row r="261" spans="1:21" ht="12.75">
       <c r="A261" s="28">
         <v>260</v>
       </c>
@@ -14764,7 +14833,7 @@
       <c r="T261" s="12"/>
       <c r="U261" s="12"/>
     </row>
-    <row r="262" spans="1:21" ht="13.15">
+    <row r="262" spans="1:21" ht="12.75">
       <c r="A262" s="28">
         <v>261</v>
       </c>
@@ -14807,7 +14876,7 @@
       </c>
       <c r="N262" s="12">
         <f t="shared" si="9"/>
-        <v>208.58115159079776</v>
+        <v>186.04923704918031</v>
       </c>
       <c r="O262" s="11">
         <v>35.9</v>
@@ -14819,7 +14888,7 @@
       <c r="T262" s="12"/>
       <c r="U262" s="12"/>
     </row>
-    <row r="263" spans="1:21" ht="13.15">
+    <row r="263" spans="1:21" ht="12.75">
       <c r="A263" s="28">
         <v>262</v>
       </c>
@@ -14872,7 +14941,7 @@
       <c r="T263" s="12"/>
       <c r="U263" s="12"/>
     </row>
-    <row r="264" spans="1:21" ht="13.15">
+    <row r="264" spans="1:21" ht="12.75">
       <c r="A264" s="28">
         <v>263</v>
       </c>
@@ -14915,7 +14984,7 @@
       </c>
       <c r="N264" s="12">
         <f t="shared" si="9"/>
-        <v>133.22984551872946</v>
+        <v>118.83773256544504</v>
       </c>
       <c r="O264" s="11">
         <v>33.299999999999997</v>
@@ -14927,7 +14996,7 @@
       <c r="T264" s="12"/>
       <c r="U264" s="12"/>
     </row>
-    <row r="265" spans="1:21" ht="13.15">
+    <row r="265" spans="1:21" ht="12.75">
       <c r="A265" s="28">
         <v>264</v>
       </c>
@@ -14980,7 +15049,7 @@
       <c r="T265" s="12"/>
       <c r="U265" s="12"/>
     </row>
-    <row r="266" spans="1:21" ht="13.15">
+    <row r="266" spans="1:21" ht="12.75">
       <c r="A266" s="28">
         <v>265</v>
       </c>
@@ -15023,7 +15092,7 @@
       </c>
       <c r="N266" s="12">
         <f t="shared" si="9"/>
-        <v>299.37529993032149</v>
+        <v>267.03537552941174</v>
       </c>
       <c r="O266" s="11">
         <v>38.799999999999997</v>
@@ -15035,7 +15104,7 @@
       <c r="T266" s="12"/>
       <c r="U266" s="12"/>
     </row>
-    <row r="267" spans="1:21" ht="13.15">
+    <row r="267" spans="1:21" ht="12.75">
       <c r="A267" s="28">
         <v>266</v>
       </c>
@@ -15088,7 +15157,7 @@
       <c r="T267" s="12"/>
       <c r="U267" s="12"/>
     </row>
-    <row r="268" spans="1:21" ht="13.15">
+    <row r="268" spans="1:21" ht="12.75">
       <c r="A268" s="28">
         <v>267</v>
       </c>
@@ -15131,7 +15200,7 @@
       </c>
       <c r="N268" s="12">
         <f t="shared" si="9"/>
-        <v>247.05728635026531</v>
+        <v>220.36899922330096</v>
       </c>
       <c r="O268" s="11">
         <v>40.4</v>
@@ -15143,7 +15212,7 @@
       <c r="T268" s="12"/>
       <c r="U268" s="12"/>
     </row>
-    <row r="269" spans="1:21" ht="13.15">
+    <row r="269" spans="1:21" ht="12.75">
       <c r="A269" s="28">
         <v>268</v>
       </c>
@@ -15196,7 +15265,7 @@
       <c r="T269" s="12"/>
       <c r="U269" s="12"/>
     </row>
-    <row r="270" spans="1:21" ht="13.15">
+    <row r="270" spans="1:21" ht="12.75">
       <c r="A270" s="28">
         <v>269</v>
       </c>
@@ -15239,7 +15308,7 @@
       </c>
       <c r="N270" s="12">
         <f t="shared" si="9"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O270" s="11">
         <v>34.700000000000003</v>
@@ -15251,7 +15320,7 @@
       <c r="T270" s="12"/>
       <c r="U270" s="12"/>
     </row>
-    <row r="271" spans="1:21" ht="13.15">
+    <row r="271" spans="1:21" ht="12.75">
       <c r="A271" s="28">
         <v>270</v>
       </c>
@@ -15304,7 +15373,7 @@
       <c r="T271" s="12"/>
       <c r="U271" s="12"/>
     </row>
-    <row r="272" spans="1:21" ht="13.15">
+    <row r="272" spans="1:21" ht="12.75">
       <c r="A272" s="28">
         <v>271</v>
       </c>
@@ -15347,7 +15416,7 @@
       </c>
       <c r="N272" s="12">
         <f t="shared" si="9"/>
-        <v>229.25135580249844</v>
+        <v>204.48654882882883</v>
       </c>
       <c r="O272" s="11">
         <v>46.9</v>
@@ -15359,7 +15428,7 @@
       <c r="T272" s="12"/>
       <c r="U272" s="12"/>
     </row>
-    <row r="273" spans="1:21" ht="13.15">
+    <row r="273" spans="1:21" ht="12.75">
       <c r="A273" s="28">
         <v>272</v>
       </c>
@@ -15412,7 +15481,7 @@
       <c r="T273" s="12"/>
       <c r="U273" s="12"/>
     </row>
-    <row r="274" spans="1:21" ht="13.15">
+    <row r="274" spans="1:21" ht="12.75">
       <c r="A274" s="28">
         <v>273</v>
       </c>
@@ -15455,7 +15524,7 @@
       </c>
       <c r="N274" s="12">
         <f t="shared" si="9"/>
-        <v>322.11266448199143</v>
+        <v>287.31654329113923</v>
       </c>
       <c r="O274" s="11">
         <v>39.200000000000003</v>
@@ -15467,7 +15536,7 @@
       <c r="T274" s="12"/>
       <c r="U274" s="12"/>
     </row>
-    <row r="275" spans="1:21" ht="13.15">
+    <row r="275" spans="1:21" ht="12.75">
       <c r="A275" s="28">
         <v>274</v>
       </c>
@@ -15520,7 +15589,7 @@
       <c r="T275" s="12"/>
       <c r="U275" s="12"/>
     </row>
-    <row r="276" spans="1:21" ht="13.15">
+    <row r="276" spans="1:21" ht="12.75">
       <c r="A276" s="28">
         <v>275</v>
       </c>
@@ -15563,7 +15632,7 @@
       </c>
       <c r="N276" s="12">
         <f t="shared" si="9"/>
-        <v>285.92023027053176</v>
+        <v>255.03378561797754</v>
       </c>
       <c r="O276" s="11">
         <v>39.4</v>
@@ -15579,7 +15648,7 @@
       <c r="T276" s="12"/>
       <c r="U276" s="12"/>
     </row>
-    <row r="277" spans="1:21" ht="13.15">
+    <row r="277" spans="1:21" ht="12.75">
       <c r="A277" s="28">
         <v>276</v>
       </c>
@@ -15636,7 +15705,7 @@
       <c r="T277" s="12"/>
       <c r="U277" s="12"/>
     </row>
-    <row r="278" spans="1:21" ht="13.15">
+    <row r="278" spans="1:21" ht="12.75">
       <c r="A278" s="28">
         <v>277</v>
       </c>
@@ -15679,7 +15748,7 @@
       </c>
       <c r="N278" s="12">
         <f t="shared" si="9"/>
-        <v>165.23961359790471</v>
+        <v>147.38965532467532</v>
       </c>
       <c r="O278" s="11">
         <v>45.5</v>
@@ -15691,7 +15760,7 @@
       <c r="T278" s="12"/>
       <c r="U278" s="12"/>
     </row>
-    <row r="279" spans="1:21" ht="13.15">
+    <row r="279" spans="1:21" ht="12.75">
       <c r="A279" s="28">
         <v>278</v>
       </c>
@@ -15744,7 +15813,7 @@
       <c r="T279" s="12"/>
       <c r="U279" s="12"/>
     </row>
-    <row r="280" spans="1:21" ht="13.15">
+    <row r="280" spans="1:21" ht="12.75">
       <c r="A280" s="28">
         <v>279</v>
       </c>
@@ -15787,7 +15856,7 @@
       </c>
       <c r="N280" s="12">
         <f t="shared" si="9"/>
-        <v>157.07963267948969</v>
+        <v>140.11115382716051</v>
       </c>
       <c r="O280" s="11">
         <v>52.2</v>
@@ -15799,7 +15868,7 @@
       <c r="T280" s="12"/>
       <c r="U280" s="12"/>
     </row>
-    <row r="281" spans="1:21" ht="13.15">
+    <row r="281" spans="1:21" ht="12.75">
       <c r="A281" s="28">
         <v>280</v>
       </c>
@@ -15852,7 +15921,7 @@
       <c r="T281" s="12"/>
       <c r="U281" s="12"/>
     </row>
-    <row r="282" spans="1:21" ht="13.15">
+    <row r="282" spans="1:21" ht="12.75">
       <c r="A282" s="28">
         <v>281</v>
       </c>
@@ -15895,7 +15964,7 @@
       </c>
       <c r="N282" s="12">
         <f t="shared" si="9"/>
-        <v>153.29458128962244</v>
+        <v>136.73498144578312</v>
       </c>
       <c r="O282" s="11">
         <v>43</v>
@@ -15907,7 +15976,7 @@
       <c r="T282" s="12"/>
       <c r="U282" s="12"/>
     </row>
-    <row r="283" spans="1:21" ht="13.15">
+    <row r="283" spans="1:21" ht="12.75">
       <c r="A283" s="28">
         <v>282</v>
       </c>
@@ -15960,7 +16029,7 @@
       <c r="T283" s="12"/>
       <c r="U283" s="12"/>
     </row>
-    <row r="284" spans="1:21" ht="13.15">
+    <row r="284" spans="1:21" ht="12.75">
       <c r="A284" s="28">
         <v>283</v>
       </c>
@@ -16003,7 +16072,7 @@
       </c>
       <c r="N284" s="12">
         <f t="shared" si="9"/>
-        <v>270.71170738380135</v>
+        <v>241.46815872340426</v>
       </c>
       <c r="O284" s="11">
         <v>28.1</v>
@@ -16015,7 +16084,7 @@
       <c r="T284" s="12"/>
       <c r="U284" s="12"/>
     </row>
-    <row r="285" spans="1:21" ht="13.15">
+    <row r="285" spans="1:21" ht="12.75">
       <c r="A285" s="28">
         <v>284</v>
       </c>
@@ -16068,7 +16137,7 @@
       <c r="T285" s="12"/>
       <c r="U285" s="12"/>
     </row>
-    <row r="286" spans="1:21" ht="13.15">
+    <row r="286" spans="1:21" ht="12.75">
       <c r="A286" s="28">
         <v>285</v>
       </c>
@@ -16111,7 +16180,7 @@
       </c>
       <c r="N286" s="12">
         <f t="shared" si="9"/>
-        <v>157.07963267948969</v>
+        <v>140.11115382716051</v>
       </c>
       <c r="O286" s="11">
         <v>52.7</v>
@@ -16176,7 +16245,7 @@
       <c r="T287" s="12"/>
       <c r="U287" s="12"/>
     </row>
-    <row r="288" spans="1:21" ht="13.15">
+    <row r="288" spans="1:21" ht="12.75">
       <c r="A288" s="28">
         <v>287</v>
       </c>
@@ -16219,7 +16288,7 @@
       </c>
       <c r="N288" s="12">
         <f t="shared" si="9"/>
-        <v>279.63626916568489</v>
+        <v>249.42864747252747</v>
       </c>
       <c r="O288" s="11">
         <v>51</v>
@@ -16231,7 +16300,7 @@
       <c r="T288" s="12"/>
       <c r="U288" s="12"/>
     </row>
-    <row r="289" spans="1:21" ht="13.15">
+    <row r="289" spans="1:21" ht="12.75">
       <c r="A289" s="28">
         <v>288</v>
       </c>
@@ -16284,7 +16353,7 @@
       <c r="T289" s="12"/>
       <c r="U289" s="12"/>
     </row>
-    <row r="290" spans="1:21" ht="13.15">
+    <row r="290" spans="1:21" ht="12.75">
       <c r="A290" s="28">
         <v>289</v>
       </c>
@@ -16327,7 +16396,7 @@
       </c>
       <c r="N290" s="12">
         <f t="shared" si="9"/>
-        <v>150.57337570459958</v>
+        <v>134.30773325443789</v>
       </c>
       <c r="O290" s="11">
         <v>38.799999999999997</v>
@@ -16339,7 +16408,7 @@
       <c r="T290" s="12"/>
       <c r="U290" s="12"/>
     </row>
-    <row r="291" spans="1:21" ht="13.15">
+    <row r="291" spans="1:21" ht="12.75">
       <c r="A291" s="28">
         <v>290</v>
       </c>
@@ -16392,7 +16461,7 @@
       <c r="T291" s="12"/>
       <c r="U291" s="12"/>
     </row>
-    <row r="292" spans="1:21" ht="13.15">
+    <row r="292" spans="1:21" ht="12.75">
       <c r="A292" s="28">
         <v>291</v>
       </c>
@@ -16435,7 +16504,7 @@
       </c>
       <c r="N292" s="12">
         <f t="shared" si="9"/>
-        <v>166.31961107240085</v>
+        <v>148.35298640522876</v>
       </c>
       <c r="O292" s="11">
         <v>48.3</v>
@@ -16447,7 +16516,7 @@
       <c r="T292" s="12"/>
       <c r="U292" s="12"/>
     </row>
-    <row r="293" spans="1:21" ht="13.15">
+    <row r="293" spans="1:21" ht="12.75">
       <c r="A293" s="28">
         <v>292</v>
       </c>
@@ -16500,7 +16569,7 @@
       <c r="T293" s="12"/>
       <c r="U293" s="12"/>
     </row>
-    <row r="294" spans="1:21" ht="13.15">
+    <row r="294" spans="1:21" ht="12.75">
       <c r="A294" s="28">
         <v>293</v>
       </c>
@@ -16543,7 +16612,7 @@
       </c>
       <c r="N294" s="12">
         <f t="shared" si="9"/>
-        <v>143.7677994015668</v>
+        <v>128.2373272316384</v>
       </c>
       <c r="O294" s="11">
         <v>50.4</v>
@@ -16555,7 +16624,7 @@
       <c r="T294" s="12"/>
       <c r="U294" s="12"/>
     </row>
-    <row r="295" spans="1:21" ht="13.15">
+    <row r="295" spans="1:21" ht="12.75">
       <c r="A295" s="28">
         <v>294</v>
       </c>
@@ -16608,7 +16677,7 @@
       <c r="T295" s="12"/>
       <c r="U295" s="12"/>
     </row>
-    <row r="296" spans="1:21" ht="13.15">
+    <row r="296" spans="1:21" ht="12.75">
       <c r="A296" s="28">
         <v>295</v>
       </c>
@@ -16651,7 +16720,7 @@
       </c>
       <c r="N296" s="12">
         <f t="shared" si="9"/>
-        <v>194.25114880975059</v>
+        <v>173.26722839694656</v>
       </c>
       <c r="O296" s="11">
         <v>29.1</v>
@@ -16663,7 +16732,7 @@
       <c r="T296" s="12"/>
       <c r="U296" s="12"/>
     </row>
-    <row r="297" spans="1:21" ht="13.15">
+    <row r="297" spans="1:21" ht="12.75">
       <c r="A297" s="28">
         <v>296</v>
       </c>
@@ -16716,7 +16785,7 @@
       <c r="T297" s="12"/>
       <c r="U297" s="12"/>
     </row>
-    <row r="298" spans="1:21" ht="13.15">
+    <row r="298" spans="1:21" ht="12.75">
       <c r="A298" s="28">
         <v>297</v>
       </c>
@@ -16759,7 +16828,7 @@
       </c>
       <c r="N298" s="12">
         <f t="shared" si="9"/>
-        <v>219.36983184549422</v>
+        <v>195.67247344827587</v>
       </c>
       <c r="O298" s="11">
         <v>31.2</v>
@@ -16771,7 +16840,7 @@
       <c r="T298" s="12"/>
       <c r="U298" s="12"/>
     </row>
-    <row r="299" spans="1:21" ht="13.15">
+    <row r="299" spans="1:21" ht="12.75">
       <c r="A299" s="28">
         <v>298</v>
       </c>
@@ -16824,7 +16893,7 @@
       <c r="T299" s="12"/>
       <c r="U299" s="12"/>
     </row>
-    <row r="300" spans="1:21" ht="13.15">
+    <row r="300" spans="1:21" ht="12.75">
       <c r="A300" s="28">
         <v>299</v>
       </c>
@@ -16867,7 +16936,7 @@
       </c>
       <c r="N300" s="12">
         <f t="shared" si="9"/>
-        <v>168.52251982832666</v>
+        <v>150.31792662251655</v>
       </c>
       <c r="O300" s="11">
         <v>55.8</v>
@@ -16879,7 +16948,7 @@
       <c r="T300" s="12"/>
       <c r="U300" s="12"/>
     </row>
-    <row r="301" spans="1:21" ht="13.15">
+    <row r="301" spans="1:21" ht="12.75">
       <c r="A301" s="28">
         <v>300</v>
       </c>
@@ -16932,7 +17001,7 @@
       <c r="T301" s="12"/>
       <c r="U301" s="12"/>
     </row>
-    <row r="302" spans="1:21" ht="13.15">
+    <row r="302" spans="1:21" ht="12.75">
       <c r="A302" s="28">
         <v>301</v>
       </c>
@@ -16975,7 +17044,7 @@
       </c>
       <c r="N302" s="12">
         <f t="shared" si="9"/>
-        <v>454.40893739423797</v>
+        <v>405.32155214285717</v>
       </c>
       <c r="O302" s="11">
         <v>34.5</v>
@@ -17040,7 +17109,7 @@
       <c r="T303" s="12"/>
       <c r="U303" s="12"/>
     </row>
-    <row r="304" spans="1:21" ht="13.15">
+    <row r="304" spans="1:21" ht="12.75">
       <c r="A304" s="28">
         <v>303</v>
       </c>
@@ -17083,7 +17152,7 @@
       </c>
       <c r="N304" s="12">
         <f t="shared" si="9"/>
-        <v>480.13019800145901</v>
+        <v>428.26428150943394</v>
       </c>
       <c r="O304" s="11">
         <v>34.5</v>
@@ -17095,7 +17164,7 @@
       <c r="T304" s="12"/>
       <c r="U304" s="12"/>
     </row>
-    <row r="305" spans="1:21" ht="13.15">
+    <row r="305" spans="1:21" ht="12.75">
       <c r="A305" s="28">
         <v>304</v>
       </c>
@@ -17148,7 +17217,7 @@
       <c r="T305" s="12"/>
       <c r="U305" s="12"/>
     </row>
-    <row r="306" spans="1:21" ht="13.15">
+    <row r="306" spans="1:21" ht="12.75">
       <c r="A306" s="28">
         <v>305</v>
       </c>
@@ -17191,7 +17260,7 @@
       </c>
       <c r="N306" s="12">
         <f t="shared" si="9"/>
-        <v>530.14376029327764</v>
+        <v>472.8751441666667</v>
       </c>
       <c r="O306" s="11">
         <v>29.9</v>
@@ -17207,7 +17276,7 @@
       <c r="T306" s="12"/>
       <c r="U306" s="12"/>
     </row>
-    <row r="307" spans="1:21" ht="13.15">
+    <row r="307" spans="1:21" ht="12.75">
       <c r="A307" s="28">
         <v>306</v>
       </c>
@@ -17264,7 +17333,7 @@
       <c r="T307" s="12"/>
       <c r="U307" s="12"/>
     </row>
-    <row r="308" spans="1:21" ht="13.15">
+    <row r="308" spans="1:21" ht="12.75">
       <c r="A308" s="28">
         <v>307</v>
       </c>
@@ -17307,7 +17376,7 @@
       </c>
       <c r="N308" s="12">
         <f t="shared" si="9"/>
-        <v>424.11500823462211</v>
+        <v>378.30011533333334</v>
       </c>
       <c r="O308" s="11">
         <v>25.4</v>
@@ -17372,7 +17441,7 @@
       <c r="T309" s="12"/>
       <c r="U309" s="12"/>
     </row>
-    <row r="310" spans="1:21" ht="13.15">
+    <row r="310" spans="1:21" ht="12.75">
       <c r="A310" s="28">
         <v>309</v>
       </c>
@@ -17415,7 +17484,7 @@
       </c>
       <c r="N310" s="12">
         <f t="shared" si="9"/>
-        <v>431.30339820470044</v>
+        <v>384.71198169491527</v>
       </c>
       <c r="O310" s="11">
         <v>24.9</v>
@@ -17427,7 +17496,7 @@
       <c r="T310" s="12"/>
       <c r="U310" s="12"/>
     </row>
-    <row r="311" spans="1:21" ht="13.15">
+    <row r="311" spans="1:21" ht="12.75">
       <c r="A311" s="28">
         <v>310</v>
       </c>
@@ -17480,7 +17549,7 @@
       <c r="T311" s="12"/>
       <c r="U311" s="12"/>
     </row>
-    <row r="312" spans="1:21" ht="13.15">
+    <row r="312" spans="1:21" ht="12.75">
       <c r="A312" s="28">
         <v>311</v>
       </c>
@@ -17523,7 +17592,7 @@
       </c>
       <c r="N312" s="12">
         <f t="shared" si="9"/>
-        <v>454.40893739423797</v>
+        <v>405.32155214285717</v>
       </c>
       <c r="O312" s="11">
         <v>22.6</v>
@@ -17535,7 +17604,7 @@
       <c r="T312" s="12"/>
       <c r="U312" s="12"/>
     </row>
-    <row r="313" spans="1:21" ht="13.15">
+    <row r="313" spans="1:21" ht="12.75">
       <c r="A313" s="28">
         <v>312</v>
       </c>
@@ -17588,7 +17657,7 @@
       <c r="T313" s="12"/>
       <c r="U313" s="12"/>
     </row>
-    <row r="314" spans="1:21" ht="13.15">
+    <row r="314" spans="1:21" ht="12.75">
       <c r="A314" s="28">
         <v>313</v>
       </c>
@@ -17631,7 +17700,7 @@
       </c>
       <c r="N314" s="12">
         <f t="shared" si="9"/>
-        <v>417.16230318159552</v>
+        <v>372.09847409836061</v>
       </c>
       <c r="O314" s="11">
         <v>21.9</v>
@@ -17643,7 +17712,7 @@
       <c r="T314" s="12"/>
       <c r="U314" s="12"/>
     </row>
-    <row r="315" spans="1:21" ht="13.15">
+    <row r="315" spans="1:21" ht="12.75">
       <c r="A315" s="28">
         <v>314</v>
       </c>
@@ -17696,7 +17765,7 @@
       <c r="T315" s="12"/>
       <c r="U315" s="12"/>
     </row>
-    <row r="316" spans="1:21" ht="13.15">
+    <row r="316" spans="1:21" ht="12.75">
       <c r="A316" s="28">
         <v>315</v>
       </c>
@@ -17739,7 +17808,7 @@
       </c>
       <c r="N316" s="12">
         <f t="shared" si="9"/>
-        <v>391.4907768319589</v>
+        <v>349.2001064615385</v>
       </c>
       <c r="O316" s="11">
         <v>25.3</v>
@@ -17751,7 +17820,7 @@
       <c r="T316" s="12"/>
       <c r="U316" s="12"/>
     </row>
-    <row r="317" spans="1:21" ht="13.15">
+    <row r="317" spans="1:21" ht="12.75">
       <c r="A317" s="28">
         <v>316</v>
       </c>
@@ -17804,7 +17873,7 @@
       <c r="T317" s="12"/>
       <c r="U317" s="12"/>
     </row>
-    <row r="318" spans="1:21" ht="13.15">
+    <row r="318" spans="1:21" ht="12.75">
       <c r="A318" s="28">
         <v>317</v>
       </c>
@@ -17847,7 +17916,7 @@
       </c>
       <c r="N318" s="12">
         <f t="shared" si="9"/>
-        <v>431.30339820470044</v>
+        <v>384.71198169491527</v>
       </c>
       <c r="O318" s="11">
         <v>26.2</v>
@@ -17859,7 +17928,7 @@
       <c r="T318" s="12"/>
       <c r="U318" s="12"/>
     </row>
-    <row r="319" spans="1:21" ht="13.15">
+    <row r="319" spans="1:21" ht="12.75">
       <c r="A319" s="28">
         <v>318</v>
       </c>
@@ -17912,7 +17981,7 @@
       <c r="T319" s="12"/>
       <c r="U319" s="12"/>
     </row>
-    <row r="320" spans="1:21" ht="13.15">
+    <row r="320" spans="1:21" ht="12.75">
       <c r="A320" s="28">
         <v>319</v>
       </c>
@@ -17955,7 +18024,7 @@
       </c>
       <c r="N320" s="12">
         <f t="shared" si="9"/>
-        <v>410.43387893673111</v>
+        <v>366.09688580645161</v>
       </c>
       <c r="O320" s="11">
         <v>29.5</v>
@@ -17967,7 +18036,7 @@
       <c r="T320" s="12"/>
       <c r="U320" s="12"/>
     </row>
-    <row r="321" spans="1:21" ht="13.15">
+    <row r="321" spans="1:21" ht="12.75">
       <c r="A321" s="28">
         <v>320</v>
       </c>
@@ -18020,7 +18089,7 @@
       <c r="T321" s="12"/>
       <c r="U321" s="12"/>
     </row>
-    <row r="322" spans="1:21" ht="13.15">
+    <row r="322" spans="1:21" ht="12.75">
       <c r="A322" s="28">
         <v>321</v>
       </c>
@@ -18062,8 +18131,8 @@
         <v>69.369369369369366</v>
       </c>
       <c r="N322" s="12">
-        <f t="shared" ref="N322:N385" si="11">IF(L322&gt;0,((1.8/2)^2*PI())/L322,"")</f>
-        <v>374.21912491290186</v>
+        <f t="shared" si="9"/>
+        <v>333.79421941176474</v>
       </c>
       <c r="O322" s="11">
         <v>27.6</v>
@@ -18075,7 +18144,7 @@
       <c r="T322" s="12"/>
       <c r="U322" s="12"/>
     </row>
-    <row r="323" spans="1:21" ht="13.15">
+    <row r="323" spans="1:21" ht="12.75">
       <c r="A323" s="28">
         <v>322</v>
       </c>
@@ -18115,7 +18184,7 @@
         <v/>
       </c>
       <c r="N323" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N323:N386" si="11">IF(L323&gt;0,2.269800692/L323,"")</f>
         <v/>
       </c>
       <c r="O323" s="11">
@@ -18128,7 +18197,7 @@
       <c r="T323" s="12"/>
       <c r="U323" s="12"/>
     </row>
-    <row r="324" spans="1:21" ht="13.15">
+    <row r="324" spans="1:21" ht="12.75">
       <c r="A324" s="28">
         <v>323</v>
       </c>
@@ -18171,7 +18240,7 @@
       </c>
       <c r="N324" s="12">
         <f t="shared" si="11"/>
-        <v>424.11500823462211</v>
+        <v>378.30011533333334</v>
       </c>
       <c r="O324" s="11">
         <v>19.7</v>
@@ -18183,7 +18252,7 @@
       <c r="T324" s="12"/>
       <c r="U324" s="12"/>
     </row>
-    <row r="325" spans="1:21" ht="13.15">
+    <row r="325" spans="1:21" ht="12.75">
       <c r="A325" s="28">
         <v>324</v>
       </c>
@@ -18236,7 +18305,7 @@
       <c r="T325" s="12"/>
       <c r="U325" s="12"/>
     </row>
-    <row r="326" spans="1:21" ht="13.15">
+    <row r="326" spans="1:21" ht="12.75">
       <c r="A326" s="28">
         <v>325</v>
       </c>
@@ -18279,7 +18348,7 @@
       </c>
       <c r="N326" s="12">
         <f t="shared" si="11"/>
-        <v>438.73966369098844</v>
+        <v>391.34494689655173</v>
       </c>
       <c r="O326" s="11">
         <v>33.5</v>
@@ -18291,7 +18360,7 @@
       <c r="T326" s="12"/>
       <c r="U326" s="12"/>
     </row>
-    <row r="327" spans="1:21" ht="13.15">
+    <row r="327" spans="1:21" ht="12.75">
       <c r="A327" s="28">
         <v>326</v>
       </c>
@@ -18344,7 +18413,7 @@
       <c r="T327" s="12"/>
       <c r="U327" s="12"/>
     </row>
-    <row r="328" spans="1:21" ht="13.15">
+    <row r="328" spans="1:21" ht="12.75">
       <c r="A328" s="28">
         <v>327</v>
       </c>
@@ -18387,7 +18456,7 @@
       </c>
       <c r="N328" s="12">
         <f t="shared" si="11"/>
-        <v>403.91905546154487</v>
+        <v>360.28582412698415</v>
       </c>
       <c r="O328" s="11">
         <v>33.299999999999997</v>
@@ -18399,7 +18468,7 @@
       <c r="T328" s="12"/>
       <c r="U328" s="12"/>
     </row>
-    <row r="329" spans="1:21" ht="13.15">
+    <row r="329" spans="1:21" ht="12.75">
       <c r="A329" s="28">
         <v>328</v>
       </c>
@@ -18452,7 +18521,7 @@
       <c r="T329" s="12"/>
       <c r="U329" s="12"/>
     </row>
-    <row r="330" spans="1:21" ht="13.15">
+    <row r="330" spans="1:21" ht="12.75">
       <c r="A330" s="28">
         <v>329</v>
       </c>
@@ -18495,7 +18564,7 @@
       </c>
       <c r="N330" s="12">
         <f t="shared" si="11"/>
-        <v>424.11500823462211</v>
+        <v>378.30011533333334</v>
       </c>
       <c r="O330" s="11">
         <v>27.7</v>
@@ -18507,7 +18576,7 @@
       <c r="T330" s="12"/>
       <c r="U330" s="12"/>
     </row>
-    <row r="331" spans="1:21" ht="13.15">
+    <row r="331" spans="1:21" ht="12.75">
       <c r="A331" s="28">
         <v>330</v>
       </c>
@@ -18560,7 +18629,7 @@
       <c r="T331" s="12"/>
       <c r="U331" s="12"/>
     </row>
-    <row r="332" spans="1:21" ht="13.15">
+    <row r="332" spans="1:21" ht="12.75">
       <c r="A332" s="28">
         <v>331</v>
       </c>
@@ -18603,7 +18672,7 @@
       </c>
       <c r="N332" s="12">
         <f t="shared" si="11"/>
-        <v>262.33918035131262</v>
+        <v>234.00007134020618</v>
       </c>
       <c r="O332" s="11">
         <v>25</v>
@@ -18615,7 +18684,7 @@
       <c r="T332" s="12"/>
       <c r="U332" s="12"/>
     </row>
-    <row r="333" spans="1:21" ht="13.15">
+    <row r="333" spans="1:21" ht="12.75">
       <c r="A333" s="28">
         <v>332</v>
       </c>
@@ -18668,7 +18737,7 @@
       <c r="T333" s="12"/>
       <c r="U333" s="12"/>
     </row>
-    <row r="334" spans="1:21" ht="13.15">
+    <row r="334" spans="1:21" ht="12.75">
       <c r="A334" s="28">
         <v>333</v>
       </c>
@@ -18711,7 +18780,7 @@
       </c>
       <c r="N334" s="12">
         <f t="shared" si="11"/>
-        <v>318.08625617596658</v>
+        <v>283.72508649999997</v>
       </c>
       <c r="O334" s="11">
         <v>20.5</v>
@@ -18723,7 +18792,7 @@
       <c r="T334" s="12"/>
       <c r="U334" s="12"/>
     </row>
-    <row r="335" spans="1:21" ht="13.15">
+    <row r="335" spans="1:21" ht="12.75">
       <c r="A335" s="28">
         <v>334</v>
       </c>
@@ -18776,7 +18845,7 @@
       <c r="T335" s="12"/>
       <c r="U335" s="12"/>
     </row>
-    <row r="336" spans="1:21" ht="13.15">
+    <row r="336" spans="1:21" ht="12.75">
       <c r="A336" s="28">
         <v>335</v>
       </c>
@@ -18819,7 +18888,7 @@
       </c>
       <c r="N336" s="12">
         <f t="shared" si="11"/>
-        <v>314.15926535897938</v>
+        <v>280.22230765432101</v>
       </c>
       <c r="O336" s="11">
         <v>26.6</v>
@@ -18835,7 +18904,7 @@
       <c r="T336" s="12"/>
       <c r="U336" s="12"/>
     </row>
-    <row r="337" spans="1:21" ht="13.15">
+    <row r="337" spans="1:21" ht="12.75">
       <c r="A337" s="28">
         <v>336</v>
       </c>
@@ -18892,7 +18961,7 @@
       <c r="T337" s="12"/>
       <c r="U337" s="12"/>
     </row>
-    <row r="338" spans="1:21" ht="13.15">
+    <row r="338" spans="1:21" ht="12.75">
       <c r="A338" s="28">
         <v>337</v>
       </c>
@@ -18935,7 +19004,7 @@
       </c>
       <c r="N338" s="12">
         <f t="shared" si="11"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O338" s="11">
         <v>43</v>
@@ -18947,7 +19016,7 @@
       <c r="T338" s="12"/>
       <c r="U338" s="12"/>
     </row>
-    <row r="339" spans="1:21" ht="13.15">
+    <row r="339" spans="1:21" ht="12.75">
       <c r="A339" s="28">
         <v>338</v>
       </c>
@@ -19000,7 +19069,7 @@
       <c r="T339" s="12"/>
       <c r="U339" s="12"/>
     </row>
-    <row r="340" spans="1:21" ht="13.15">
+    <row r="340" spans="1:21" ht="12.75">
       <c r="A340" s="28">
         <v>339</v>
       </c>
@@ -19043,7 +19112,7 @@
       </c>
       <c r="N340" s="12">
         <f t="shared" si="11"/>
-        <v>249.47941660860121</v>
+        <v>222.52947960784311</v>
       </c>
       <c r="O340" s="11">
         <v>44.5</v>
@@ -19055,7 +19124,7 @@
       <c r="T340" s="12"/>
       <c r="U340" s="12"/>
     </row>
-    <row r="341" spans="1:21" ht="13.15">
+    <row r="341" spans="1:21" ht="12.75">
       <c r="A341" s="28">
         <v>340</v>
       </c>
@@ -19108,7 +19177,7 @@
       <c r="T341" s="12"/>
       <c r="U341" s="12"/>
     </row>
-    <row r="342" spans="1:21" ht="13.15">
+    <row r="342" spans="1:21" ht="12.75">
       <c r="A342" s="28">
         <v>341</v>
       </c>
@@ -19151,7 +19220,7 @@
       </c>
       <c r="N342" s="12">
         <f t="shared" si="11"/>
-        <v>247.05728635026531</v>
+        <v>220.36899922330096</v>
       </c>
       <c r="O342" s="11">
         <v>40.6</v>
@@ -19216,7 +19285,7 @@
       <c r="T343" s="12"/>
       <c r="U343" s="12"/>
     </row>
-    <row r="344" spans="1:21" ht="13.15">
+    <row r="344" spans="1:21" ht="12.75">
       <c r="A344" s="28">
         <v>343</v>
       </c>
@@ -19259,7 +19328,7 @@
       </c>
       <c r="N344" s="12">
         <f t="shared" si="11"/>
-        <v>314.15926535897938</v>
+        <v>280.22230765432101</v>
       </c>
       <c r="O344" s="11">
         <v>23</v>
@@ -19271,7 +19340,7 @@
       <c r="T344" s="12"/>
       <c r="U344" s="12"/>
     </row>
-    <row r="345" spans="1:21" ht="13.15">
+    <row r="345" spans="1:21" ht="12.75">
       <c r="A345" s="28">
         <v>344</v>
       </c>
@@ -19324,7 +19393,7 @@
       <c r="T345" s="12"/>
       <c r="U345" s="12"/>
     </row>
-    <row r="346" spans="1:21" ht="13.15">
+    <row r="346" spans="1:21" ht="12.75">
       <c r="A346" s="28">
         <v>345</v>
       </c>
@@ -19367,7 +19436,7 @@
       </c>
       <c r="N346" s="12">
         <f t="shared" si="11"/>
-        <v>334.82763807996486</v>
+        <v>298.65798578947368</v>
       </c>
       <c r="O346" s="11">
         <v>22.2</v>
@@ -19379,7 +19448,7 @@
       <c r="T346" s="12"/>
       <c r="U346" s="12"/>
     </row>
-    <row r="347" spans="1:21" ht="13.15">
+    <row r="347" spans="1:21" ht="12.75">
       <c r="A347" s="28">
         <v>346</v>
       </c>
@@ -19432,7 +19501,7 @@
       <c r="T347" s="12"/>
       <c r="U347" s="12"/>
     </row>
-    <row r="348" spans="1:21" ht="13.15">
+    <row r="348" spans="1:21" ht="12.75">
       <c r="A348" s="28">
         <v>347</v>
       </c>
@@ -19475,7 +19544,7 @@
       </c>
       <c r="N348" s="12">
         <f t="shared" si="11"/>
-        <v>314.15926535897938</v>
+        <v>280.22230765432101</v>
       </c>
       <c r="O348" s="11">
         <v>22.6</v>
@@ -19487,7 +19556,7 @@
       <c r="T348" s="12"/>
       <c r="U348" s="12"/>
     </row>
-    <row r="349" spans="1:21" ht="13.15">
+    <row r="349" spans="1:21" ht="12.75">
       <c r="A349" s="28">
         <v>348</v>
       </c>
@@ -19540,7 +19609,7 @@
       <c r="T349" s="12"/>
       <c r="U349" s="12"/>
     </row>
-    <row r="350" spans="1:21" ht="13.15">
+    <row r="350" spans="1:21" ht="12.75">
       <c r="A350" s="28">
         <v>349</v>
       </c>
@@ -19583,7 +19652,7 @@
       </c>
       <c r="N350" s="12">
         <f t="shared" si="11"/>
-        <v>282.74333882308144</v>
+        <v>252.2000768888889</v>
       </c>
       <c r="O350" s="11">
         <v>36.6</v>
@@ -19648,7 +19717,7 @@
       <c r="T351" s="12"/>
       <c r="U351" s="12"/>
     </row>
-    <row r="352" spans="1:21" ht="13.15">
+    <row r="352" spans="1:21" ht="12.75">
       <c r="A352" s="28">
         <v>351</v>
       </c>
@@ -19691,7 +19760,7 @@
       </c>
       <c r="N352" s="12">
         <f t="shared" si="11"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O352" s="11">
         <v>37.1</v>
@@ -19756,7 +19825,7 @@
       <c r="T353" s="12"/>
       <c r="U353" s="12"/>
     </row>
-    <row r="354" spans="1:21" ht="13.15">
+    <row r="354" spans="1:21" ht="12.75">
       <c r="A354" s="28">
         <v>353</v>
       </c>
@@ -19799,7 +19868,7 @@
       </c>
       <c r="N354" s="12">
         <f t="shared" si="11"/>
-        <v>282.74333882308144</v>
+        <v>252.2000768888889</v>
       </c>
       <c r="O354" s="11">
         <v>41.7</v>
@@ -19811,7 +19880,7 @@
       <c r="T354" s="12"/>
       <c r="U354" s="12"/>
     </row>
-    <row r="355" spans="1:21" ht="13.15">
+    <row r="355" spans="1:21" ht="12.75">
       <c r="A355" s="28">
         <v>354</v>
       </c>
@@ -19864,7 +19933,7 @@
       <c r="T355" s="12"/>
       <c r="U355" s="12"/>
     </row>
-    <row r="356" spans="1:21" ht="13.15">
+    <row r="356" spans="1:21" ht="12.75">
       <c r="A356" s="28">
         <v>355</v>
       </c>
@@ -19907,7 +19976,7 @@
       </c>
       <c r="N356" s="12">
         <f t="shared" si="11"/>
-        <v>295.89419179159682</v>
+        <v>263.93031302325579</v>
       </c>
       <c r="O356" s="11">
         <v>33</v>
@@ -19919,7 +19988,7 @@
       <c r="T356" s="12"/>
       <c r="U356" s="12"/>
     </row>
-    <row r="357" spans="1:21" ht="13.15">
+    <row r="357" spans="1:21" ht="12.75">
       <c r="A357" s="28">
         <v>356</v>
       </c>
@@ -19972,7 +20041,7 @@
       <c r="T357" s="12"/>
       <c r="U357" s="12"/>
     </row>
-    <row r="358" spans="1:21" ht="13.15">
+    <row r="358" spans="1:21" ht="12.75">
       <c r="A358" s="28">
         <v>357</v>
       </c>
@@ -20015,7 +20084,7 @@
       </c>
       <c r="N358" s="12">
         <f t="shared" si="11"/>
-        <v>251.94950984234978</v>
+        <v>224.73274178217824</v>
       </c>
       <c r="O358" s="11">
         <v>41.1</v>
@@ -20027,7 +20096,7 @@
       <c r="T358" s="12"/>
       <c r="U358" s="12"/>
     </row>
-    <row r="359" spans="1:21" ht="13.15">
+    <row r="359" spans="1:21" ht="12.75">
       <c r="A359" s="28">
         <v>358</v>
       </c>
@@ -20080,7 +20149,7 @@
       <c r="T359" s="12"/>
       <c r="U359" s="12"/>
     </row>
-    <row r="360" spans="1:21" ht="13.15">
+    <row r="360" spans="1:21" ht="12.75">
       <c r="A360" s="28">
         <v>359</v>
       </c>
@@ -20133,7 +20202,7 @@
       <c r="T360" s="12"/>
       <c r="U360" s="12"/>
     </row>
-    <row r="361" spans="1:21" ht="13.15">
+    <row r="361" spans="1:21" ht="12.75">
       <c r="A361" s="28">
         <v>360</v>
       </c>
@@ -20186,7 +20255,7 @@
       <c r="T361" s="12"/>
       <c r="U361" s="12"/>
     </row>
-    <row r="362" spans="1:21" ht="13.15">
+    <row r="362" spans="1:21" ht="12.75">
       <c r="A362" s="28">
         <v>361</v>
       </c>
@@ -20229,7 +20298,7 @@
       </c>
       <c r="N362" s="12">
         <f t="shared" si="11"/>
-        <v>267.86211046397187</v>
+        <v>238.92638863157896</v>
       </c>
       <c r="O362" s="11">
         <v>24.1</v>
@@ -20241,7 +20310,7 @@
       <c r="T362" s="12"/>
       <c r="U362" s="12"/>
     </row>
-    <row r="363" spans="1:21" ht="13.15">
+    <row r="363" spans="1:21" ht="12.75">
       <c r="A363" s="28">
         <v>362</v>
       </c>
@@ -20294,7 +20363,7 @@
       <c r="T363" s="12"/>
       <c r="U363" s="12"/>
     </row>
-    <row r="364" spans="1:21" ht="13.15">
+    <row r="364" spans="1:21" ht="12.75">
       <c r="A364" s="28">
         <v>363</v>
       </c>
@@ -20337,7 +20406,7 @@
       </c>
       <c r="N364" s="12">
         <f t="shared" si="11"/>
-        <v>249.47941660860121</v>
+        <v>222.52947960784311</v>
       </c>
       <c r="O364" s="11">
         <v>31.9</v>
@@ -20349,7 +20418,7 @@
       <c r="T364" s="12"/>
       <c r="U364" s="12"/>
     </row>
-    <row r="365" spans="1:21" ht="13.15">
+    <row r="365" spans="1:21" ht="12.75">
       <c r="A365" s="28">
         <v>364</v>
       </c>
@@ -20402,7 +20471,7 @@
       <c r="T365" s="12"/>
       <c r="U365" s="12"/>
     </row>
-    <row r="366" spans="1:21" ht="13.15">
+    <row r="366" spans="1:21" ht="12.75">
       <c r="A366" s="28">
         <v>365</v>
       </c>
@@ -20445,7 +20514,7 @@
       </c>
       <c r="N366" s="12">
         <f t="shared" si="11"/>
-        <v>237.82149994464794</v>
+        <v>212.13090579439253</v>
       </c>
       <c r="O366" s="11">
         <v>30.2</v>
@@ -20461,7 +20530,7 @@
       <c r="T366" s="12"/>
       <c r="U366" s="12"/>
     </row>
-    <row r="367" spans="1:21" ht="13.15">
+    <row r="367" spans="1:21" ht="12.75">
       <c r="A367" s="28">
         <v>366</v>
       </c>
@@ -20518,7 +20587,7 @@
       <c r="T367" s="12"/>
       <c r="U367" s="12"/>
     </row>
-    <row r="368" spans="1:21" ht="13.15">
+    <row r="368" spans="1:21" ht="12.75">
       <c r="A368" s="28">
         <v>367</v>
       </c>
@@ -20561,7 +20630,7 @@
       </c>
       <c r="N368" s="12">
         <f t="shared" si="11"/>
-        <v>334.82763807996486</v>
+        <v>298.65798578947368</v>
       </c>
       <c r="O368" s="11">
         <v>29.4</v>
@@ -20573,7 +20642,7 @@
       <c r="T368" s="12"/>
       <c r="U368" s="12"/>
     </row>
-    <row r="369" spans="1:21" ht="13.15">
+    <row r="369" spans="1:21" ht="12.75">
       <c r="A369" s="28">
         <v>368</v>
       </c>
@@ -20626,7 +20695,7 @@
       <c r="T369" s="12"/>
       <c r="U369" s="12"/>
     </row>
-    <row r="370" spans="1:21" ht="13.15">
+    <row r="370" spans="1:21" ht="12.75">
       <c r="A370" s="28">
         <v>369</v>
       </c>
@@ -20669,7 +20738,7 @@
       </c>
       <c r="N370" s="12">
         <f t="shared" si="11"/>
-        <v>302.93929159615868</v>
+        <v>270.21436809523811</v>
       </c>
       <c r="O370" s="11">
         <v>33.799999999999997</v>
@@ -20681,7 +20750,7 @@
       <c r="T370" s="12"/>
       <c r="U370" s="12"/>
     </row>
-    <row r="371" spans="1:21" ht="13.15">
+    <row r="371" spans="1:21" ht="12.75">
       <c r="A371" s="28">
         <v>370</v>
       </c>
@@ -20734,7 +20803,7 @@
       <c r="T371" s="12"/>
       <c r="U371" s="12"/>
     </row>
-    <row r="372" spans="1:21" ht="13.15">
+    <row r="372" spans="1:21" ht="12.75">
       <c r="A372" s="28">
         <v>371</v>
       </c>
@@ -20777,7 +20846,7 @@
       </c>
       <c r="N372" s="12">
         <f t="shared" si="11"/>
-        <v>343.87703370374766</v>
+        <v>306.72982324324323</v>
       </c>
       <c r="O372" s="11">
         <v>31.8</v>
@@ -20789,7 +20858,7 @@
       <c r="T372" s="12"/>
       <c r="U372" s="12"/>
     </row>
-    <row r="373" spans="1:21" ht="13.15">
+    <row r="373" spans="1:21" ht="12.75">
       <c r="A373" s="28">
         <v>372</v>
       </c>
@@ -20842,7 +20911,7 @@
       <c r="T373" s="12"/>
       <c r="U373" s="12"/>
     </row>
-    <row r="374" spans="1:21" ht="13.15">
+    <row r="374" spans="1:21" ht="12.75">
       <c r="A374" s="28">
         <v>373</v>
       </c>
@@ -20885,7 +20954,7 @@
       </c>
       <c r="N374" s="12">
         <f t="shared" si="11"/>
-        <v>417.16230318159552</v>
+        <v>372.09847409836061</v>
       </c>
       <c r="O374" s="11">
         <v>26</v>
@@ -20897,7 +20966,7 @@
       <c r="T374" s="12"/>
       <c r="U374" s="12"/>
     </row>
-    <row r="375" spans="1:21" ht="13.15">
+    <row r="375" spans="1:21" ht="12.75">
       <c r="A375" s="28">
         <v>374</v>
       </c>
@@ -20950,7 +21019,7 @@
       <c r="T375" s="12"/>
       <c r="U375" s="12"/>
     </row>
-    <row r="376" spans="1:21" ht="13.15">
+    <row r="376" spans="1:21" ht="12.75">
       <c r="A376" s="28">
         <v>375</v>
       </c>
@@ -20993,7 +21062,7 @@
       </c>
       <c r="N376" s="12">
         <f t="shared" si="11"/>
-        <v>339.2920065876977</v>
+        <v>302.64009226666667</v>
       </c>
       <c r="O376" s="11">
         <v>34.799999999999997</v>
@@ -21005,7 +21074,7 @@
       <c r="T376" s="12"/>
       <c r="U376" s="12"/>
     </row>
-    <row r="377" spans="1:21" ht="13.15">
+    <row r="377" spans="1:21" ht="12.75">
       <c r="A377" s="28">
         <v>376</v>
       </c>
@@ -21058,7 +21127,7 @@
       <c r="T377" s="12"/>
       <c r="U377" s="12"/>
     </row>
-    <row r="378" spans="1:21" ht="13.15">
+    <row r="378" spans="1:21" ht="12.75">
       <c r="A378" s="28">
         <v>377</v>
       </c>
@@ -21101,7 +21170,7 @@
       </c>
       <c r="N378" s="12">
         <f t="shared" si="11"/>
-        <v>339.2920065876977</v>
+        <v>302.64009226666667</v>
       </c>
       <c r="O378" s="11">
         <v>35.5</v>
@@ -21113,7 +21182,7 @@
       <c r="T378" s="12"/>
       <c r="U378" s="12"/>
     </row>
-    <row r="379" spans="1:21" ht="13.15">
+    <row r="379" spans="1:21" ht="12.75">
       <c r="A379" s="28">
         <v>378</v>
       </c>
@@ -21166,7 +21235,7 @@
       <c r="T379" s="12"/>
       <c r="U379" s="12"/>
     </row>
-    <row r="380" spans="1:21" ht="13.15">
+    <row r="380" spans="1:21" ht="12.75">
       <c r="A380" s="28">
         <v>379</v>
       </c>
@@ -21209,7 +21278,7 @@
       </c>
       <c r="N380" s="12">
         <f t="shared" si="11"/>
-        <v>229.25135580249844</v>
+        <v>204.48654882882883</v>
       </c>
       <c r="O380" s="11">
         <v>33</v>
@@ -21274,7 +21343,7 @@
       <c r="T381" s="12"/>
       <c r="U381" s="12"/>
     </row>
-    <row r="382" spans="1:21" ht="13.15">
+    <row r="382" spans="1:21" ht="12.75">
       <c r="A382" s="28">
         <v>381</v>
       </c>
@@ -21317,7 +21386,7 @@
       </c>
       <c r="N382" s="12">
         <f t="shared" si="11"/>
-        <v>205.21693946836555</v>
+        <v>183.0484429032258</v>
       </c>
       <c r="O382" s="11">
         <v>31.5</v>
@@ -21329,7 +21398,7 @@
       <c r="T382" s="12"/>
       <c r="U382" s="12"/>
     </row>
-    <row r="383" spans="1:21" ht="13.15">
+    <row r="383" spans="1:21" ht="12.75">
       <c r="A383" s="28">
         <v>382</v>
       </c>
@@ -21382,7 +21451,7 @@
       <c r="T383" s="12"/>
       <c r="U383" s="12"/>
     </row>
-    <row r="384" spans="1:21" ht="13.15">
+    <row r="384" spans="1:21" ht="12.75">
       <c r="A384" s="28">
         <v>383</v>
       </c>
@@ -21425,7 +21494,7 @@
       </c>
       <c r="N384" s="12">
         <f t="shared" si="11"/>
-        <v>210.30496276096966</v>
+        <v>187.58683404958677</v>
       </c>
       <c r="O384" s="11">
         <v>33.4</v>
@@ -21490,7 +21559,7 @@
       <c r="T385" s="12"/>
       <c r="U385" s="12"/>
     </row>
-    <row r="386" spans="1:21" ht="13.15">
+    <row r="386" spans="1:21" ht="12.75">
       <c r="A386" s="28">
         <v>385</v>
       </c>
@@ -21532,8 +21601,8 @@
         <v>59.333333333333329</v>
       </c>
       <c r="N386" s="12">
-        <f t="shared" ref="N386:N421" si="13">IF(L386&gt;0,((1.8/2)^2*PI())/L386,"")</f>
-        <v>208.58115159079776</v>
+        <f t="shared" si="11"/>
+        <v>186.04923704918031</v>
       </c>
       <c r="O386" s="11">
         <v>27</v>
@@ -21545,7 +21614,7 @@
       <c r="T386" s="12"/>
       <c r="U386" s="12"/>
     </row>
-    <row r="387" spans="1:21" ht="13.15">
+    <row r="387" spans="1:21" ht="12.75">
       <c r="A387" s="28">
         <v>386</v>
       </c>
@@ -21585,7 +21654,7 @@
         <v/>
       </c>
       <c r="N387" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N387:N421" si="13">IF(L387&gt;0,2.269800692/L387,"")</f>
         <v/>
       </c>
       <c r="O387" s="11">
@@ -21598,7 +21667,7 @@
       <c r="T387" s="12"/>
       <c r="U387" s="12"/>
     </row>
-    <row r="388" spans="1:21" ht="13.15">
+    <row r="388" spans="1:21" ht="12.75">
       <c r="A388" s="28">
         <v>387</v>
       </c>
@@ -21641,7 +21710,7 @@
       </c>
       <c r="N388" s="12">
         <f t="shared" si="13"/>
-        <v>242.35143327692691</v>
+        <v>216.17149447619047</v>
       </c>
       <c r="O388" s="11">
         <v>31.9</v>
@@ -21653,7 +21722,7 @@
       <c r="T388" s="12"/>
       <c r="U388" s="12"/>
     </row>
-    <row r="389" spans="1:21" ht="13.15">
+    <row r="389" spans="1:21" ht="12.75">
       <c r="A389" s="28">
         <v>388</v>
       </c>
@@ -21706,7 +21775,7 @@
       <c r="T389" s="12"/>
       <c r="U389" s="12"/>
     </row>
-    <row r="390" spans="1:21" ht="13.15">
+    <row r="390" spans="1:21" ht="12.75">
       <c r="A390" s="28">
         <v>389</v>
       </c>
@@ -21749,7 +21818,7 @@
       </c>
       <c r="N390" s="12">
         <f t="shared" si="13"/>
-        <v>203.57520395261861</v>
+        <v>181.58405535999998</v>
       </c>
       <c r="O390" s="11">
         <v>25.3</v>
@@ -21761,7 +21830,7 @@
       <c r="T390" s="12"/>
       <c r="U390" s="12"/>
     </row>
-    <row r="391" spans="1:21" ht="13.15">
+    <row r="391" spans="1:21" ht="12.75">
       <c r="A391" s="28">
         <v>390</v>
       </c>
@@ -21814,7 +21883,7 @@
       <c r="T391" s="12"/>
       <c r="U391" s="12"/>
     </row>
-    <row r="392" spans="1:21" ht="13.15">
+    <row r="392" spans="1:21" ht="12.75">
       <c r="A392" s="28">
         <v>391</v>
       </c>
@@ -21857,7 +21926,7 @@
       </c>
       <c r="N392" s="12">
         <f t="shared" si="13"/>
-        <v>192.7795491975555</v>
+        <v>171.95459787878789</v>
       </c>
       <c r="O392" s="11">
         <v>46</v>
@@ -21869,7 +21938,7 @@
       <c r="T392" s="12"/>
       <c r="U392" s="12"/>
     </row>
-    <row r="393" spans="1:21" ht="13.15">
+    <row r="393" spans="1:21" ht="12.75">
       <c r="A393" s="28">
         <v>392</v>
       </c>
@@ -21922,7 +21991,7 @@
       <c r="T393" s="12"/>
       <c r="U393" s="12"/>
     </row>
-    <row r="394" spans="1:21" ht="13.15">
+    <row r="394" spans="1:21" ht="12.75">
       <c r="A394" s="28">
         <v>393</v>
       </c>
@@ -21965,7 +22034,7 @@
       </c>
       <c r="N394" s="12">
         <f t="shared" si="13"/>
-        <v>188.4955592153876</v>
+        <v>168.13338459259259</v>
       </c>
       <c r="O394" s="11">
         <v>47.9</v>
@@ -21977,7 +22046,7 @@
       <c r="T394" s="12"/>
       <c r="U394" s="12"/>
     </row>
-    <row r="395" spans="1:21" ht="13.15">
+    <row r="395" spans="1:21" ht="12.75">
       <c r="A395" s="28">
         <v>394</v>
       </c>
@@ -22030,7 +22099,7 @@
       <c r="T395" s="12"/>
       <c r="U395" s="12"/>
     </row>
-    <row r="396" spans="1:21" ht="13.15">
+    <row r="396" spans="1:21" ht="12.75">
       <c r="A396" s="28">
         <v>395</v>
       </c>
@@ -22073,7 +22142,7 @@
       </c>
       <c r="N396" s="12">
         <f t="shared" si="13"/>
-        <v>187.10956245645093</v>
+        <v>166.89710970588237</v>
       </c>
       <c r="O396" s="11">
         <v>50</v>
@@ -22089,7 +22158,7 @@
       <c r="T396" s="12"/>
       <c r="U396" s="12"/>
     </row>
-    <row r="397" spans="1:21" ht="13.15">
+    <row r="397" spans="1:21" ht="12.75">
       <c r="A397" s="28">
         <v>396</v>
       </c>
@@ -22146,7 +22215,7 @@
       <c r="T397" s="12"/>
       <c r="U397" s="12"/>
     </row>
-    <row r="398" spans="1:21" ht="13.15">
+    <row r="398" spans="1:21" ht="12.75">
       <c r="A398" s="28">
         <v>397</v>
       </c>
@@ -22189,7 +22258,7 @@
       </c>
       <c r="N398" s="12">
         <f t="shared" si="13"/>
-        <v>231.33545903706661</v>
+        <v>206.34551745454547</v>
       </c>
       <c r="O398" s="11">
         <v>46.8</v>
@@ -22201,7 +22270,7 @@
       <c r="T398" s="12"/>
       <c r="U398" s="12"/>
     </row>
-    <row r="399" spans="1:21" ht="13.15">
+    <row r="399" spans="1:21" ht="12.75">
       <c r="A399" s="28">
         <v>398</v>
       </c>
@@ -22254,7 +22323,7 @@
       <c r="T399" s="12"/>
       <c r="U399" s="12"/>
     </row>
-    <row r="400" spans="1:21" ht="13.15">
+    <row r="400" spans="1:21" ht="12.75">
       <c r="A400" s="28">
         <v>399</v>
       </c>
@@ -22297,7 +22366,7 @@
       </c>
       <c r="N400" s="12">
         <f t="shared" si="13"/>
-        <v>139.81813458284245</v>
+        <v>124.71432373626374</v>
       </c>
       <c r="O400" s="11">
         <v>50.3</v>
@@ -22309,7 +22378,7 @@
       <c r="T400" s="12"/>
       <c r="U400" s="12"/>
     </row>
-    <row r="401" spans="1:21" ht="13.15">
+    <row r="401" spans="1:21" ht="12.75">
       <c r="A401" s="28">
         <v>400</v>
       </c>
@@ -22362,7 +22431,7 @@
       <c r="T401" s="12"/>
       <c r="U401" s="12"/>
     </row>
-    <row r="402" spans="1:21" ht="13.15">
+    <row r="402" spans="1:21" ht="12.75">
       <c r="A402" s="28">
         <v>401</v>
       </c>
@@ -22405,7 +22474,7 @@
       </c>
       <c r="N402" s="12">
         <f t="shared" si="13"/>
-        <v>240.0650990007295</v>
+        <v>214.13214075471697</v>
       </c>
       <c r="O402" s="11">
         <v>52.7</v>
@@ -22417,7 +22486,7 @@
       <c r="T402" s="12"/>
       <c r="U402" s="12"/>
     </row>
-    <row r="403" spans="1:21" ht="13.15">
+    <row r="403" spans="1:21" ht="12.75">
       <c r="A403" s="28">
         <v>402</v>
       </c>
@@ -22470,7 +22539,7 @@
       <c r="T403" s="12"/>
       <c r="U403" s="12"/>
     </row>
-    <row r="404" spans="1:21" ht="13.15">
+    <row r="404" spans="1:21" ht="12.75">
       <c r="A404" s="28">
         <v>403</v>
       </c>
@@ -22513,7 +22582,7 @@
       </c>
       <c r="N404" s="12">
         <f t="shared" si="13"/>
-        <v>244.6817355199743</v>
+        <v>218.25006653846154</v>
       </c>
       <c r="O404" s="11">
         <v>35.4</v>
@@ -22525,7 +22594,7 @@
       <c r="T404" s="12"/>
       <c r="U404" s="12"/>
     </row>
-    <row r="405" spans="1:21" ht="13.15">
+    <row r="405" spans="1:21" ht="12.75">
       <c r="A405" s="28">
         <v>404</v>
       </c>
@@ -22578,7 +22647,7 @@
       <c r="T405" s="12"/>
       <c r="U405" s="12"/>
     </row>
-    <row r="406" spans="1:21" ht="13.15">
+    <row r="406" spans="1:21" ht="12.75">
       <c r="A406" s="28">
         <v>405</v>
       </c>
@@ -22621,7 +22690,7 @@
       </c>
       <c r="N406" s="12">
         <f t="shared" si="13"/>
-        <v>147.09191037038917</v>
+        <v>131.20235213872832</v>
       </c>
       <c r="O406" s="11">
         <v>53.9</v>
@@ -22633,7 +22702,7 @@
       <c r="T406" s="12"/>
       <c r="U406" s="12"/>
     </row>
-    <row r="407" spans="1:21" ht="13.15">
+    <row r="407" spans="1:21" ht="12.75">
       <c r="A407" s="28">
         <v>406</v>
       </c>
@@ -22686,7 +22755,7 @@
       <c r="T407" s="12"/>
       <c r="U407" s="12"/>
     </row>
-    <row r="408" spans="1:21" ht="13.15">
+    <row r="408" spans="1:21" ht="12.75">
       <c r="A408" s="28">
         <v>407</v>
       </c>
@@ -22729,7 +22798,7 @@
       </c>
       <c r="N408" s="12">
         <f t="shared" si="13"/>
-        <v>189.90224249311439</v>
+        <v>169.38811134328358</v>
       </c>
       <c r="O408" s="11">
         <v>52.2</v>
@@ -22741,7 +22810,7 @@
       <c r="T408" s="12"/>
       <c r="U408" s="12"/>
     </row>
-    <row r="409" spans="1:21" ht="13.15">
+    <row r="409" spans="1:21" ht="12.75">
       <c r="A409" s="28">
         <v>408</v>
       </c>
@@ -22794,7 +22863,7 @@
       <c r="T409" s="12"/>
       <c r="U409" s="12"/>
     </row>
-    <row r="410" spans="1:21" ht="13.15">
+    <row r="410" spans="1:21" ht="12.75">
       <c r="A410" s="28">
         <v>409</v>
       </c>
@@ -22837,7 +22906,7 @@
       </c>
       <c r="N410" s="12">
         <f t="shared" si="13"/>
-        <v>210.30496276096966</v>
+        <v>187.58683404958677</v>
       </c>
       <c r="O410" s="11">
         <v>46</v>
@@ -22849,7 +22918,7 @@
       <c r="T410" s="12"/>
       <c r="U410" s="12"/>
     </row>
-    <row r="411" spans="1:21" ht="13.15">
+    <row r="411" spans="1:21" ht="12.75">
       <c r="A411" s="28">
         <v>410</v>
       </c>
@@ -22902,7 +22971,7 @@
       <c r="T411" s="12"/>
       <c r="U411" s="12"/>
     </row>
-    <row r="412" spans="1:21" ht="13.15">
+    <row r="412" spans="1:21" ht="12.75">
       <c r="A412" s="28">
         <v>411</v>
       </c>
@@ -22945,7 +23014,7 @@
       </c>
       <c r="N412" s="12">
         <f t="shared" si="13"/>
-        <v>240.0650990007295</v>
+        <v>214.13214075471697</v>
       </c>
       <c r="O412" s="11">
         <v>40.700000000000003</v>
@@ -22957,7 +23026,7 @@
       <c r="T412" s="12"/>
       <c r="U412" s="12"/>
     </row>
-    <row r="413" spans="1:21" ht="13.15">
+    <row r="413" spans="1:21" ht="12.75">
       <c r="A413" s="28">
         <v>412</v>
       </c>
@@ -23010,7 +23079,7 @@
       <c r="T413" s="12"/>
       <c r="U413" s="12"/>
     </row>
-    <row r="414" spans="1:21" ht="13.15">
+    <row r="414" spans="1:21" ht="12.75">
       <c r="A414" s="28">
         <v>413</v>
       </c>
@@ -23053,7 +23122,7 @@
       </c>
       <c r="N414" s="12">
         <f t="shared" si="13"/>
-        <v>244.6817355199743</v>
+        <v>218.25006653846154</v>
       </c>
       <c r="O414" s="11">
         <v>53.5</v>
@@ -23065,7 +23134,7 @@
       <c r="T414" s="12"/>
       <c r="U414" s="12"/>
     </row>
-    <row r="415" spans="1:21" ht="13.15">
+    <row r="415" spans="1:21" ht="12.75">
       <c r="A415" s="28">
         <v>414</v>
       </c>
@@ -23118,7 +23187,7 @@
       <c r="T415" s="12"/>
       <c r="U415" s="12"/>
     </row>
-    <row r="416" spans="1:21" ht="13.15">
+    <row r="416" spans="1:21" ht="12.75">
       <c r="A416" s="28">
         <v>415</v>
       </c>
@@ -23161,7 +23230,7 @@
       </c>
       <c r="N416" s="12">
         <f t="shared" si="13"/>
-        <v>229.25135580249844</v>
+        <v>204.48654882882883</v>
       </c>
       <c r="O416" s="11">
         <v>41.4</v>
@@ -23173,7 +23242,7 @@
       <c r="T416" s="12"/>
       <c r="U416" s="12"/>
     </row>
-    <row r="417" spans="1:21" ht="13.15">
+    <row r="417" spans="1:21" ht="12.75">
       <c r="A417" s="28">
         <v>416</v>
       </c>
@@ -23226,7 +23295,7 @@
       <c r="T417" s="12"/>
       <c r="U417" s="12"/>
     </row>
-    <row r="418" spans="1:21" ht="13.15">
+    <row r="418" spans="1:21" ht="12.75">
       <c r="A418" s="28">
         <v>417</v>
       </c>
@@ -23269,7 +23338,7 @@
       </c>
       <c r="N418" s="12">
         <f t="shared" si="13"/>
-        <v>159.04312808798329</v>
+        <v>141.86254324999999</v>
       </c>
       <c r="O418" s="11">
         <v>62.6</v>
@@ -23281,7 +23350,7 @@
       <c r="T418" s="12"/>
       <c r="U418" s="12"/>
     </row>
-    <row r="419" spans="1:21" ht="13.15">
+    <row r="419" spans="1:21" ht="12.75">
       <c r="A419" s="28">
         <v>418</v>
       </c>
@@ -23334,7 +23403,7 @@
       <c r="T419" s="12"/>
       <c r="U419" s="12"/>
     </row>
-    <row r="420" spans="1:21" ht="13.15">
+    <row r="420" spans="1:21" ht="12.75">
       <c r="A420" s="28">
         <v>419</v>
       </c>
@@ -23377,7 +23446,7 @@
       </c>
       <c r="N420" s="12">
         <f t="shared" si="13"/>
-        <v>154.22363935804441</v>
+        <v>137.56367830303029</v>
       </c>
       <c r="O420" s="11">
         <v>63.4</v>
@@ -23389,7 +23458,7 @@
       <c r="T420" s="12"/>
       <c r="U420" s="12"/>
     </row>
-    <row r="421" spans="1:21" ht="13.15">
+    <row r="421" spans="1:21" ht="12.75">
       <c r="A421" s="28">
         <v>420</v>
       </c>
@@ -23442,1253 +23511,1253 @@
       <c r="T421" s="12"/>
       <c r="U421" s="12"/>
     </row>
-    <row r="422" spans="1:21" ht="13.15">
+    <row r="422" spans="1:21" ht="12.75">
       <c r="G422" s="30"/>
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
     </row>
-    <row r="423" spans="1:21" ht="13.15">
+    <row r="423" spans="1:21" ht="12.75">
       <c r="G423" s="30"/>
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
     </row>
-    <row r="424" spans="1:21" ht="13.15">
+    <row r="424" spans="1:21" ht="12.75">
       <c r="G424" s="30"/>
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
     </row>
-    <row r="425" spans="1:21" ht="13.15">
+    <row r="425" spans="1:21" ht="12.75">
       <c r="G425" s="30"/>
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
     </row>
-    <row r="426" spans="1:21" ht="13.15">
+    <row r="426" spans="1:21" ht="12.75">
       <c r="G426" s="30"/>
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
     </row>
-    <row r="427" spans="1:21" ht="13.15">
+    <row r="427" spans="1:21" ht="12.75">
       <c r="G427" s="30"/>
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
     </row>
-    <row r="428" spans="1:21" ht="13.15">
+    <row r="428" spans="1:21" ht="12.75">
       <c r="G428" s="30"/>
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
     </row>
-    <row r="429" spans="1:21" ht="13.15">
+    <row r="429" spans="1:21" ht="12.75">
       <c r="G429" s="30"/>
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
     </row>
-    <row r="430" spans="1:21" ht="13.15">
+    <row r="430" spans="1:21" ht="12.75">
       <c r="G430" s="30"/>
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
     </row>
-    <row r="431" spans="1:21" ht="13.15">
+    <row r="431" spans="1:21" ht="12.75">
       <c r="G431" s="30"/>
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
     </row>
-    <row r="432" spans="1:21" ht="13.15">
+    <row r="432" spans="1:21" ht="12.75">
       <c r="G432" s="30"/>
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
     </row>
-    <row r="433" spans="7:13" ht="13.15">
+    <row r="433" spans="7:13" ht="12.75">
       <c r="G433" s="30"/>
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
     </row>
-    <row r="434" spans="7:13" ht="13.15">
+    <row r="434" spans="7:13" ht="12.75">
       <c r="G434" s="30"/>
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
     </row>
-    <row r="435" spans="7:13" ht="13.15">
+    <row r="435" spans="7:13" ht="12.75">
       <c r="G435" s="30"/>
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
     </row>
-    <row r="436" spans="7:13" ht="13.15">
+    <row r="436" spans="7:13" ht="12.75">
       <c r="G436" s="30"/>
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
     </row>
-    <row r="437" spans="7:13" ht="13.15">
+    <row r="437" spans="7:13" ht="12.75">
       <c r="G437" s="30"/>
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
     </row>
-    <row r="438" spans="7:13" ht="13.15">
+    <row r="438" spans="7:13" ht="12.75">
       <c r="G438" s="30"/>
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
     </row>
-    <row r="439" spans="7:13" ht="13.15">
+    <row r="439" spans="7:13" ht="12.75">
       <c r="G439" s="30"/>
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
     </row>
-    <row r="440" spans="7:13" ht="13.15">
+    <row r="440" spans="7:13" ht="12.75">
       <c r="G440" s="30"/>
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
     </row>
-    <row r="441" spans="7:13" ht="13.15">
+    <row r="441" spans="7:13" ht="12.75">
       <c r="G441" s="30"/>
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
     </row>
-    <row r="442" spans="7:13" ht="13.15">
+    <row r="442" spans="7:13" ht="12.75">
       <c r="G442" s="30"/>
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
     </row>
-    <row r="443" spans="7:13" ht="13.15">
+    <row r="443" spans="7:13" ht="12.75">
       <c r="G443" s="30"/>
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
     </row>
-    <row r="444" spans="7:13" ht="13.15">
+    <row r="444" spans="7:13" ht="12.75">
       <c r="G444" s="30"/>
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
     </row>
-    <row r="445" spans="7:13" ht="13.15">
+    <row r="445" spans="7:13" ht="12.75">
       <c r="G445" s="30"/>
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
     </row>
-    <row r="446" spans="7:13" ht="13.15">
+    <row r="446" spans="7:13" ht="12.75">
       <c r="G446" s="30"/>
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
     </row>
-    <row r="447" spans="7:13" ht="13.15">
+    <row r="447" spans="7:13" ht="12.75">
       <c r="G447" s="30"/>
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
     </row>
-    <row r="448" spans="7:13" ht="13.15">
+    <row r="448" spans="7:13" ht="12.75">
       <c r="G448" s="30"/>
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
     </row>
-    <row r="449" spans="7:13" ht="13.15">
+    <row r="449" spans="7:13" ht="12.75">
       <c r="G449" s="30"/>
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
     </row>
-    <row r="450" spans="7:13" ht="13.15">
+    <row r="450" spans="7:13" ht="12.75">
       <c r="G450" s="30"/>
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
     </row>
-    <row r="451" spans="7:13" ht="13.15">
+    <row r="451" spans="7:13" ht="12.75">
       <c r="G451" s="30"/>
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
     </row>
-    <row r="452" spans="7:13" ht="13.15">
+    <row r="452" spans="7:13" ht="12.75">
       <c r="G452" s="30"/>
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
     </row>
-    <row r="453" spans="7:13" ht="13.15">
+    <row r="453" spans="7:13" ht="12.75">
       <c r="G453" s="30"/>
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
     </row>
-    <row r="454" spans="7:13" ht="13.15">
+    <row r="454" spans="7:13" ht="12.75">
       <c r="G454" s="30"/>
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
     </row>
-    <row r="455" spans="7:13" ht="13.15">
+    <row r="455" spans="7:13" ht="12.75">
       <c r="G455" s="30"/>
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
     </row>
-    <row r="456" spans="7:13" ht="13.15">
+    <row r="456" spans="7:13" ht="12.75">
       <c r="G456" s="30"/>
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
     </row>
-    <row r="457" spans="7:13" ht="13.15">
+    <row r="457" spans="7:13" ht="12.75">
       <c r="G457" s="30"/>
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
     </row>
-    <row r="458" spans="7:13" ht="13.15">
+    <row r="458" spans="7:13" ht="12.75">
       <c r="G458" s="30"/>
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
     </row>
-    <row r="459" spans="7:13" ht="13.15">
+    <row r="459" spans="7:13" ht="12.75">
       <c r="G459" s="30"/>
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
     </row>
-    <row r="460" spans="7:13" ht="13.15">
+    <row r="460" spans="7:13" ht="12.75">
       <c r="G460" s="30"/>
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
     </row>
-    <row r="461" spans="7:13" ht="13.15">
+    <row r="461" spans="7:13" ht="12.75">
       <c r="G461" s="30"/>
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
     </row>
-    <row r="462" spans="7:13" ht="13.15">
+    <row r="462" spans="7:13" ht="12.75">
       <c r="G462" s="30"/>
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
     </row>
-    <row r="463" spans="7:13" ht="13.15">
+    <row r="463" spans="7:13" ht="12.75">
       <c r="G463" s="30"/>
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
     </row>
-    <row r="464" spans="7:13" ht="13.15">
+    <row r="464" spans="7:13" ht="12.75">
       <c r="G464" s="30"/>
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
     </row>
-    <row r="465" spans="7:13" ht="13.15">
+    <row r="465" spans="7:13" ht="12.75">
       <c r="G465" s="30"/>
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
     </row>
-    <row r="466" spans="7:13" ht="13.15">
+    <row r="466" spans="7:13" ht="12.75">
       <c r="G466" s="30"/>
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
     </row>
-    <row r="467" spans="7:13" ht="13.15">
+    <row r="467" spans="7:13" ht="12.75">
       <c r="G467" s="30"/>
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
     </row>
-    <row r="468" spans="7:13" ht="13.15">
+    <row r="468" spans="7:13" ht="12.75">
       <c r="G468" s="30"/>
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
     </row>
-    <row r="469" spans="7:13" ht="13.15">
+    <row r="469" spans="7:13" ht="12.75">
       <c r="G469" s="30"/>
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
     </row>
-    <row r="470" spans="7:13" ht="13.15">
+    <row r="470" spans="7:13" ht="12.75">
       <c r="G470" s="30"/>
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
     </row>
-    <row r="471" spans="7:13" ht="13.15">
+    <row r="471" spans="7:13" ht="12.75">
       <c r="G471" s="30"/>
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
     </row>
-    <row r="472" spans="7:13" ht="13.15">
+    <row r="472" spans="7:13" ht="12.75">
       <c r="G472" s="30"/>
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
     </row>
-    <row r="473" spans="7:13" ht="13.15">
+    <row r="473" spans="7:13" ht="12.75">
       <c r="G473" s="30"/>
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
     </row>
-    <row r="474" spans="7:13" ht="13.15">
+    <row r="474" spans="7:13" ht="12.75">
       <c r="G474" s="30"/>
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
     </row>
-    <row r="475" spans="7:13" ht="13.15">
+    <row r="475" spans="7:13" ht="12.75">
       <c r="G475" s="30"/>
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
     </row>
-    <row r="476" spans="7:13" ht="13.15">
+    <row r="476" spans="7:13" ht="12.75">
       <c r="G476" s="30"/>
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
     </row>
-    <row r="477" spans="7:13" ht="13.15">
+    <row r="477" spans="7:13" ht="12.75">
       <c r="G477" s="30"/>
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
     </row>
-    <row r="478" spans="7:13" ht="13.15">
+    <row r="478" spans="7:13" ht="12.75">
       <c r="G478" s="30"/>
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
     </row>
-    <row r="479" spans="7:13" ht="13.15">
+    <row r="479" spans="7:13" ht="12.75">
       <c r="G479" s="30"/>
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
     </row>
-    <row r="480" spans="7:13" ht="13.15">
+    <row r="480" spans="7:13" ht="12.75">
       <c r="G480" s="30"/>
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
     </row>
-    <row r="481" spans="7:13" ht="13.15">
+    <row r="481" spans="7:13" ht="12.75">
       <c r="G481" s="30"/>
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
     </row>
-    <row r="482" spans="7:13" ht="13.15">
+    <row r="482" spans="7:13" ht="12.75">
       <c r="G482" s="30"/>
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
     </row>
-    <row r="483" spans="7:13" ht="13.15">
+    <row r="483" spans="7:13" ht="12.75">
       <c r="G483" s="30"/>
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
     </row>
-    <row r="484" spans="7:13" ht="13.15">
+    <row r="484" spans="7:13" ht="12.75">
       <c r="G484" s="30"/>
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
     </row>
-    <row r="485" spans="7:13" ht="13.15">
+    <row r="485" spans="7:13" ht="12.75">
       <c r="G485" s="30"/>
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
     </row>
-    <row r="486" spans="7:13" ht="13.15">
+    <row r="486" spans="7:13" ht="12.75">
       <c r="G486" s="30"/>
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
     </row>
-    <row r="487" spans="7:13" ht="13.15">
+    <row r="487" spans="7:13" ht="12.75">
       <c r="G487" s="30"/>
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
     </row>
-    <row r="488" spans="7:13" ht="13.15">
+    <row r="488" spans="7:13" ht="12.75">
       <c r="G488" s="30"/>
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
     </row>
-    <row r="489" spans="7:13" ht="13.15">
+    <row r="489" spans="7:13" ht="12.75">
       <c r="G489" s="30"/>
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
     </row>
-    <row r="490" spans="7:13" ht="13.15">
+    <row r="490" spans="7:13" ht="12.75">
       <c r="G490" s="30"/>
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
     </row>
-    <row r="491" spans="7:13" ht="13.15">
+    <row r="491" spans="7:13" ht="12.75">
       <c r="G491" s="30"/>
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
     </row>
-    <row r="492" spans="7:13" ht="13.15">
+    <row r="492" spans="7:13" ht="12.75">
       <c r="G492" s="30"/>
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
     </row>
-    <row r="493" spans="7:13" ht="13.15">
+    <row r="493" spans="7:13" ht="12.75">
       <c r="G493" s="30"/>
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
     </row>
-    <row r="494" spans="7:13" ht="13.15">
+    <row r="494" spans="7:13" ht="12.75">
       <c r="G494" s="30"/>
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
     </row>
-    <row r="495" spans="7:13" ht="13.15">
+    <row r="495" spans="7:13" ht="12.75">
       <c r="G495" s="30"/>
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
     </row>
-    <row r="496" spans="7:13" ht="13.15">
+    <row r="496" spans="7:13" ht="12.75">
       <c r="G496" s="30"/>
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
     </row>
-    <row r="497" spans="7:13" ht="13.15">
+    <row r="497" spans="7:13" ht="12.75">
       <c r="G497" s="30"/>
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
     </row>
-    <row r="498" spans="7:13" ht="13.15">
+    <row r="498" spans="7:13" ht="12.75">
       <c r="G498" s="30"/>
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
     </row>
-    <row r="499" spans="7:13" ht="13.15">
+    <row r="499" spans="7:13" ht="12.75">
       <c r="G499" s="30"/>
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
     </row>
-    <row r="500" spans="7:13" ht="13.15">
+    <row r="500" spans="7:13" ht="12.75">
       <c r="G500" s="30"/>
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
     </row>
-    <row r="501" spans="7:13" ht="13.15">
+    <row r="501" spans="7:13" ht="12.75">
       <c r="G501" s="30"/>
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
     </row>
-    <row r="502" spans="7:13" ht="13.15">
+    <row r="502" spans="7:13" ht="12.75">
       <c r="G502" s="30"/>
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
     </row>
-    <row r="503" spans="7:13" ht="13.15">
+    <row r="503" spans="7:13" ht="12.75">
       <c r="G503" s="30"/>
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
     </row>
-    <row r="504" spans="7:13" ht="13.15">
+    <row r="504" spans="7:13" ht="12.75">
       <c r="G504" s="30"/>
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
     </row>
-    <row r="505" spans="7:13" ht="13.15">
+    <row r="505" spans="7:13" ht="12.75">
       <c r="G505" s="30"/>
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
     </row>
-    <row r="506" spans="7:13" ht="13.15">
+    <row r="506" spans="7:13" ht="12.75">
       <c r="G506" s="30"/>
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
     </row>
-    <row r="507" spans="7:13" ht="13.15">
+    <row r="507" spans="7:13" ht="12.75">
       <c r="G507" s="30"/>
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
     </row>
-    <row r="508" spans="7:13" ht="13.15">
+    <row r="508" spans="7:13" ht="12.75">
       <c r="G508" s="30"/>
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
     </row>
-    <row r="509" spans="7:13" ht="13.15">
+    <row r="509" spans="7:13" ht="12.75">
       <c r="G509" s="30"/>
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
     </row>
-    <row r="510" spans="7:13" ht="13.15">
+    <row r="510" spans="7:13" ht="12.75">
       <c r="G510" s="30"/>
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
     </row>
-    <row r="511" spans="7:13" ht="13.15">
+    <row r="511" spans="7:13" ht="12.75">
       <c r="G511" s="30"/>
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
     </row>
-    <row r="512" spans="7:13" ht="13.15">
+    <row r="512" spans="7:13" ht="12.75">
       <c r="G512" s="30"/>
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
     </row>
-    <row r="513" spans="7:13" ht="13.15">
+    <row r="513" spans="7:13" ht="12.75">
       <c r="G513" s="30"/>
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
     </row>
-    <row r="514" spans="7:13" ht="13.15">
+    <row r="514" spans="7:13" ht="12.75">
       <c r="G514" s="30"/>
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
     </row>
-    <row r="515" spans="7:13" ht="13.15">
+    <row r="515" spans="7:13" ht="12.75">
       <c r="G515" s="30"/>
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
     </row>
-    <row r="516" spans="7:13" ht="13.15">
+    <row r="516" spans="7:13" ht="12.75">
       <c r="G516" s="30"/>
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
     </row>
-    <row r="517" spans="7:13" ht="13.15">
+    <row r="517" spans="7:13" ht="12.75">
       <c r="G517" s="30"/>
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
     </row>
-    <row r="518" spans="7:13" ht="13.15">
+    <row r="518" spans="7:13" ht="12.75">
       <c r="G518" s="30"/>
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
     </row>
-    <row r="519" spans="7:13" ht="13.15">
+    <row r="519" spans="7:13" ht="12.75">
       <c r="G519" s="30"/>
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
     </row>
-    <row r="520" spans="7:13" ht="13.15">
+    <row r="520" spans="7:13" ht="12.75">
       <c r="G520" s="30"/>
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
     </row>
-    <row r="521" spans="7:13" ht="13.15">
+    <row r="521" spans="7:13" ht="12.75">
       <c r="G521" s="30"/>
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
     </row>
-    <row r="522" spans="7:13" ht="13.15">
+    <row r="522" spans="7:13" ht="12.75">
       <c r="G522" s="30"/>
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
     </row>
-    <row r="523" spans="7:13" ht="13.15">
+    <row r="523" spans="7:13" ht="12.75">
       <c r="G523" s="30"/>
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
     </row>
-    <row r="524" spans="7:13" ht="13.15">
+    <row r="524" spans="7:13" ht="12.75">
       <c r="G524" s="30"/>
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
     </row>
-    <row r="525" spans="7:13" ht="13.15">
+    <row r="525" spans="7:13" ht="12.75">
       <c r="G525" s="30"/>
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
     </row>
-    <row r="526" spans="7:13" ht="13.15">
+    <row r="526" spans="7:13" ht="12.75">
       <c r="G526" s="30"/>
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
     </row>
-    <row r="527" spans="7:13" ht="13.15">
+    <row r="527" spans="7:13" ht="12.75">
       <c r="G527" s="30"/>
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
     </row>
-    <row r="528" spans="7:13" ht="13.15">
+    <row r="528" spans="7:13" ht="12.75">
       <c r="G528" s="30"/>
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
     </row>
-    <row r="529" spans="7:13" ht="13.15">
+    <row r="529" spans="7:13" ht="12.75">
       <c r="G529" s="30"/>
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
     </row>
-    <row r="530" spans="7:13" ht="13.15">
+    <row r="530" spans="7:13" ht="12.75">
       <c r="G530" s="30"/>
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
     </row>
-    <row r="531" spans="7:13" ht="13.15">
+    <row r="531" spans="7:13" ht="12.75">
       <c r="G531" s="30"/>
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
     </row>
-    <row r="532" spans="7:13" ht="13.15">
+    <row r="532" spans="7:13" ht="12.75">
       <c r="G532" s="30"/>
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
     </row>
-    <row r="533" spans="7:13" ht="13.15">
+    <row r="533" spans="7:13" ht="12.75">
       <c r="G533" s="30"/>
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
     </row>
-    <row r="534" spans="7:13" ht="13.15">
+    <row r="534" spans="7:13" ht="12.75">
       <c r="G534" s="30"/>
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
     </row>
-    <row r="535" spans="7:13" ht="13.15">
+    <row r="535" spans="7:13" ht="12.75">
       <c r="G535" s="30"/>
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
     </row>
-    <row r="536" spans="7:13" ht="13.15">
+    <row r="536" spans="7:13" ht="12.75">
       <c r="G536" s="30"/>
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
     </row>
-    <row r="537" spans="7:13" ht="13.15">
+    <row r="537" spans="7:13" ht="12.75">
       <c r="G537" s="30"/>
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
     </row>
-    <row r="538" spans="7:13" ht="13.15">
+    <row r="538" spans="7:13" ht="12.75">
       <c r="G538" s="30"/>
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
     </row>
-    <row r="539" spans="7:13" ht="13.15">
+    <row r="539" spans="7:13" ht="12.75">
       <c r="G539" s="30"/>
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
     </row>
-    <row r="540" spans="7:13" ht="13.15">
+    <row r="540" spans="7:13" ht="12.75">
       <c r="G540" s="30"/>
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
     </row>
-    <row r="541" spans="7:13" ht="13.15">
+    <row r="541" spans="7:13" ht="12.75">
       <c r="G541" s="30"/>
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
     </row>
-    <row r="542" spans="7:13" ht="13.15">
+    <row r="542" spans="7:13" ht="12.75">
       <c r="G542" s="30"/>
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
     </row>
-    <row r="543" spans="7:13" ht="13.15">
+    <row r="543" spans="7:13" ht="12.75">
       <c r="G543" s="30"/>
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
     </row>
-    <row r="544" spans="7:13" ht="13.15">
+    <row r="544" spans="7:13" ht="12.75">
       <c r="G544" s="30"/>
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
     </row>
-    <row r="545" spans="7:13" ht="13.15">
+    <row r="545" spans="7:13" ht="12.75">
       <c r="G545" s="30"/>
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
     </row>
-    <row r="546" spans="7:13" ht="13.15">
+    <row r="546" spans="7:13" ht="12.75">
       <c r="G546" s="30"/>
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
     </row>
-    <row r="547" spans="7:13" ht="13.15">
+    <row r="547" spans="7:13" ht="12.75">
       <c r="G547" s="30"/>
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
     </row>
-    <row r="548" spans="7:13" ht="13.15">
+    <row r="548" spans="7:13" ht="12.75">
       <c r="G548" s="30"/>
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
     </row>
-    <row r="549" spans="7:13" ht="13.15">
+    <row r="549" spans="7:13" ht="12.75">
       <c r="G549" s="30"/>
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
     </row>
-    <row r="550" spans="7:13" ht="13.15">
+    <row r="550" spans="7:13" ht="12.75">
       <c r="G550" s="30"/>
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
     </row>
-    <row r="551" spans="7:13" ht="13.15">
+    <row r="551" spans="7:13" ht="12.75">
       <c r="G551" s="30"/>
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
     </row>
-    <row r="552" spans="7:13" ht="13.15">
+    <row r="552" spans="7:13" ht="12.75">
       <c r="G552" s="30"/>
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
     </row>
-    <row r="553" spans="7:13" ht="13.15">
+    <row r="553" spans="7:13" ht="12.75">
       <c r="G553" s="30"/>
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
     </row>
-    <row r="554" spans="7:13" ht="13.15">
+    <row r="554" spans="7:13" ht="12.75">
       <c r="G554" s="30"/>
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
     </row>
-    <row r="555" spans="7:13" ht="13.15">
+    <row r="555" spans="7:13" ht="12.75">
       <c r="G555" s="30"/>
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
     </row>
-    <row r="556" spans="7:13" ht="13.15">
+    <row r="556" spans="7:13" ht="12.75">
       <c r="G556" s="30"/>
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
     </row>
-    <row r="557" spans="7:13" ht="13.15">
+    <row r="557" spans="7:13" ht="12.75">
       <c r="G557" s="30"/>
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
     </row>
-    <row r="558" spans="7:13" ht="13.15">
+    <row r="558" spans="7:13" ht="12.75">
       <c r="G558" s="30"/>
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
     </row>
-    <row r="559" spans="7:13" ht="13.15">
+    <row r="559" spans="7:13" ht="12.75">
       <c r="G559" s="30"/>
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
     </row>
-    <row r="560" spans="7:13" ht="13.15">
+    <row r="560" spans="7:13" ht="12.75">
       <c r="G560" s="30"/>
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
     </row>
-    <row r="561" spans="7:13" ht="13.15">
+    <row r="561" spans="7:13" ht="12.75">
       <c r="G561" s="30"/>
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
     </row>
-    <row r="562" spans="7:13" ht="13.15">
+    <row r="562" spans="7:13" ht="12.75">
       <c r="G562" s="30"/>
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
     </row>
-    <row r="563" spans="7:13" ht="13.15">
+    <row r="563" spans="7:13" ht="12.75">
       <c r="G563" s="30"/>
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
     </row>
-    <row r="564" spans="7:13" ht="13.15">
+    <row r="564" spans="7:13" ht="12.75">
       <c r="G564" s="30"/>
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
     </row>
-    <row r="565" spans="7:13" ht="13.15">
+    <row r="565" spans="7:13" ht="12.75">
       <c r="G565" s="30"/>
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
     </row>
-    <row r="566" spans="7:13" ht="13.15">
+    <row r="566" spans="7:13" ht="12.75">
       <c r="G566" s="30"/>
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
     </row>
-    <row r="567" spans="7:13" ht="13.15">
+    <row r="567" spans="7:13" ht="12.75">
       <c r="G567" s="30"/>
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
     </row>
-    <row r="568" spans="7:13" ht="13.15">
+    <row r="568" spans="7:13" ht="12.75">
       <c r="G568" s="30"/>
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
     </row>
-    <row r="569" spans="7:13" ht="13.15">
+    <row r="569" spans="7:13" ht="12.75">
       <c r="G569" s="30"/>
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
     </row>
-    <row r="570" spans="7:13" ht="13.15">
+    <row r="570" spans="7:13" ht="12.75">
       <c r="G570" s="30"/>
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
     </row>
-    <row r="571" spans="7:13" ht="13.15">
+    <row r="571" spans="7:13" ht="12.75">
       <c r="G571" s="30"/>
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
     </row>
-    <row r="572" spans="7:13" ht="13.15">
+    <row r="572" spans="7:13" ht="12.75">
       <c r="G572" s="30"/>
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
     </row>
-    <row r="573" spans="7:13" ht="13.15">
+    <row r="573" spans="7:13" ht="12.75">
       <c r="G573" s="30"/>
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
     </row>
-    <row r="574" spans="7:13" ht="13.15">
+    <row r="574" spans="7:13" ht="12.75">
       <c r="G574" s="30"/>
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
     </row>
-    <row r="575" spans="7:13" ht="13.15">
+    <row r="575" spans="7:13" ht="12.75">
       <c r="G575" s="30"/>
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
     </row>
-    <row r="576" spans="7:13" ht="13.15">
+    <row r="576" spans="7:13" ht="12.75">
       <c r="G576" s="30"/>
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
     </row>
-    <row r="577" spans="7:13" ht="13.15">
+    <row r="577" spans="7:13" ht="12.75">
       <c r="G577" s="30"/>
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="7:13" ht="13.15">
+    <row r="578" spans="7:13" ht="12.75">
       <c r="G578" s="30"/>
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
     </row>
-    <row r="579" spans="7:13" ht="13.15">
+    <row r="579" spans="7:13" ht="12.75">
       <c r="G579" s="30"/>
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="7:13" ht="13.15">
+    <row r="580" spans="7:13" ht="12.75">
       <c r="G580" s="30"/>
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
     </row>
-    <row r="581" spans="7:13" ht="13.15">
+    <row r="581" spans="7:13" ht="12.75">
       <c r="G581" s="30"/>
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
     </row>
-    <row r="582" spans="7:13" ht="13.15">
+    <row r="582" spans="7:13" ht="12.75">
       <c r="G582" s="30"/>
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
     </row>
-    <row r="583" spans="7:13" ht="13.15">
+    <row r="583" spans="7:13" ht="12.75">
       <c r="G583" s="30"/>
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
     </row>
-    <row r="584" spans="7:13" ht="13.15">
+    <row r="584" spans="7:13" ht="12.75">
       <c r="G584" s="30"/>
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
     </row>
-    <row r="585" spans="7:13" ht="13.15">
+    <row r="585" spans="7:13" ht="12.75">
       <c r="G585" s="30"/>
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
     </row>
-    <row r="586" spans="7:13" ht="13.15">
+    <row r="586" spans="7:13" ht="12.75">
       <c r="G586" s="30"/>
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
     </row>
-    <row r="587" spans="7:13" ht="13.15">
+    <row r="587" spans="7:13" ht="12.75">
       <c r="G587" s="30"/>
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
     </row>
-    <row r="588" spans="7:13" ht="13.15">
+    <row r="588" spans="7:13" ht="12.75">
       <c r="G588" s="30"/>
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
     </row>
-    <row r="589" spans="7:13" ht="13.15">
+    <row r="589" spans="7:13" ht="12.75">
       <c r="G589" s="30"/>
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
     </row>
-    <row r="590" spans="7:13" ht="13.15">
+    <row r="590" spans="7:13" ht="12.75">
       <c r="G590" s="30"/>
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
     </row>
-    <row r="591" spans="7:13" ht="13.15">
+    <row r="591" spans="7:13" ht="12.75">
       <c r="G591" s="30"/>
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
     </row>
-    <row r="592" spans="7:13" ht="13.15">
+    <row r="592" spans="7:13" ht="12.75">
       <c r="G592" s="30"/>
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
     </row>
-    <row r="593" spans="7:13" ht="13.15">
+    <row r="593" spans="7:13" ht="12.75">
       <c r="G593" s="30"/>
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
     </row>
-    <row r="594" spans="7:13" ht="13.15">
+    <row r="594" spans="7:13" ht="12.75">
       <c r="G594" s="30"/>
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
     </row>
-    <row r="595" spans="7:13" ht="13.15">
+    <row r="595" spans="7:13" ht="12.75">
       <c r="G595" s="30"/>
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
     </row>
-    <row r="596" spans="7:13" ht="13.15">
+    <row r="596" spans="7:13" ht="12.75">
       <c r="G596" s="30"/>
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
     </row>
-    <row r="597" spans="7:13" ht="13.15">
+    <row r="597" spans="7:13" ht="12.75">
       <c r="G597" s="30"/>
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
     </row>
-    <row r="598" spans="7:13" ht="13.15">
+    <row r="598" spans="7:13" ht="12.75">
       <c r="G598" s="30"/>
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
     </row>
-    <row r="599" spans="7:13" ht="13.15">
+    <row r="599" spans="7:13" ht="12.75">
       <c r="G599" s="30"/>
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
     </row>
-    <row r="600" spans="7:13" ht="13.15">
+    <row r="600" spans="7:13" ht="12.75">
       <c r="G600" s="30"/>
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
     </row>
-    <row r="601" spans="7:13" ht="13.15">
+    <row r="601" spans="7:13" ht="12.75">
       <c r="G601" s="30"/>
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
     </row>
-    <row r="602" spans="7:13" ht="13.15">
+    <row r="602" spans="7:13" ht="12.75">
       <c r="G602" s="30"/>
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
     </row>
-    <row r="603" spans="7:13" ht="13.15">
+    <row r="603" spans="7:13" ht="12.75">
       <c r="G603" s="30"/>
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
     </row>
-    <row r="604" spans="7:13" ht="13.15">
+    <row r="604" spans="7:13" ht="12.75">
       <c r="G604" s="30"/>
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
     </row>
-    <row r="605" spans="7:13" ht="13.15">
+    <row r="605" spans="7:13" ht="12.75">
       <c r="G605" s="30"/>
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
     </row>
-    <row r="606" spans="7:13" ht="13.15">
+    <row r="606" spans="7:13" ht="12.75">
       <c r="G606" s="30"/>
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
     </row>
-    <row r="607" spans="7:13" ht="13.15">
+    <row r="607" spans="7:13" ht="12.75">
       <c r="G607" s="30"/>
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
     </row>
-    <row r="608" spans="7:13" ht="13.15">
+    <row r="608" spans="7:13" ht="12.75">
       <c r="G608" s="30"/>
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
     </row>
-    <row r="609" spans="7:13" ht="13.15">
+    <row r="609" spans="7:13" ht="12.75">
       <c r="G609" s="30"/>
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
     </row>
-    <row r="610" spans="7:13" ht="13.15">
+    <row r="610" spans="7:13" ht="12.75">
       <c r="G610" s="30"/>
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
     </row>
-    <row r="611" spans="7:13" ht="13.15">
+    <row r="611" spans="7:13" ht="12.75">
       <c r="G611" s="30"/>
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
     </row>
-    <row r="612" spans="7:13" ht="13.15">
+    <row r="612" spans="7:13" ht="12.75">
       <c r="G612" s="30"/>
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
     </row>
-    <row r="613" spans="7:13" ht="13.15">
+    <row r="613" spans="7:13" ht="12.75">
       <c r="G613" s="30"/>
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
     </row>
-    <row r="614" spans="7:13" ht="13.15">
+    <row r="614" spans="7:13" ht="12.75">
       <c r="G614" s="30"/>
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
     </row>
-    <row r="615" spans="7:13" ht="13.15">
+    <row r="615" spans="7:13" ht="12.75">
       <c r="G615" s="30"/>
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
     </row>
-    <row r="616" spans="7:13" ht="13.15">
+    <row r="616" spans="7:13" ht="12.75">
       <c r="G616" s="30"/>
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
     </row>
-    <row r="617" spans="7:13" ht="13.15">
+    <row r="617" spans="7:13" ht="12.75">
       <c r="G617" s="30"/>
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
     </row>
-    <row r="618" spans="7:13" ht="13.15">
+    <row r="618" spans="7:13" ht="12.75">
       <c r="G618" s="30"/>
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
     </row>
-    <row r="619" spans="7:13" ht="13.15">
+    <row r="619" spans="7:13" ht="12.75">
       <c r="G619" s="30"/>
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
     </row>
-    <row r="620" spans="7:13" ht="13.15">
+    <row r="620" spans="7:13" ht="12.75">
       <c r="G620" s="30"/>
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
     </row>
-    <row r="621" spans="7:13" ht="13.15">
+    <row r="621" spans="7:13" ht="12.75">
       <c r="G621" s="30"/>
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
     </row>
-    <row r="622" spans="7:13" ht="13.15">
+    <row r="622" spans="7:13" ht="12.75">
       <c r="G622" s="30"/>
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
     </row>
-    <row r="623" spans="7:13" ht="13.15">
+    <row r="623" spans="7:13" ht="12.75">
       <c r="G623" s="30"/>
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
     </row>
-    <row r="624" spans="7:13" ht="13.15">
+    <row r="624" spans="7:13" ht="12.75">
       <c r="G624" s="30"/>
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
     </row>
-    <row r="625" spans="7:13" ht="13.15">
+    <row r="625" spans="7:13" ht="12.75">
       <c r="G625" s="30"/>
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
     </row>
-    <row r="626" spans="7:13" ht="13.15">
+    <row r="626" spans="7:13" ht="12.75">
       <c r="G626" s="30"/>
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
     </row>
-    <row r="627" spans="7:13" ht="13.15">
+    <row r="627" spans="7:13" ht="12.75">
       <c r="G627" s="30"/>
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
     </row>
-    <row r="628" spans="7:13" ht="13.15">
+    <row r="628" spans="7:13" ht="12.75">
       <c r="G628" s="30"/>
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
     </row>
-    <row r="629" spans="7:13" ht="13.15">
+    <row r="629" spans="7:13" ht="12.75">
       <c r="G629" s="30"/>
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
     </row>
-    <row r="630" spans="7:13" ht="13.15">
+    <row r="630" spans="7:13" ht="12.75">
       <c r="G630" s="30"/>
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
     </row>
-    <row r="631" spans="7:13" ht="13.15">
+    <row r="631" spans="7:13" ht="12.75">
       <c r="G631" s="30"/>
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
     </row>
-    <row r="632" spans="7:13" ht="13.15">
+    <row r="632" spans="7:13" ht="12.75">
       <c r="G632" s="30"/>
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
     </row>
-    <row r="633" spans="7:13" ht="13.15">
+    <row r="633" spans="7:13" ht="12.75">
       <c r="G633" s="30"/>
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
     </row>
-    <row r="634" spans="7:13" ht="13.15">
+    <row r="634" spans="7:13" ht="12.75">
       <c r="G634" s="30"/>
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
     </row>
-    <row r="635" spans="7:13" ht="13.15">
+    <row r="635" spans="7:13" ht="12.75">
       <c r="G635" s="30"/>
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
     </row>
-    <row r="636" spans="7:13" ht="13.15">
+    <row r="636" spans="7:13" ht="12.75">
       <c r="G636" s="30"/>
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
     </row>
-    <row r="637" spans="7:13" ht="13.15">
+    <row r="637" spans="7:13" ht="12.75">
       <c r="G637" s="30"/>
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
     </row>
-    <row r="638" spans="7:13" ht="13.15">
+    <row r="638" spans="7:13" ht="12.75">
       <c r="G638" s="30"/>
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
     </row>
-    <row r="639" spans="7:13" ht="13.15">
+    <row r="639" spans="7:13" ht="12.75">
       <c r="G639" s="30"/>
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
     </row>
-    <row r="640" spans="7:13" ht="13.15">
+    <row r="640" spans="7:13" ht="12.75">
       <c r="G640" s="30"/>
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
     </row>
-    <row r="641" spans="7:13" ht="13.15">
+    <row r="641" spans="7:13" ht="12.75">
       <c r="G641" s="30"/>
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
     </row>
-    <row r="642" spans="7:13" ht="13.15">
+    <row r="642" spans="7:13" ht="12.75">
       <c r="G642" s="30"/>
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
     </row>
-    <row r="643" spans="7:13" ht="13.15">
+    <row r="643" spans="7:13" ht="12.75">
       <c r="G643" s="30"/>
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
     </row>
-    <row r="644" spans="7:13" ht="13.15">
+    <row r="644" spans="7:13" ht="12.75">
       <c r="G644" s="30"/>
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
     </row>
-    <row r="645" spans="7:13" ht="13.15">
+    <row r="645" spans="7:13" ht="12.75">
       <c r="G645" s="30"/>
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
     </row>
-    <row r="646" spans="7:13" ht="13.15">
+    <row r="646" spans="7:13" ht="12.75">
       <c r="G646" s="30"/>
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
     </row>
-    <row r="647" spans="7:13" ht="13.15">
+    <row r="647" spans="7:13" ht="12.75">
       <c r="G647" s="30"/>
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
     </row>
-    <row r="648" spans="7:13" ht="13.15">
+    <row r="648" spans="7:13" ht="12.75">
       <c r="G648" s="30"/>
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
     </row>
-    <row r="649" spans="7:13" ht="13.15">
+    <row r="649" spans="7:13" ht="12.75">
       <c r="G649" s="30"/>
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
     </row>
-    <row r="650" spans="7:13" ht="13.15">
+    <row r="650" spans="7:13" ht="12.75">
       <c r="G650" s="30"/>
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
     </row>
-    <row r="651" spans="7:13" ht="13.15">
+    <row r="651" spans="7:13" ht="12.75">
       <c r="G651" s="30"/>
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
     </row>
-    <row r="652" spans="7:13" ht="13.15">
+    <row r="652" spans="7:13" ht="12.75">
       <c r="G652" s="30"/>
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
     </row>
-    <row r="653" spans="7:13" ht="13.15">
+    <row r="653" spans="7:13" ht="12.75">
       <c r="G653" s="30"/>
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
     </row>
-    <row r="654" spans="7:13" ht="13.15">
+    <row r="654" spans="7:13" ht="12.75">
       <c r="G654" s="30"/>
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
     </row>
-    <row r="655" spans="7:13" ht="13.15">
+    <row r="655" spans="7:13" ht="12.75">
       <c r="G655" s="30"/>
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
     </row>
-    <row r="656" spans="7:13" ht="13.15">
+    <row r="656" spans="7:13" ht="12.75">
       <c r="G656" s="30"/>
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
     </row>
-    <row r="657" spans="7:13" ht="13.15">
+    <row r="657" spans="7:13" ht="12.75">
       <c r="G657" s="30"/>
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
     </row>
-    <row r="658" spans="7:13" ht="13.15">
+    <row r="658" spans="7:13" ht="12.75">
       <c r="G658" s="30"/>
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
     </row>
-    <row r="659" spans="7:13" ht="13.15">
+    <row r="659" spans="7:13" ht="12.75">
       <c r="G659" s="30"/>
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
     </row>
-    <row r="660" spans="7:13" ht="13.15">
+    <row r="660" spans="7:13" ht="12.75">
       <c r="G660" s="30"/>
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
     </row>
-    <row r="661" spans="7:13" ht="13.15">
+    <row r="661" spans="7:13" ht="12.75">
       <c r="G661" s="30"/>
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
     </row>
-    <row r="662" spans="7:13" ht="13.15">
+    <row r="662" spans="7:13" ht="12.75">
       <c r="G662" s="30"/>
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
     </row>
-    <row r="663" spans="7:13" ht="13.15">
+    <row r="663" spans="7:13" ht="12.75">
       <c r="G663" s="30"/>
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
     </row>
-    <row r="664" spans="7:13" ht="13.15">
+    <row r="664" spans="7:13" ht="12.75">
       <c r="G664" s="30"/>
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
     </row>
-    <row r="665" spans="7:13" ht="13.15">
+    <row r="665" spans="7:13" ht="12.75">
       <c r="G665" s="30"/>
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
     </row>
-    <row r="666" spans="7:13" ht="13.15">
+    <row r="666" spans="7:13" ht="12.75">
       <c r="G666" s="30"/>
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
     </row>
-    <row r="667" spans="7:13" ht="13.15">
+    <row r="667" spans="7:13" ht="12.75">
       <c r="G667" s="30"/>
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
     </row>
-    <row r="668" spans="7:13" ht="13.15">
+    <row r="668" spans="7:13" ht="12.75">
       <c r="G668" s="30"/>
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
     </row>
-    <row r="669" spans="7:13" ht="13.15">
+    <row r="669" spans="7:13" ht="12.75">
       <c r="G669" s="30"/>
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
     </row>
-    <row r="670" spans="7:13" ht="13.15">
+    <row r="670" spans="7:13" ht="12.75">
       <c r="G670" s="30"/>
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U315">
+  <sortState ref="A2:U315">
     <sortCondition ref="A2:A315"/>
   </sortState>
   <conditionalFormatting sqref="K422:K670">
@@ -24703,7 +24772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -24714,15 +24783,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -24964,8 +25033,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{B0132A72-CEF3-4080-A172-04393A2E1710}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+  <autoFilter ref="A1:G14">
+    <sortState ref="A2:G14">
       <sortCondition ref="G2:G14"/>
     </sortState>
   </autoFilter>
@@ -24976,7 +25045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9641C335-60E9-4D6E-8203-AF772265FB48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24986,13 +25055,13 @@
       <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.86328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/Data/Bioesta.xlsx
+++ b/Data/Bioesta.xlsx
@@ -982,7 +982,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1117,8 +1117,8 @@
         <v>68.300653594771248</v>
       </c>
       <c r="N2" s="12">
-        <f>IF(L2&gt;0,2.269800692/L2,"")</f>
-        <v>234.00007134020618</v>
+        <f>IF(L2&gt;0,(((1.3/2)^2)*PI())/L2,"")</f>
+        <v>136.83741197336985</v>
       </c>
       <c r="O2" s="11">
         <v>37.6</v>
@@ -1170,7 +1170,7 @@
         <v/>
       </c>
       <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N66" si="1">IF(L3&gt;0,2.269800692/L3,"")</f>
+        <f t="shared" ref="N3:N66" si="1">IF(L3&gt;0,(((1.3/2)^2)*PI())/L3,"")</f>
         <v/>
       </c>
       <c r="O3" s="11">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="N4" s="12">
         <f t="shared" si="1"/>
-        <v>249.42864747252747</v>
+        <v>145.85965891666896</v>
       </c>
       <c r="O4" s="11">
         <v>39.4</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="N6" s="12">
         <f t="shared" si="1"/>
-        <v>273.46996289156624</v>
+        <v>159.91842122189007</v>
       </c>
       <c r="O6" s="11">
         <v>39.5</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N8" s="12">
         <f t="shared" si="1"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O8" s="11">
         <v>36.4</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="N10" s="12">
         <f t="shared" si="1"/>
-        <v>187.58683404958677</v>
+        <v>109.69610711914774</v>
       </c>
       <c r="O10" s="11">
         <v>33.700000000000003</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N12" s="12">
         <f t="shared" si="1"/>
-        <v>224.73274178217824</v>
+        <v>131.41810852887997</v>
       </c>
       <c r="O12" s="14">
         <v>32.5</v>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="N14" s="12">
         <f t="shared" si="1"/>
-        <v>186.04923704918031</v>
+        <v>108.79695870013832</v>
       </c>
       <c r="O14" s="11">
         <v>37.9</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="N16" s="12">
         <f t="shared" si="1"/>
-        <v>208.23859559633027</v>
+        <v>121.77274276529245</v>
       </c>
       <c r="O16" s="11">
         <v>48</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="N18" s="12">
         <f t="shared" si="1"/>
-        <v>220.36899922330096</v>
+        <v>128.86630059628035</v>
       </c>
       <c r="O18" s="11">
         <v>49.5</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="N20" s="12">
         <f t="shared" si="1"/>
-        <v>236.43757208333335</v>
+        <v>138.2628016814258</v>
       </c>
       <c r="O20" s="11">
         <v>46.9</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N22" s="12">
         <f t="shared" si="1"/>
-        <v>244.06459053763442</v>
+        <v>142.722892058246</v>
       </c>
       <c r="O22" s="11">
         <v>53.1</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="N24" s="12">
         <f t="shared" si="1"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O24" s="11">
         <v>50</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="N26" s="12">
         <f t="shared" si="1"/>
-        <v>310.93160164383562</v>
+        <v>181.82505426598462</v>
       </c>
       <c r="O26" s="11">
         <v>35.5</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="N28" s="12">
         <f t="shared" si="1"/>
-        <v>190.73955394957983</v>
+        <v>111.53973917157037</v>
       </c>
       <c r="O28" s="11">
         <v>52.5</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="N30" s="12">
         <f t="shared" si="1"/>
-        <v>287.31654329113923</v>
+        <v>168.01555647363134</v>
       </c>
       <c r="O30" s="11">
         <v>40.299999999999997</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="N32" s="12">
         <f t="shared" si="1"/>
-        <v>180.14291206349208</v>
+        <v>105.34308699537203</v>
       </c>
       <c r="O32" s="11">
         <v>50.9</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="N33" s="12">
         <f t="shared" si="1"/>
-        <v>199.1053238596491</v>
+        <v>116.43183299488487</v>
       </c>
       <c r="O33" s="11">
         <v>52.9</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="N34" s="12">
         <f t="shared" si="1"/>
-        <v>192.35599084745763</v>
+        <v>112.48499119844811</v>
       </c>
       <c r="O34" s="11">
         <v>54.1</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N35" s="12">
         <f t="shared" si="1"/>
-        <v>183.0484429032258</v>
+        <v>107.0421690436845</v>
       </c>
       <c r="O35" s="11">
         <v>48.3</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="N36" s="12">
         <f t="shared" si="1"/>
-        <v>169.38811134328358</v>
+        <v>99.053947473260266</v>
       </c>
       <c r="O36" s="11">
         <v>47.1</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="N37" s="12">
         <f t="shared" si="1"/>
-        <v>189.15005766666667</v>
+        <v>110.61024134514064</v>
       </c>
       <c r="O37" s="11">
         <v>50.6</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N38" s="12">
         <f t="shared" si="1"/>
-        <v>169.38811134328358</v>
+        <v>99.053947473260266</v>
       </c>
       <c r="O38" s="11">
         <v>49.6</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N39" s="12">
         <f t="shared" si="1"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O39" s="11">
         <v>46.5</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="N40" s="12">
         <f t="shared" si="1"/>
-        <v>238.92638863157896</v>
+        <v>139.71819959386187</v>
       </c>
       <c r="O40" s="11">
         <v>54.3</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="N41" s="12">
         <f t="shared" si="1"/>
-        <v>270.21436809523811</v>
+        <v>158.01463049305806</v>
       </c>
       <c r="O41" s="11">
         <v>52.9</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="N42" s="12">
         <f t="shared" si="1"/>
-        <v>260.89663126436784</v>
+        <v>152.56585013122847</v>
       </c>
       <c r="O42" s="11">
         <v>57.9</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="N43" s="12">
         <f t="shared" si="1"/>
-        <v>310.93160164383562</v>
+        <v>181.82505426598462</v>
       </c>
       <c r="O43" s="11">
         <v>57.3</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="N44" s="12">
         <f t="shared" si="1"/>
-        <v>310.93160164383562</v>
+        <v>181.82505426598462</v>
       </c>
       <c r="O44" s="11">
         <v>54.6</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="N45" s="12">
         <f t="shared" si="1"/>
-        <v>283.72508649999997</v>
+        <v>165.91536201771095</v>
       </c>
       <c r="O45" s="11">
         <v>53</v>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="N46" s="12">
         <f t="shared" si="1"/>
-        <v>202.66077607142859</v>
+        <v>118.51097286979353</v>
       </c>
       <c r="O46" s="11">
         <v>51.6</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="N47" s="12">
         <f t="shared" si="1"/>
-        <v>206.34551745454547</v>
+        <v>120.66571783106252</v>
       </c>
       <c r="O47" s="11">
         <v>51.6</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="N48" s="12">
         <f t="shared" si="1"/>
-        <v>249.42864747252747</v>
+        <v>145.85965891666896</v>
       </c>
       <c r="O48" s="11">
         <v>50</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="N49" s="12">
         <f t="shared" si="1"/>
-        <v>220.36899922330096</v>
+        <v>128.86630059628035</v>
       </c>
       <c r="O49" s="11">
         <v>51.2</v>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="N50" s="12">
         <f t="shared" si="1"/>
-        <v>260.89663126436784</v>
+        <v>152.56585013122847</v>
       </c>
       <c r="O50" s="11">
         <v>51.7</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="N51" s="12">
         <f t="shared" si="1"/>
-        <v>216.17149447619047</v>
+        <v>126.41170439444643</v>
       </c>
       <c r="O51" s="11">
         <v>52</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="N52" s="12">
         <f t="shared" si="1"/>
-        <v>208.23859559633027</v>
+        <v>121.77274276529245</v>
       </c>
       <c r="O52" s="11">
         <v>50.2</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="N53" s="12">
         <f t="shared" si="1"/>
-        <v>218.25006653846154</v>
+        <v>127.62720155208535</v>
       </c>
       <c r="O53" s="11">
         <v>51.4</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="N54" s="12">
         <f t="shared" si="1"/>
-        <v>175.95354201550387</v>
+        <v>102.89324776292152</v>
       </c>
       <c r="O54" s="11">
         <v>51.6</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="N55" s="12">
         <f t="shared" si="1"/>
-        <v>186.04923704918031</v>
+        <v>108.79695870013832</v>
       </c>
       <c r="O55" s="11">
         <v>51</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="N56" s="12">
         <f t="shared" si="1"/>
-        <v>195.67247344827587</v>
+        <v>114.42438759842136</v>
       </c>
       <c r="O56" s="11">
         <v>50.6</v>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="N57" s="12">
         <f t="shared" si="1"/>
-        <v>244.06459053763442</v>
+        <v>142.722892058246</v>
       </c>
       <c r="O57" s="11">
         <v>53.2</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="N58" s="12">
         <f t="shared" si="1"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O58" s="11">
         <v>53.6</v>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="N59" s="12">
         <f t="shared" si="1"/>
-        <v>189.15005766666667</v>
+        <v>110.61024134514064</v>
       </c>
       <c r="O59" s="11">
         <v>51.5</v>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="N60" s="12">
         <f t="shared" si="1"/>
-        <v>229.27279717171714</v>
+        <v>134.07301981229168</v>
       </c>
       <c r="O60" s="11">
         <v>50.2</v>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N61" s="12">
         <f t="shared" si="1"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O61" s="11">
         <v>51.3</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="N62" s="12">
         <f t="shared" si="1"/>
-        <v>291.00008871794876</v>
+        <v>170.16960206944714</v>
       </c>
       <c r="O62" s="11">
         <v>39.799999999999997</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="N63" s="12">
         <f t="shared" si="1"/>
-        <v>287.31654329113923</v>
+        <v>168.01555647363134</v>
       </c>
       <c r="O63" s="11">
         <v>38.5</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="N64" s="12">
         <f t="shared" si="1"/>
-        <v>306.72982324324323</v>
+        <v>179.3679589380659</v>
       </c>
       <c r="O64" s="11">
         <v>42.8</v>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="N65" s="12">
         <f t="shared" si="1"/>
-        <v>276.80496243902439</v>
+        <v>161.86864587093751</v>
       </c>
       <c r="O65" s="11">
         <v>40.9</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="N66" s="12">
         <f t="shared" si="1"/>
-        <v>405.32155214285717</v>
+        <v>237.02194573958707</v>
       </c>
       <c r="O66" s="11">
         <v>38</v>
@@ -4534,8 +4534,8 @@
         <v>58.82352941176471</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" ref="N67:N130" si="3">IF(L67&gt;0,2.269800692/L67,"")</f>
-        <v>294.77931064935063</v>
+        <f t="shared" ref="N67:N130" si="3">IF(L67&gt;0,(((1.3/2)^2)*PI())/L67,"")</f>
+        <v>172.37959690151786</v>
       </c>
       <c r="O67" s="11">
         <v>41.1</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="N68" s="12">
         <f t="shared" si="3"/>
-        <v>310.93160164383562</v>
+        <v>181.82505426598462</v>
       </c>
       <c r="O68" s="11">
         <v>42.4</v>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="N69" s="12">
         <f t="shared" si="3"/>
-        <v>294.77931064935063</v>
+        <v>172.37959690151786</v>
       </c>
       <c r="O69" s="11">
         <v>40.9</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="N70" s="12">
         <f t="shared" si="3"/>
-        <v>366.09688580645161</v>
+        <v>214.08433808736899</v>
       </c>
       <c r="O70" s="11">
         <v>38.6</v>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="N71" s="12">
         <f t="shared" si="3"/>
-        <v>378.30011533333334</v>
+        <v>221.22048269028127</v>
       </c>
       <c r="O71" s="11">
         <v>41.1</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="N72" s="12">
         <f t="shared" si="3"/>
-        <v>241.46815872340426</v>
+        <v>141.20456341932848</v>
       </c>
       <c r="O72" s="11">
         <v>42.2</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="N73" s="12">
         <f t="shared" si="3"/>
-        <v>229.27279717171714</v>
+        <v>134.07301981229168</v>
       </c>
       <c r="O73" s="11">
         <v>42.6</v>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="N74" s="12">
         <f t="shared" si="3"/>
-        <v>189.15005766666667</v>
+        <v>110.61024134514064</v>
       </c>
       <c r="O74" s="11">
         <v>45</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="N75" s="12">
         <f t="shared" si="3"/>
-        <v>180.14291206349208</v>
+        <v>105.34308699537203</v>
       </c>
       <c r="O75" s="11">
         <v>44.2</v>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="N76" s="12">
         <f t="shared" si="3"/>
-        <v>194.00005914529913</v>
+        <v>113.44640137963142</v>
       </c>
       <c r="O76" s="11">
         <v>43.8</v>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="N77" s="12">
         <f t="shared" si="3"/>
-        <v>184.53664162601626</v>
+        <v>107.91243058062501</v>
       </c>
       <c r="O77" s="11">
         <v>45.8</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="N78" s="12">
         <f t="shared" si="3"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O78" s="11">
         <v>42.3</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="N79" s="12">
         <f t="shared" si="3"/>
-        <v>195.67247344827587</v>
+        <v>114.42438759842136</v>
       </c>
       <c r="O79" s="11">
         <v>43</v>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="N80" s="12">
         <f t="shared" si="3"/>
-        <v>214.13214075471697</v>
+        <v>125.21914114544222</v>
       </c>
       <c r="O80" s="11">
         <v>38.1</v>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="N81" s="12">
         <f t="shared" si="3"/>
-        <v>210.16673074074072</v>
+        <v>122.90026816126736</v>
       </c>
       <c r="O81" s="11">
         <v>36.799999999999997</v>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="N82" s="12">
         <f t="shared" si="3"/>
-        <v>206.34551745454547</v>
+        <v>120.66571783106252</v>
       </c>
       <c r="O82" s="11">
         <v>38.299999999999997</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="N83" s="12">
         <f t="shared" si="3"/>
-        <v>214.13214075471697</v>
+        <v>125.21914114544222</v>
       </c>
       <c r="O83" s="11">
         <v>33.4</v>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="N84" s="12">
         <f t="shared" si="3"/>
-        <v>210.16673074074072</v>
+        <v>122.90026816126736</v>
       </c>
       <c r="O84" s="11">
         <v>36.4</v>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="N85" s="12">
         <f t="shared" si="3"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O85" s="11">
         <v>35.5</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="N86" s="12">
         <f t="shared" si="3"/>
-        <v>224.73274178217824</v>
+        <v>131.41810852887997</v>
       </c>
       <c r="O86" s="11">
         <v>40.6</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="N87" s="12">
         <f t="shared" si="3"/>
-        <v>231.6123155102041</v>
+        <v>135.44111185119263</v>
       </c>
       <c r="O87" s="11">
         <v>40.700000000000003</v>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="N88" s="12">
         <f t="shared" si="3"/>
-        <v>333.79421941176474</v>
+        <v>195.1945435502482</v>
       </c>
       <c r="O88" s="11">
         <v>38</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="N89" s="12">
         <f t="shared" si="3"/>
-        <v>378.30011533333334</v>
+        <v>221.22048269028127</v>
       </c>
       <c r="O89" s="11">
         <v>38.299999999999997</v>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="N90" s="12">
         <f t="shared" si="3"/>
-        <v>158.72732111888112</v>
+        <v>92.819782946971159</v>
       </c>
       <c r="O90" s="11">
         <v>43.1</v>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="N91" s="12">
         <f t="shared" si="3"/>
-        <v>180.14291206349208</v>
+        <v>105.34308699537203</v>
       </c>
       <c r="O91" s="11">
         <v>45.2</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="N122" s="12">
         <f t="shared" si="3"/>
-        <v>343.90919575757579</v>
+        <v>201.10952971843753</v>
       </c>
       <c r="O122" s="15">
         <v>41</v>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="N124" s="12">
         <f t="shared" si="3"/>
-        <v>302.64009226666667</v>
+        <v>176.97638615222502</v>
       </c>
       <c r="O124" s="15">
         <v>44.3</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="N126" s="12">
         <f t="shared" si="3"/>
-        <v>366.09688580645161</v>
+        <v>214.08433808736899</v>
       </c>
       <c r="O126" s="15">
         <v>40</v>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="N128" s="12">
         <f t="shared" si="3"/>
-        <v>231.6123155102041</v>
+        <v>135.44111185119263</v>
       </c>
       <c r="O128" s="15">
         <v>39.299999999999997</v>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="N130" s="12">
         <f t="shared" si="3"/>
-        <v>298.65798578947368</v>
+        <v>174.64774949232731</v>
       </c>
       <c r="O130" s="15">
         <v>39</v>
@@ -7768,7 +7768,7 @@
         <v/>
       </c>
       <c r="N131" s="12" t="str">
-        <f t="shared" ref="N131:N194" si="5">IF(L131&gt;0,2.269800692/L131,"")</f>
+        <f t="shared" ref="N131:N194" si="5">IF(L131&gt;0,(((1.3/2)^2)*PI())/L131,"")</f>
         <v/>
       </c>
       <c r="O131" s="15">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="N132" s="12">
         <f t="shared" si="5"/>
-        <v>257.93189681818183</v>
+        <v>150.83214728882814</v>
       </c>
       <c r="O132" s="15">
         <v>41.5</v>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="N134" s="12">
         <f t="shared" si="5"/>
-        <v>255.03378561797754</v>
+        <v>149.13740406086379</v>
       </c>
       <c r="O134" s="15">
         <v>40.5</v>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="N136" s="12">
         <f t="shared" si="5"/>
-        <v>315.25009611111113</v>
+        <v>184.35040224190107</v>
       </c>
       <c r="O136" s="15">
         <v>38.799999999999997</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="N138" s="12">
         <f t="shared" si="5"/>
-        <v>267.03537552941174</v>
+        <v>156.15563484019853</v>
       </c>
       <c r="O138" s="15">
         <v>36.799999999999997</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="N140" s="12">
         <f t="shared" si="5"/>
-        <v>234.00007134020618</v>
+        <v>136.83741197336985</v>
       </c>
       <c r="O140" s="15">
         <v>41.9</v>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="N142" s="12">
         <f t="shared" si="5"/>
-        <v>255.03378561797754</v>
+        <v>149.13740406086379</v>
       </c>
       <c r="O142" s="15">
         <v>41.9</v>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="N144" s="12">
         <f t="shared" si="5"/>
-        <v>273.46996289156624</v>
+        <v>159.91842122189007</v>
       </c>
       <c r="O144" s="15">
         <v>43.1</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="N146" s="12">
         <f t="shared" si="5"/>
-        <v>333.79421941176474</v>
+        <v>195.1945435502482</v>
       </c>
       <c r="O146" s="15">
         <v>40.6</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="N148" s="12">
         <f t="shared" si="5"/>
-        <v>273.46996289156624</v>
+        <v>159.91842122189007</v>
       </c>
       <c r="O148" s="15">
         <v>42.3</v>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="N150" s="12">
         <f t="shared" si="5"/>
-        <v>302.64009226666667</v>
+        <v>176.97638615222502</v>
       </c>
       <c r="O150" s="15">
         <v>39.9</v>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="N152" s="12">
         <f t="shared" si="5"/>
-        <v>216.17149447619047</v>
+        <v>126.41170439444643</v>
       </c>
       <c r="O152" s="11">
         <v>22.4</v>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="N154" s="12">
         <f t="shared" si="5"/>
-        <v>174.60005323076925</v>
+        <v>102.10176124166829</v>
       </c>
       <c r="O154" s="11">
         <v>31.7</v>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="N156" s="12">
         <f t="shared" si="5"/>
-        <v>249.42864747252747</v>
+        <v>145.85965891666896</v>
       </c>
       <c r="O156" s="11">
         <v>21.7</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="N158" s="12">
         <f t="shared" si="5"/>
-        <v>173.26722839694656</v>
+        <v>101.32235848409829</v>
       </c>
       <c r="O158" s="11">
         <v>33.5</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="N160" s="12">
         <f t="shared" si="5"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O160" s="11">
         <v>38</v>
@@ -9452,7 +9452,7 @@
       </c>
       <c r="N162" s="12">
         <f t="shared" si="5"/>
-        <v>190.73955394957983</v>
+        <v>111.53973917157037</v>
       </c>
       <c r="O162" s="11">
         <v>33.9</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="N164" s="12">
         <f t="shared" si="5"/>
-        <v>224.73274178217824</v>
+        <v>131.41810852887997</v>
       </c>
       <c r="O164" s="11">
         <v>31.5</v>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="N166" s="12">
         <f t="shared" si="5"/>
-        <v>224.73274178217824</v>
+        <v>131.41810852887997</v>
       </c>
       <c r="O166" s="11">
         <v>35</v>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="N168" s="12">
         <f t="shared" si="5"/>
-        <v>249.42864747252747</v>
+        <v>145.85965891666896</v>
       </c>
       <c r="O168" s="11">
         <v>38.200000000000003</v>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="N170" s="12">
         <f t="shared" si="5"/>
-        <v>260.89663126436784</v>
+        <v>152.56585013122847</v>
       </c>
       <c r="O170" s="11">
         <v>35.799999999999997</v>
@@ -9992,7 +9992,7 @@
       </c>
       <c r="N172" s="12">
         <f t="shared" si="5"/>
-        <v>226.9800692</v>
+        <v>132.73228961416876</v>
       </c>
       <c r="O172" s="11">
         <v>40.1</v>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="N174" s="12">
         <f t="shared" si="5"/>
-        <v>210.16673074074072</v>
+        <v>122.90026816126736</v>
       </c>
       <c r="O174" s="11">
         <v>31.4</v>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="N176" s="12">
         <f t="shared" si="5"/>
-        <v>195.67247344827587</v>
+        <v>114.42438759842136</v>
       </c>
       <c r="O176" s="11">
         <v>30</v>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="N178" s="12">
         <f t="shared" si="5"/>
-        <v>214.13214075471697</v>
+        <v>125.21914114544222</v>
       </c>
       <c r="O178" s="11">
         <v>33.200000000000003</v>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="N180" s="12">
         <f t="shared" si="5"/>
-        <v>210.16673074074072</v>
+        <v>122.90026816126736</v>
       </c>
       <c r="O180" s="11">
         <v>37.5</v>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="N182" s="12">
         <f t="shared" si="5"/>
-        <v>199.1053238596491</v>
+        <v>116.43183299488487</v>
       </c>
       <c r="O182" s="11">
         <v>39.1</v>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="N184" s="12">
         <f t="shared" si="5"/>
-        <v>366.09688580645161</v>
+        <v>214.08433808736899</v>
       </c>
       <c r="O184" s="11">
         <v>56.6</v>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="N186" s="12">
         <f t="shared" si="5"/>
-        <v>453.96013840000001</v>
+        <v>265.46457922833753</v>
       </c>
       <c r="O186" s="11">
         <v>43.1</v>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="N188" s="12">
         <f t="shared" si="5"/>
-        <v>206.34551745454547</v>
+        <v>120.66571783106252</v>
       </c>
       <c r="O188" s="11">
         <v>40.1</v>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="N190" s="12">
         <f t="shared" si="5"/>
-        <v>360.28582412698415</v>
+        <v>210.68617399074407</v>
       </c>
       <c r="O190" s="11">
         <v>51.1</v>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="N192" s="12">
         <f t="shared" si="5"/>
-        <v>515.86379363636365</v>
+        <v>301.66429457765628</v>
       </c>
       <c r="O192" s="11">
         <v>36.6</v>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="N194" s="12">
         <f t="shared" si="5"/>
-        <v>199.1053238596491</v>
+        <v>116.43183299488487</v>
       </c>
       <c r="O194" s="11">
         <v>42.9</v>
@@ -11240,7 +11240,7 @@
         <v/>
       </c>
       <c r="N195" s="12" t="str">
-        <f t="shared" ref="N195:N258" si="7">IF(L195&gt;0,2.269800692/L195,"")</f>
+        <f t="shared" ref="N195:N258" si="7">IF(L195&gt;0,(((1.3/2)^2)*PI())/L195,"")</f>
         <v/>
       </c>
       <c r="O195" s="11">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="N196" s="12">
         <f t="shared" si="7"/>
-        <v>168.13338459259259</v>
+        <v>98.320214529013896</v>
       </c>
       <c r="O196" s="11">
         <v>40.200000000000003</v>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="N198" s="12">
         <f t="shared" si="7"/>
-        <v>493.43493304347828</v>
+        <v>288.5484556829756</v>
       </c>
       <c r="O198" s="11">
         <v>49.3</v>
@@ -11512,7 +11512,7 @@
       </c>
       <c r="N200" s="12">
         <f t="shared" si="7"/>
-        <v>204.48654882882883</v>
+        <v>119.57863929204393</v>
       </c>
       <c r="O200" s="11">
         <v>43.9</v>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="N202" s="12">
         <f t="shared" si="7"/>
-        <v>169.38811134328358</v>
+        <v>99.053947473260266</v>
       </c>
       <c r="O202" s="11">
         <v>45.3</v>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="N204" s="12">
         <f t="shared" si="7"/>
-        <v>453.96013840000001</v>
+        <v>265.46457922833753</v>
       </c>
       <c r="O204" s="11">
         <v>44.7</v>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="N206" s="12">
         <f t="shared" si="7"/>
-        <v>222.52947960784311</v>
+        <v>130.12969570016546</v>
       </c>
       <c r="O206" s="11">
         <v>40.6</v>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="N208" s="12">
         <f t="shared" si="7"/>
-        <v>280.22230765432101</v>
+        <v>163.86702421502318</v>
       </c>
       <c r="O208" s="11">
         <v>18</v>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="N210" s="12">
         <f t="shared" si="7"/>
-        <v>220.36899922330096</v>
+        <v>128.86630059628035</v>
       </c>
       <c r="O210" s="11">
         <v>38.6</v>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="N212" s="12">
         <f t="shared" si="7"/>
-        <v>149.32899289473684</v>
+        <v>87.323874746163654</v>
       </c>
       <c r="O212" s="11">
         <v>44.3</v>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="N214" s="12">
         <f t="shared" si="7"/>
-        <v>132.73688257309942</v>
+        <v>77.621221996589924</v>
       </c>
       <c r="O214" s="11">
         <v>44.5</v>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="N216" s="12">
         <f t="shared" si="7"/>
-        <v>160.97877248226951</v>
+        <v>94.136375612885644</v>
       </c>
       <c r="O216" s="11">
         <v>53.3</v>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="N218" s="12">
         <f t="shared" si="7"/>
-        <v>190.73955394957983</v>
+        <v>111.53973917157037</v>
       </c>
       <c r="O218" s="11">
         <v>57.4</v>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="N220" s="12">
         <f t="shared" si="7"/>
-        <v>175.95354201550387</v>
+        <v>102.89324776292152</v>
       </c>
       <c r="O220" s="11">
         <v>60.8</v>
@@ -12708,7 +12708,7 @@
       </c>
       <c r="N222" s="12">
         <f t="shared" si="7"/>
-        <v>174.60005323076925</v>
+        <v>102.10176124166829</v>
       </c>
       <c r="O222" s="11">
         <v>42.4</v>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="N224" s="12">
         <f t="shared" si="7"/>
-        <v>123.35873326086957</v>
+        <v>72.1371139207439</v>
       </c>
       <c r="O224" s="11">
         <v>47.1</v>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="N226" s="12">
         <f t="shared" si="7"/>
-        <v>202.66077607142859</v>
+        <v>118.51097286979353</v>
       </c>
       <c r="O226" s="11">
         <v>35.299999999999997</v>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="N228" s="12">
         <f t="shared" si="7"/>
-        <v>184.53664162601626</v>
+        <v>107.91243058062501</v>
       </c>
       <c r="O228" s="11">
         <v>45.4</v>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="N230" s="12">
         <f t="shared" si="7"/>
-        <v>130.44831563218392</v>
+        <v>76.282925065614236</v>
       </c>
       <c r="O230" s="11">
         <v>42.4</v>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="N232" s="12">
         <f t="shared" si="7"/>
-        <v>107.57349251184834</v>
+        <v>62.906298395340642</v>
       </c>
       <c r="O232" s="11">
         <v>64.7</v>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="N234" s="12">
         <f t="shared" si="7"/>
-        <v>123.35873326086957</v>
+        <v>72.1371139207439</v>
       </c>
       <c r="O234" s="11">
         <v>61.1</v>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="N236" s="12">
         <f t="shared" si="7"/>
-        <v>137.56367830303029</v>
+        <v>80.443811887375006</v>
       </c>
       <c r="O236" s="11">
         <v>38</v>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="N238" s="12">
         <f t="shared" si="7"/>
-        <v>116.40003548717949</v>
+        <v>68.067840827778852</v>
       </c>
       <c r="O238" s="11">
         <v>48</v>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="N240" s="12">
         <f t="shared" si="7"/>
-        <v>126.8045079329609</v>
+        <v>74.152117102887587</v>
       </c>
       <c r="O240" s="11">
         <v>45.9</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="N242" s="12">
         <f t="shared" si="7"/>
-        <v>231.6123155102041</v>
+        <v>135.44111185119263</v>
       </c>
       <c r="O242" s="11">
         <v>29.9</v>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="N244" s="12">
         <f t="shared" si="7"/>
-        <v>229.27279717171714</v>
+        <v>134.07301981229168</v>
       </c>
       <c r="O244" s="11">
         <v>32.5</v>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="N246" s="12">
         <f t="shared" si="7"/>
-        <v>241.46815872340426</v>
+        <v>141.20456341932848</v>
       </c>
       <c r="O246" s="11">
         <v>30.9</v>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="N248" s="12">
         <f t="shared" si="7"/>
-        <v>220.36899922330096</v>
+        <v>128.86630059628035</v>
       </c>
       <c r="O248" s="11">
         <v>50.9</v>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="N250" s="12">
         <f t="shared" si="7"/>
-        <v>246.71746652173914</v>
+        <v>144.2742278414878</v>
       </c>
       <c r="O250" s="11">
         <v>46.5</v>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="N252" s="12">
         <f t="shared" si="7"/>
-        <v>238.92638863157896</v>
+        <v>139.71819959386187</v>
       </c>
       <c r="O252" s="11">
         <v>42.7</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="N254" s="12">
         <f t="shared" si="7"/>
-        <v>218.25006653846154</v>
+        <v>127.62720155208535</v>
       </c>
       <c r="O254" s="11">
         <v>29</v>
@@ -14552,7 +14552,7 @@
       </c>
       <c r="N256" s="12">
         <f t="shared" si="7"/>
-        <v>229.27279717171714</v>
+        <v>134.07301981229168</v>
       </c>
       <c r="O256" s="11">
         <v>32.299999999999997</v>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="N258" s="12">
         <f t="shared" si="7"/>
-        <v>200.8673178761062</v>
+        <v>117.46220319837944</v>
       </c>
       <c r="O258" s="11">
         <v>29.9</v>
@@ -14712,7 +14712,7 @@
         <v/>
       </c>
       <c r="N259" s="12" t="str">
-        <f t="shared" ref="N259:N322" si="9">IF(L259&gt;0,2.269800692/L259,"")</f>
+        <f t="shared" ref="N259:N322" si="9">IF(L259&gt;0,(((1.3/2)^2)*PI())/L259,"")</f>
         <v/>
       </c>
       <c r="O259" s="11">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="N260" s="12">
         <f t="shared" si="9"/>
-        <v>178.72446393700787</v>
+        <v>104.51361386942423</v>
       </c>
       <c r="O260" s="11">
         <v>36.1</v>
@@ -14876,7 +14876,7 @@
       </c>
       <c r="N262" s="12">
         <f t="shared" si="9"/>
-        <v>186.04923704918031</v>
+        <v>108.79695870013832</v>
       </c>
       <c r="O262" s="11">
         <v>35.9</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="N264" s="12">
         <f t="shared" si="9"/>
-        <v>118.83773256544504</v>
+        <v>69.493345347732344</v>
       </c>
       <c r="O264" s="11">
         <v>33.299999999999997</v>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="N266" s="12">
         <f t="shared" si="9"/>
-        <v>267.03537552941174</v>
+        <v>156.15563484019853</v>
       </c>
       <c r="O266" s="11">
         <v>38.799999999999997</v>
@@ -15200,7 +15200,7 @@
       </c>
       <c r="N268" s="12">
         <f t="shared" si="9"/>
-        <v>220.36899922330096</v>
+        <v>128.86630059628035</v>
       </c>
       <c r="O268" s="11">
         <v>40.4</v>
@@ -15308,7 +15308,7 @@
       </c>
       <c r="N270" s="12">
         <f t="shared" si="9"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O270" s="11">
         <v>34.700000000000003</v>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="N272" s="12">
         <f t="shared" si="9"/>
-        <v>204.48654882882883</v>
+        <v>119.57863929204393</v>
       </c>
       <c r="O272" s="11">
         <v>46.9</v>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="N274" s="12">
         <f t="shared" si="9"/>
-        <v>287.31654329113923</v>
+        <v>168.01555647363134</v>
       </c>
       <c r="O274" s="11">
         <v>39.200000000000003</v>
@@ -15632,7 +15632,7 @@
       </c>
       <c r="N276" s="12">
         <f t="shared" si="9"/>
-        <v>255.03378561797754</v>
+        <v>149.13740406086379</v>
       </c>
       <c r="O276" s="11">
         <v>39.4</v>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="N278" s="12">
         <f t="shared" si="9"/>
-        <v>147.38965532467532</v>
+        <v>86.189798450758929</v>
       </c>
       <c r="O278" s="11">
         <v>45.5</v>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="N280" s="12">
         <f t="shared" si="9"/>
-        <v>140.11115382716051</v>
+        <v>81.933512107511589</v>
       </c>
       <c r="O280" s="11">
         <v>52.2</v>
@@ -15964,7 +15964,7 @@
       </c>
       <c r="N282" s="12">
         <f t="shared" si="9"/>
-        <v>136.73498144578312</v>
+        <v>79.959210610945036</v>
       </c>
       <c r="O282" s="11">
         <v>43</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="N284" s="12">
         <f t="shared" si="9"/>
-        <v>241.46815872340426</v>
+        <v>141.20456341932848</v>
       </c>
       <c r="O284" s="11">
         <v>28.1</v>
@@ -16180,7 +16180,7 @@
       </c>
       <c r="N286" s="12">
         <f t="shared" si="9"/>
-        <v>140.11115382716051</v>
+        <v>81.933512107511589</v>
       </c>
       <c r="O286" s="11">
         <v>52.7</v>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="N288" s="12">
         <f t="shared" si="9"/>
-        <v>249.42864747252747</v>
+        <v>145.85965891666896</v>
       </c>
       <c r="O288" s="11">
         <v>51</v>
@@ -16396,7 +16396,7 @@
       </c>
       <c r="N290" s="12">
         <f t="shared" si="9"/>
-        <v>134.30773325443789</v>
+        <v>78.539816339744831</v>
       </c>
       <c r="O290" s="11">
         <v>38.799999999999997</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="N292" s="12">
         <f t="shared" si="9"/>
-        <v>148.35298640522876</v>
+        <v>86.75313046677698</v>
       </c>
       <c r="O292" s="11">
         <v>48.3</v>
@@ -16612,7 +16612,7 @@
       </c>
       <c r="N294" s="12">
         <f t="shared" si="9"/>
-        <v>128.2373272316384</v>
+        <v>74.989994132298733</v>
       </c>
       <c r="O294" s="11">
         <v>50.4</v>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="N296" s="12">
         <f t="shared" si="9"/>
-        <v>173.26722839694656</v>
+        <v>101.32235848409829</v>
       </c>
       <c r="O296" s="11">
         <v>29.1</v>
@@ -16828,7 +16828,7 @@
       </c>
       <c r="N298" s="12">
         <f t="shared" si="9"/>
-        <v>195.67247344827587</v>
+        <v>114.42438759842136</v>
       </c>
       <c r="O298" s="11">
         <v>31.2</v>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="N300" s="12">
         <f t="shared" si="9"/>
-        <v>150.31792662251655</v>
+        <v>87.902178552429646</v>
       </c>
       <c r="O300" s="11">
         <v>55.8</v>
@@ -17044,7 +17044,7 @@
       </c>
       <c r="N302" s="12">
         <f t="shared" si="9"/>
-        <v>405.32155214285717</v>
+        <v>237.02194573958707</v>
       </c>
       <c r="O302" s="11">
         <v>34.5</v>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="N304" s="12">
         <f t="shared" si="9"/>
-        <v>428.26428150943394</v>
+        <v>250.43828229088444</v>
       </c>
       <c r="O304" s="11">
         <v>34.5</v>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="N306" s="12">
         <f t="shared" si="9"/>
-        <v>472.8751441666667</v>
+        <v>276.5256033628516</v>
       </c>
       <c r="O306" s="11">
         <v>29.9</v>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="N308" s="12">
         <f t="shared" si="9"/>
-        <v>378.30011533333334</v>
+        <v>221.22048269028127</v>
       </c>
       <c r="O308" s="11">
         <v>25.4</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="N310" s="12">
         <f t="shared" si="9"/>
-        <v>384.71198169491527</v>
+        <v>224.96998239689623</v>
       </c>
       <c r="O310" s="11">
         <v>24.9</v>
@@ -17592,7 +17592,7 @@
       </c>
       <c r="N312" s="12">
         <f t="shared" si="9"/>
-        <v>405.32155214285717</v>
+        <v>237.02194573958707</v>
       </c>
       <c r="O312" s="11">
         <v>22.6</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="N314" s="12">
         <f t="shared" si="9"/>
-        <v>372.09847409836061</v>
+        <v>217.59391740027664</v>
       </c>
       <c r="O314" s="11">
         <v>21.9</v>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="N316" s="12">
         <f t="shared" si="9"/>
-        <v>349.2001064615385</v>
+        <v>204.20352248333657</v>
       </c>
       <c r="O316" s="11">
         <v>25.3</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="N318" s="12">
         <f t="shared" si="9"/>
-        <v>384.71198169491527</v>
+        <v>224.96998239689623</v>
       </c>
       <c r="O318" s="11">
         <v>26.2</v>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="N320" s="12">
         <f t="shared" si="9"/>
-        <v>366.09688580645161</v>
+        <v>214.08433808736899</v>
       </c>
       <c r="O320" s="11">
         <v>29.5</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="N322" s="12">
         <f t="shared" si="9"/>
-        <v>333.79421941176474</v>
+        <v>195.1945435502482</v>
       </c>
       <c r="O322" s="11">
         <v>27.6</v>
@@ -18184,7 +18184,7 @@
         <v/>
       </c>
       <c r="N323" s="12" t="str">
-        <f t="shared" ref="N323:N386" si="11">IF(L323&gt;0,2.269800692/L323,"")</f>
+        <f t="shared" ref="N323:N386" si="11">IF(L323&gt;0,(((1.3/2)^2)*PI())/L323,"")</f>
         <v/>
       </c>
       <c r="O323" s="11">
@@ -18240,7 +18240,7 @@
       </c>
       <c r="N324" s="12">
         <f t="shared" si="11"/>
-        <v>378.30011533333334</v>
+        <v>221.22048269028127</v>
       </c>
       <c r="O324" s="11">
         <v>19.7</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="N326" s="12">
         <f t="shared" si="11"/>
-        <v>391.34494689655173</v>
+        <v>228.84877519684272</v>
       </c>
       <c r="O326" s="11">
         <v>33.5</v>
@@ -18456,7 +18456,7 @@
       </c>
       <c r="N328" s="12">
         <f t="shared" si="11"/>
-        <v>360.28582412698415</v>
+        <v>210.68617399074407</v>
       </c>
       <c r="O328" s="11">
         <v>33.299999999999997</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="N330" s="12">
         <f t="shared" si="11"/>
-        <v>378.30011533333334</v>
+        <v>221.22048269028127</v>
       </c>
       <c r="O330" s="11">
         <v>27.7</v>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="N332" s="12">
         <f t="shared" si="11"/>
-        <v>234.00007134020618</v>
+        <v>136.83741197336985</v>
       </c>
       <c r="O332" s="11">
         <v>25</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="N334" s="12">
         <f t="shared" si="11"/>
-        <v>283.72508649999997</v>
+        <v>165.91536201771095</v>
       </c>
       <c r="O334" s="11">
         <v>20.5</v>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="N336" s="12">
         <f t="shared" si="11"/>
-        <v>280.22230765432101</v>
+        <v>163.86702421502318</v>
       </c>
       <c r="O336" s="11">
         <v>26.6</v>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="N338" s="12">
         <f t="shared" si="11"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O338" s="11">
         <v>43</v>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="N340" s="12">
         <f t="shared" si="11"/>
-        <v>222.52947960784311</v>
+        <v>130.12969570016546</v>
       </c>
       <c r="O340" s="11">
         <v>44.5</v>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="N342" s="12">
         <f t="shared" si="11"/>
-        <v>220.36899922330096</v>
+        <v>128.86630059628035</v>
       </c>
       <c r="O342" s="11">
         <v>40.6</v>
@@ -19328,7 +19328,7 @@
       </c>
       <c r="N344" s="12">
         <f t="shared" si="11"/>
-        <v>280.22230765432101</v>
+        <v>163.86702421502318</v>
       </c>
       <c r="O344" s="11">
         <v>23</v>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="N346" s="12">
         <f t="shared" si="11"/>
-        <v>298.65798578947368</v>
+        <v>174.64774949232731</v>
       </c>
       <c r="O346" s="11">
         <v>22.2</v>
@@ -19544,7 +19544,7 @@
       </c>
       <c r="N348" s="12">
         <f t="shared" si="11"/>
-        <v>280.22230765432101</v>
+        <v>163.86702421502318</v>
       </c>
       <c r="O348" s="11">
         <v>22.6</v>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="N350" s="12">
         <f t="shared" si="11"/>
-        <v>252.2000768888889</v>
+        <v>147.48032179352086</v>
       </c>
       <c r="O350" s="11">
         <v>36.6</v>
@@ -19760,7 +19760,7 @@
       </c>
       <c r="N352" s="12">
         <f t="shared" si="11"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O352" s="11">
         <v>37.1</v>
@@ -19868,7 +19868,7 @@
       </c>
       <c r="N354" s="12">
         <f t="shared" si="11"/>
-        <v>252.2000768888889</v>
+        <v>147.48032179352086</v>
       </c>
       <c r="O354" s="11">
         <v>41.7</v>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="N356" s="12">
         <f t="shared" si="11"/>
-        <v>263.93031302325579</v>
+        <v>154.33987164438227</v>
       </c>
       <c r="O356" s="11">
         <v>33</v>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="N358" s="12">
         <f t="shared" si="11"/>
-        <v>224.73274178217824</v>
+        <v>131.41810852887997</v>
       </c>
       <c r="O358" s="11">
         <v>41.1</v>
@@ -20298,7 +20298,7 @@
       </c>
       <c r="N362" s="12">
         <f t="shared" si="11"/>
-        <v>238.92638863157896</v>
+        <v>139.71819959386187</v>
       </c>
       <c r="O362" s="11">
         <v>24.1</v>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="N364" s="12">
         <f t="shared" si="11"/>
-        <v>222.52947960784311</v>
+        <v>130.12969570016546</v>
       </c>
       <c r="O364" s="11">
         <v>31.9</v>
@@ -20514,7 +20514,7 @@
       </c>
       <c r="N366" s="12">
         <f t="shared" si="11"/>
-        <v>212.13090579439253</v>
+        <v>124.04886879828857</v>
       </c>
       <c r="O366" s="11">
         <v>30.2</v>
@@ -20630,7 +20630,7 @@
       </c>
       <c r="N368" s="12">
         <f t="shared" si="11"/>
-        <v>298.65798578947368</v>
+        <v>174.64774949232731</v>
       </c>
       <c r="O368" s="11">
         <v>29.4</v>
@@ -20738,7 +20738,7 @@
       </c>
       <c r="N370" s="12">
         <f t="shared" si="11"/>
-        <v>270.21436809523811</v>
+        <v>158.01463049305806</v>
       </c>
       <c r="O370" s="11">
         <v>33.799999999999997</v>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="N372" s="12">
         <f t="shared" si="11"/>
-        <v>306.72982324324323</v>
+        <v>179.3679589380659</v>
       </c>
       <c r="O372" s="11">
         <v>31.8</v>
@@ -20954,7 +20954,7 @@
       </c>
       <c r="N374" s="12">
         <f t="shared" si="11"/>
-        <v>372.09847409836061</v>
+        <v>217.59391740027664</v>
       </c>
       <c r="O374" s="11">
         <v>26</v>
@@ -21062,7 +21062,7 @@
       </c>
       <c r="N376" s="12">
         <f t="shared" si="11"/>
-        <v>302.64009226666667</v>
+        <v>176.97638615222502</v>
       </c>
       <c r="O376" s="11">
         <v>34.799999999999997</v>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="N378" s="12">
         <f t="shared" si="11"/>
-        <v>302.64009226666667</v>
+        <v>176.97638615222502</v>
       </c>
       <c r="O378" s="11">
         <v>35.5</v>
@@ -21278,7 +21278,7 @@
       </c>
       <c r="N380" s="12">
         <f t="shared" si="11"/>
-        <v>204.48654882882883</v>
+        <v>119.57863929204393</v>
       </c>
       <c r="O380" s="11">
         <v>33</v>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="N382" s="12">
         <f t="shared" si="11"/>
-        <v>183.0484429032258</v>
+        <v>107.0421690436845</v>
       </c>
       <c r="O382" s="11">
         <v>31.5</v>
@@ -21494,7 +21494,7 @@
       </c>
       <c r="N384" s="12">
         <f t="shared" si="11"/>
-        <v>187.58683404958677</v>
+        <v>109.69610711914774</v>
       </c>
       <c r="O384" s="11">
         <v>33.4</v>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="N386" s="12">
         <f t="shared" si="11"/>
-        <v>186.04923704918031</v>
+        <v>108.79695870013832</v>
       </c>
       <c r="O386" s="11">
         <v>27</v>
@@ -21654,7 +21654,7 @@
         <v/>
       </c>
       <c r="N387" s="12" t="str">
-        <f t="shared" ref="N387:N421" si="13">IF(L387&gt;0,2.269800692/L387,"")</f>
+        <f t="shared" ref="N387:N421" si="13">IF(L387&gt;0,(((1.3/2)^2)*PI())/L387,"")</f>
         <v/>
       </c>
       <c r="O387" s="11">
@@ -21710,7 +21710,7 @@
       </c>
       <c r="N388" s="12">
         <f t="shared" si="13"/>
-        <v>216.17149447619047</v>
+        <v>126.41170439444643</v>
       </c>
       <c r="O388" s="11">
         <v>31.9</v>
@@ -21818,7 +21818,7 @@
       </c>
       <c r="N390" s="12">
         <f t="shared" si="13"/>
-        <v>181.58405535999998</v>
+        <v>106.18583169133501</v>
       </c>
       <c r="O390" s="11">
         <v>25.3</v>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="N392" s="12">
         <f t="shared" si="13"/>
-        <v>171.95459787878789</v>
+        <v>100.55476485921876</v>
       </c>
       <c r="O392" s="11">
         <v>46</v>
@@ -22034,7 +22034,7 @@
       </c>
       <c r="N394" s="12">
         <f t="shared" si="13"/>
-        <v>168.13338459259259</v>
+        <v>98.320214529013896</v>
       </c>
       <c r="O394" s="11">
         <v>47.9</v>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="N396" s="12">
         <f t="shared" si="13"/>
-        <v>166.89710970588237</v>
+        <v>97.597271775124099</v>
       </c>
       <c r="O396" s="11">
         <v>50</v>
@@ -22258,7 +22258,7 @@
       </c>
       <c r="N398" s="12">
         <f t="shared" si="13"/>
-        <v>206.34551745454547</v>
+        <v>120.66571783106252</v>
       </c>
       <c r="O398" s="11">
         <v>46.8</v>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="N400" s="12">
         <f t="shared" si="13"/>
-        <v>124.71432373626374</v>
+        <v>72.929829458334481</v>
       </c>
       <c r="O400" s="11">
         <v>50.3</v>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="N402" s="12">
         <f t="shared" si="13"/>
-        <v>214.13214075471697</v>
+        <v>125.21914114544222</v>
       </c>
       <c r="O402" s="11">
         <v>52.7</v>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="N404" s="12">
         <f t="shared" si="13"/>
-        <v>218.25006653846154</v>
+        <v>127.62720155208535</v>
       </c>
       <c r="O404" s="11">
         <v>35.4</v>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="N406" s="12">
         <f t="shared" si="13"/>
-        <v>131.20235213872832</v>
+        <v>76.723866828999292</v>
       </c>
       <c r="O406" s="11">
         <v>53.9</v>
@@ -22798,7 +22798,7 @@
       </c>
       <c r="N408" s="12">
         <f t="shared" si="13"/>
-        <v>169.38811134328358</v>
+        <v>99.053947473260266</v>
       </c>
       <c r="O408" s="11">
         <v>52.2</v>
@@ -22906,7 +22906,7 @@
       </c>
       <c r="N410" s="12">
         <f t="shared" si="13"/>
-        <v>187.58683404958677</v>
+        <v>109.69610711914774</v>
       </c>
       <c r="O410" s="11">
         <v>46</v>
@@ -23014,7 +23014,7 @@
       </c>
       <c r="N412" s="12">
         <f t="shared" si="13"/>
-        <v>214.13214075471697</v>
+        <v>125.21914114544222</v>
       </c>
       <c r="O412" s="11">
         <v>40.700000000000003</v>
@@ -23122,7 +23122,7 @@
       </c>
       <c r="N414" s="12">
         <f t="shared" si="13"/>
-        <v>218.25006653846154</v>
+        <v>127.62720155208535</v>
       </c>
       <c r="O414" s="11">
         <v>53.5</v>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="N416" s="12">
         <f t="shared" si="13"/>
-        <v>204.48654882882883</v>
+        <v>119.57863929204393</v>
       </c>
       <c r="O416" s="11">
         <v>41.4</v>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="N418" s="12">
         <f t="shared" si="13"/>
-        <v>141.86254324999999</v>
+        <v>82.957681008855474</v>
       </c>
       <c r="O418" s="11">
         <v>62.6</v>
@@ -23446,7 +23446,7 @@
       </c>
       <c r="N420" s="12">
         <f t="shared" si="13"/>
-        <v>137.56367830303029</v>
+        <v>80.443811887375006</v>
       </c>
       <c r="O420" s="11">
         <v>63.4</v>

--- a/Data/Bioesta.xlsx
+++ b/Data/Bioesta.xlsx
@@ -982,7 +982,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
